--- a/HISTORIAS.xlsx
+++ b/HISTORIAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eessl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3052F80B-45E6-4DB9-BB93-1E668BC5542C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{509DF2F2-5AEA-47B2-B1D2-BE55CBB4275F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="7650" windowWidth="28770" windowHeight="7830" xr2:uid="{CCD19B87-9AF8-4508-8C73-FA6F2ACFBD3B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CCD19B87-9AF8-4508-8C73-FA6F2ACFBD3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -106,493 +106,1042 @@
   <commentList>
     <comment ref="H78" authorId="0" shapeId="0" xr:uid="{5CE189AE-29A3-40D0-A3D8-8E2500DA3ECF}">
       <text>
-        <t xml:space="preserve">[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     ESTA BORRADO CON CORRECTOR </t>
+        </r>
       </text>
     </comment>
     <comment ref="H104" authorId="1" shapeId="0" xr:uid="{EE40F47E-27A4-40DB-A2D6-8B834D49A9F8}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     VER HC PARA PONER DATOS</t>
+        </r>
       </text>
     </comment>
     <comment ref="H105" authorId="2" shapeId="0" xr:uid="{0950CC77-BC05-46BE-B9D9-17224F901166}">
       <text>
-        <t xml:space="preserve">[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     BUSCAR HC Y VER BIEN EL NOMBRE 
 </t>
+        </r>
       </text>
     </comment>
     <comment ref="F108" authorId="3" shapeId="0" xr:uid="{2FBEFEAA-2B74-46A6-9247-0A73B9A8E687}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     TIENE DNI Y CEDULA</t>
+        </r>
       </text>
     </comment>
     <comment ref="H115" authorId="4" shapeId="0" xr:uid="{F6679732-EB0F-4C70-B827-E39A22485A67}">
       <text>
-        <t xml:space="preserve">[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     VER HC PARA PONER DATOS
 </t>
+        </r>
       </text>
     </comment>
     <comment ref="I116" authorId="5" shapeId="0" xr:uid="{21EDB7EB-0075-43EF-8F59-D09BADCF8CCD}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     ESTA BORRADO CON CORRECTOR Y DICE PASO A 53</t>
+        </r>
       </text>
     </comment>
     <comment ref="I117" authorId="6" shapeId="0" xr:uid="{27F87ABF-B203-4C89-AF9C-707F72C052AB}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     ESTA BORRADO CON CORRECTOR Y DICE : PASO A 29</t>
+        </r>
       </text>
     </comment>
     <comment ref="I137" authorId="7" shapeId="0" xr:uid="{1A2A4F86-A91E-4D9F-AABB-BCEBD64C70EE}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     SU SIS APARECE EN EL P.S OIDOR</t>
+        </r>
       </text>
     </comment>
     <comment ref="I141" authorId="8" shapeId="0" xr:uid="{38E23685-9A11-4148-B7F0-64AEF1212EC8}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     NO HAY REGISTRO DE LA  HC EN EL CUADERNO CON LA B26</t>
+        </r>
       </text>
     </comment>
     <comment ref="I142" authorId="9" shapeId="0" xr:uid="{363324CB-A265-476D-A2CB-D592178E9EA1}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     PASO A 36</t>
+        </r>
       </text>
     </comment>
     <comment ref="I145" authorId="10" shapeId="0" xr:uid="{047B0F32-4624-417C-BBEC-A1F3E349CA71}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     EL SIS DEL SEÑOR OLADIO SALE DE MATAPALO</t>
+        </r>
       </text>
     </comment>
     <comment ref="I150" authorId="11" shapeId="0" xr:uid="{3A719686-9F38-4EBC-91A0-C56493F116AA}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     VER HC DEL B35 SE REPITE CON EL B33 MISMOS DATOS</t>
+        </r>
       </text>
     </comment>
     <comment ref="I152" authorId="12" shapeId="0" xr:uid="{28117F77-2FE9-49BF-90B1-7DCDB2645B9F}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     SE REPITE CON HC DEL B 33 MISMOS DATOS</t>
+        </r>
       </text>
     </comment>
     <comment ref="J190" authorId="13" shapeId="0" xr:uid="{FF347CBC-5CF3-45F4-8BBC-A84074056E88}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     REVISAR HC PARA COMPLETAR DATOS</t>
+        </r>
       </text>
     </comment>
     <comment ref="J191" authorId="14" shapeId="0" xr:uid="{550853C9-5F92-48C2-8575-D61B45A9FE49}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     REVISAR HC PARA ACTUALIZAR DATOS</t>
+        </r>
       </text>
     </comment>
     <comment ref="J194" authorId="15" shapeId="0" xr:uid="{15AC560E-3589-4323-AB2D-5FD4232F00C1}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     REVISAR HC PARA ACTUALIZAR DATOS</t>
+        </r>
       </text>
     </comment>
     <comment ref="J198" authorId="16" shapeId="0" xr:uid="{814F2DBF-679C-4EB7-934A-4937F15C2DBE}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     REVISAR HC PARA ACTUALIZAR DATOS</t>
+        </r>
       </text>
     </comment>
     <comment ref="J199" authorId="17" shapeId="0" xr:uid="{F4029059-8CAF-48E3-8A8B-6620A8F68AF9}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     REVISAR HC PARA ACTUALIZAR DATOS</t>
+        </r>
       </text>
     </comment>
     <comment ref="K227" authorId="18" shapeId="0" xr:uid="{29933479-A7D5-4F19-A85E-5DAC4E9A0F88}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     NO REGISTRA NADA DE DATOS EN EL CUADERNO DE HC</t>
+        </r>
       </text>
     </comment>
     <comment ref="K228" authorId="19" shapeId="0" xr:uid="{4488AAEB-22BD-45BF-A332-FE4D8448E56A}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     NO REGISTRA NADA DE DATOS EN EL CUADERNO DE HC</t>
+        </r>
       </text>
     </comment>
     <comment ref="K232" authorId="20" shapeId="0" xr:uid="{EAFA0BAB-AB0E-4B38-BC70-57BCB1B8FDD7}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     NO HAY REGISTRO EN EL CUADERNO DE "HC" CON LA P17</t>
+        </r>
       </text>
     </comment>
     <comment ref="K246" authorId="21" shapeId="0" xr:uid="{4E460CE0-1610-423F-A605-98C7784C47E6}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     SIS DEL SEÑOR ESTA CANCELADO DESDE LA FECHA 08/04/2023</t>
+        </r>
       </text>
     </comment>
     <comment ref="K255" authorId="22" shapeId="0" xr:uid="{35D0B68B-C3FC-4AF3-B4B4-E7CB5D8A50FF}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     NO SE ENTIENDE MUY BIEN  LO QUE DICE EN EL CUADERNO DE HC ( SI ALGUIEN LOGRA DECIFRARLO POR FAVOR PONER BIEN LOS DATOS AQUÍ ☺️</t>
+        </r>
       </text>
     </comment>
     <comment ref="K257" authorId="23" shapeId="0" xr:uid="{266FFF1B-5C8F-4A97-AF22-7EC216F9D90C}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     EL SIS DEL SEÑOR YSAAC ESTA CANCELADO EN LA FECHA 09/05/2022</t>
+        </r>
       </text>
     </comment>
     <comment ref="K260" authorId="24" shapeId="0" xr:uid="{1CA71E16-677B-4F6D-B44E-EB0893A42414}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     SIS DEL SEÑOR MIGUEL ESTA CANCELADO DESDE LA FECHA 23/01/2024</t>
+        </r>
       </text>
     </comment>
     <comment ref="K269" authorId="25" shapeId="0" xr:uid="{C7C2E008-BC4D-4441-B538-244D2042FF26}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     VER HC PARA COMPLETAR DATOS</t>
+        </r>
       </text>
     </comment>
     <comment ref="L289" authorId="26" shapeId="0" xr:uid="{56344046-A092-4C86-B1AF-5F6793F18B9D}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     FALTAN DATOS EN EL CUADERNO DE HC</t>
+        </r>
       </text>
     </comment>
     <comment ref="L290" authorId="27" shapeId="0" xr:uid="{8482CDA3-A454-45A5-8E7E-3CE92512A43D}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     FALTAN DATOS EN EL CUADERNO DE HC</t>
+        </r>
       </text>
     </comment>
     <comment ref="L291" authorId="28" shapeId="0" xr:uid="{BADEFC46-7944-4575-92B4-2EA5B5A513B7}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     FALTAN DATOS EN EL CUADERNO DE HC</t>
+        </r>
       </text>
     </comment>
     <comment ref="L318" authorId="29" shapeId="0" xr:uid="{21BDBE54-DC0F-4A96-9A4F-6F54F9ECAB07}">
       <text>
-        <t xml:space="preserve">[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     No hay registro de HC en el cuaderno 
 </t>
+        </r>
       </text>
     </comment>
     <comment ref="L329" authorId="30" shapeId="0" xr:uid="{A25AEECB-6466-44BF-A8BA-93F6768650E3}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     NO HAY REGISTRO EN EL CUADERNO DE HC</t>
+        </r>
       </text>
     </comment>
     <comment ref="L358" authorId="31" shapeId="0" xr:uid="{4D2313E2-E69E-49C7-97C5-B3B1C2A3600E}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     SEÑORA TIENE 2 HC CON LA T 57 Y T 87</t>
+        </r>
       </text>
     </comment>
     <comment ref="L360" authorId="32" shapeId="0" xr:uid="{F60A4AF3-2FDE-436E-A599-5C38131D408F}">
       <text>
-        <t xml:space="preserve">[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     BORRARON DATOS CON CORRECTOR EN EL CUADERNO DE HC </t>
+        </r>
       </text>
     </comment>
     <comment ref="L366" authorId="33" shapeId="0" xr:uid="{D4213B68-8EB4-4678-9CA4-0C520BB1A54D}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     TIENE TAMBIEN HC CON EL C28</t>
+        </r>
       </text>
     </comment>
     <comment ref="L382" authorId="34" shapeId="0" xr:uid="{FBD06DAE-E9C1-4EDE-B817-E7BAE4DB3039}">
       <text>
-        <t xml:space="preserve">[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     VER BIEN EN HC DATOS </t>
+        </r>
       </text>
     </comment>
     <comment ref="L383" authorId="35" shapeId="0" xr:uid="{3E288863-6CC2-4E6F-89E9-85A269BDAA32}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     NO HAY DATOS EN ESTA HC - NO REGISTRADO</t>
+        </r>
       </text>
     </comment>
     <comment ref="L384" authorId="36" shapeId="0" xr:uid="{3B29E83A-A77A-459B-8892-9E9550DFED01}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     NO HAY DATOS EN ESTA HC - NO REGISTRADO</t>
+        </r>
       </text>
     </comment>
     <comment ref="L385" authorId="37" shapeId="0" xr:uid="{C2EDA6CA-C595-45FA-AA71-BFD2F22F0910}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     NO HAY DATOS EN ESTA HC - NO REGISTRADO</t>
+        </r>
       </text>
     </comment>
     <comment ref="L392" authorId="38" shapeId="0" xr:uid="{DB356882-3DB0-4A92-9C18-B8AE9FD2FFBD}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     FALTAN DATOS EN EL CUADERNO DE REGISTRO DE LAS HC</t>
+        </r>
       </text>
     </comment>
     <comment ref="L407" authorId="39" shapeId="0" xr:uid="{7F7C7DDB-30C5-439E-B76E-FA1C3DD814EF}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     NO SE VE BIEN EL NOMBRE EN EL CUADERNO DE HC</t>
+        </r>
       </text>
     </comment>
     <comment ref="L410" authorId="40" shapeId="0" xr:uid="{FAE57F6D-B327-4F41-82AF-7719CE7380EE}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     NO SE ENTIENDE EL NOMBRE EN EL CUADERNO DE HC "ESCRIBAN BIEN "</t>
+        </r>
       </text>
     </comment>
     <comment ref="L412" authorId="41" shapeId="0" xr:uid="{63851BF1-8918-4E49-8084-F5672700B4BA}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     FALTAN DATOS BUSCAR EN HC</t>
+        </r>
       </text>
     </comment>
     <comment ref="L413" authorId="42" shapeId="0" xr:uid="{DBFAF470-5330-4D8D-AFC9-EC941961DA37}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     FALTAN DATOS BUSCAR EN HC</t>
+        </r>
       </text>
     </comment>
     <comment ref="L414" authorId="43" shapeId="0" xr:uid="{B256496B-AA92-47B4-BFBC-AD99E87F08B5}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     SE REPITE CON EL T124</t>
+        </r>
       </text>
     </comment>
     <comment ref="L415" authorId="44" shapeId="0" xr:uid="{6F1D6686-4EA5-40DC-A9F4-7EF0E0361981}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     FALTAN DATOS EN CUADERNO DE HC</t>
+        </r>
       </text>
     </comment>
     <comment ref="L420" authorId="45" shapeId="0" xr:uid="{C82E859E-D32E-4B97-9E7B-66230750816A}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     FALTAN DATOS EN EL CUADERNO DE REGISTRO DE HC</t>
+        </r>
       </text>
     </comment>
     <comment ref="L427" authorId="46" shapeId="0" xr:uid="{628B4E16-0F90-42A5-94EF-BEB51D4DCA01}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     FALTAN DATOS EN EL CUADERNO DE REGISTROS DE HC</t>
+        </r>
       </text>
     </comment>
     <comment ref="L428" authorId="47" shapeId="0" xr:uid="{8BE07839-A7B4-4E44-BBB6-4A276C5CB9B9}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     FALTAN DATOS EN EL CUADERNO DE REGISTRO DE HC</t>
+        </r>
       </text>
     </comment>
     <comment ref="L432" authorId="48" shapeId="0" xr:uid="{12E08E2F-A1B3-4CC8-8FA7-04B2FE7F8A65}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     No hay datos en el Cuaderno de Hc</t>
+        </r>
       </text>
     </comment>
     <comment ref="L446" authorId="49" shapeId="0" xr:uid="{13DA24DE-BD1D-432E-8704-18E4045D7DE0}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     Faltan datos en cuaderno de HC</t>
+        </r>
       </text>
     </comment>
     <comment ref="L459" authorId="50" shapeId="0" xr:uid="{C3324F75-6307-4A16-AAB4-535A37215E81}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     BUSCAR HC PARA COMPLETAR DATOS</t>
+        </r>
       </text>
     </comment>
     <comment ref="L499" authorId="51" shapeId="0" xr:uid="{6C20539A-CEC3-4E65-B905-8DB61838155F}">
       <text>
-        <t xml:space="preserve">[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     FALTAN DATOS EN CUADERNO DE HC </t>
+        </r>
       </text>
     </comment>
     <comment ref="L500" authorId="52" shapeId="0" xr:uid="{14FEE603-E4CC-434F-BA6E-43BB10430BD6}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     NO SE ENTIENDO QUE DICE EN EL CUADERNO DE HISTORIAS CLINICAS</t>
+        </r>
       </text>
     </comment>
     <comment ref="L504" authorId="53" shapeId="0" xr:uid="{14A24AF1-9AD3-4DF9-94C9-A8D751F232D2}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     UNICOS DATOS EN EL CUADERNO DE HC</t>
+        </r>
       </text>
     </comment>
     <comment ref="L518" authorId="54" shapeId="0" xr:uid="{5C00D7A6-C1E0-4572-A7E2-0A726A7780AB}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     ESTA EN BLANCO EN EL CUADERNO DE HC</t>
+        </r>
       </text>
     </comment>
     <comment ref="L525" authorId="55" shapeId="0" xr:uid="{055D80E2-935D-4AA8-A4D4-713FA85C41F7}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     SOLO ESTAN LOS DATOS DEL NIÑO MAS NO DEL APODERADO</t>
+        </r>
       </text>
     </comment>
     <comment ref="F526" authorId="56" shapeId="0" xr:uid="{6E477B3E-3FB4-479F-A015-CFB47CABDA55}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     ES CEDULA</t>
+        </r>
       </text>
     </comment>
     <comment ref="L527" authorId="57" shapeId="0" xr:uid="{BAA3AE5C-8C83-41A5-A3AA-93CC35EBD5AD}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     NO HAY REGISTRO EN EL CUADERNO DE HC CON ESTE NUMERO DE HC</t>
+        </r>
       </text>
     </comment>
     <comment ref="L540" authorId="58" shapeId="0" xr:uid="{5322F9FB-B379-4037-ABAD-6BDA81C999D9}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     FALTAN DATOS EN EL CUADERNO DE REGISTRO DE LAS HISTORIAS CLINICA</t>
+        </r>
       </text>
     </comment>
     <comment ref="L541" authorId="59" shapeId="0" xr:uid="{CCEADC99-5D4C-48C9-8835-7940D7A3961F}">
       <text>
-        <t xml:space="preserve">[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     FALTAN DATOS EN EL CUADERNO DE REGISTRO DE LAS HISTORIAS CLINICAS </t>
+        </r>
       </text>
     </comment>
     <comment ref="L575" authorId="60" shapeId="0" xr:uid="{C97F6CBA-7D76-4F75-9185-B481B615D535}">
       <text>
-        <t>[Comentario encadenado]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     BUSCAR INFORMACION EN SUS HC</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -5550,7 +6099,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5643,12 +6192,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -5904,10 +6447,13 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5934,13 +6480,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6054,9 +6597,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6094,7 +6637,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6200,7 +6743,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6342,7 +6885,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6559,30 +7102,30 @@
   <sheetData>
     <row r="8" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="36"/>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="38"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
     </row>
     <row r="11" spans="2:12" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
@@ -6597,10 +7140,10 @@
       <c r="E11" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="32"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="2" t="s">
         <v>335</v>
       </c>
@@ -8815,10 +9358,10 @@
       <c r="E105" s="23" t="s">
         <v>1193</v>
       </c>
-      <c r="F105" s="29" t="s">
+      <c r="F105" s="40" t="s">
         <v>1194</v>
       </c>
-      <c r="G105" s="30"/>
+      <c r="G105" s="41"/>
       <c r="H105" s="24" t="s">
         <v>119</v>
       </c>
@@ -18634,10 +19177,10 @@
       <c r="E517" s="25" t="s">
         <v>392</v>
       </c>
-      <c r="F517" s="40" t="s">
+      <c r="F517" s="30" t="s">
         <v>1492</v>
       </c>
-      <c r="G517" s="41"/>
+      <c r="G517" s="31"/>
       <c r="H517" s="8"/>
       <c r="I517" s="8"/>
       <c r="J517" s="9"/>
@@ -18676,7 +19219,7 @@
       <c r="E519" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="F519" s="39">
+      <c r="F519" s="29">
         <v>91130000</v>
       </c>
       <c r="G519" s="28"/>
@@ -18724,7 +19267,7 @@
       <c r="E521" s="6" t="s">
         <v>1500</v>
       </c>
-      <c r="F521" s="39">
+      <c r="F521" s="29">
         <v>60165731</v>
       </c>
       <c r="G521" s="28"/>
@@ -18797,7 +19340,7 @@
       <c r="E524" s="6" t="s">
         <v>1506</v>
       </c>
-      <c r="F524" s="39">
+      <c r="F524" s="29">
         <v>46972638</v>
       </c>
       <c r="G524" s="28"/>
@@ -18822,7 +19365,7 @@
       <c r="E525" s="6" t="s">
         <v>1509</v>
       </c>
-      <c r="F525" s="39">
+      <c r="F525" s="29">
         <v>90609698</v>
       </c>
       <c r="G525" s="28"/>
@@ -18981,7 +19524,7 @@
       <c r="E532" s="6" t="s">
         <v>1524</v>
       </c>
-      <c r="F532" s="39">
+      <c r="F532" s="29">
         <v>78035333</v>
       </c>
       <c r="G532" s="28"/>
@@ -19391,7 +19934,7 @@
       <c r="E550" s="6" t="s">
         <v>1563</v>
       </c>
-      <c r="F550" s="39">
+      <c r="F550" s="29">
         <v>45277952</v>
       </c>
       <c r="G550" s="28"/>
@@ -19533,7 +20076,7 @@
       <c r="E556" s="6" t="s">
         <v>1575</v>
       </c>
-      <c r="F556" s="39">
+      <c r="F556" s="29">
         <v>79759734</v>
       </c>
       <c r="G556" s="28"/>
@@ -19671,7 +20214,7 @@
       <c r="E562" s="6" t="s">
         <v>1591</v>
       </c>
-      <c r="F562" s="39">
+      <c r="F562" s="29">
         <v>78096550</v>
       </c>
       <c r="G562" s="28"/>
@@ -19696,7 +20239,7 @@
       <c r="E563" s="6" t="s">
         <v>1592</v>
       </c>
-      <c r="F563" s="39">
+      <c r="F563" s="29">
         <v>44558441</v>
       </c>
       <c r="G563" s="28"/>
@@ -41565,6 +42108,1976 @@
     <filterColumn colId="4" showButton="0"/>
   </autoFilter>
   <mergeCells count="2002">
+    <mergeCell ref="F2011:G2011"/>
+    <mergeCell ref="F2002:G2002"/>
+    <mergeCell ref="F2003:G2003"/>
+    <mergeCell ref="F2004:G2004"/>
+    <mergeCell ref="F2005:G2005"/>
+    <mergeCell ref="F2006:G2006"/>
+    <mergeCell ref="F2007:G2007"/>
+    <mergeCell ref="F2008:G2008"/>
+    <mergeCell ref="F2009:G2009"/>
+    <mergeCell ref="F2010:G2010"/>
+    <mergeCell ref="F1993:G1993"/>
+    <mergeCell ref="F1994:G1994"/>
+    <mergeCell ref="F1995:G1995"/>
+    <mergeCell ref="F1996:G1996"/>
+    <mergeCell ref="F1997:G1997"/>
+    <mergeCell ref="F1998:G1998"/>
+    <mergeCell ref="F1999:G1999"/>
+    <mergeCell ref="F2000:G2000"/>
+    <mergeCell ref="F2001:G2001"/>
+    <mergeCell ref="F1984:G1984"/>
+    <mergeCell ref="F1985:G1985"/>
+    <mergeCell ref="F1986:G1986"/>
+    <mergeCell ref="F1987:G1987"/>
+    <mergeCell ref="F1988:G1988"/>
+    <mergeCell ref="F1989:G1989"/>
+    <mergeCell ref="F1990:G1990"/>
+    <mergeCell ref="F1991:G1991"/>
+    <mergeCell ref="F1992:G1992"/>
+    <mergeCell ref="F1975:G1975"/>
+    <mergeCell ref="F1976:G1976"/>
+    <mergeCell ref="F1977:G1977"/>
+    <mergeCell ref="F1978:G1978"/>
+    <mergeCell ref="F1979:G1979"/>
+    <mergeCell ref="F1980:G1980"/>
+    <mergeCell ref="F1981:G1981"/>
+    <mergeCell ref="F1982:G1982"/>
+    <mergeCell ref="F1983:G1983"/>
+    <mergeCell ref="F1966:G1966"/>
+    <mergeCell ref="F1967:G1967"/>
+    <mergeCell ref="F1968:G1968"/>
+    <mergeCell ref="F1969:G1969"/>
+    <mergeCell ref="F1970:G1970"/>
+    <mergeCell ref="F1971:G1971"/>
+    <mergeCell ref="F1972:G1972"/>
+    <mergeCell ref="F1973:G1973"/>
+    <mergeCell ref="F1974:G1974"/>
+    <mergeCell ref="F1957:G1957"/>
+    <mergeCell ref="F1958:G1958"/>
+    <mergeCell ref="F1959:G1959"/>
+    <mergeCell ref="F1960:G1960"/>
+    <mergeCell ref="F1961:G1961"/>
+    <mergeCell ref="F1962:G1962"/>
+    <mergeCell ref="F1963:G1963"/>
+    <mergeCell ref="F1964:G1964"/>
+    <mergeCell ref="F1965:G1965"/>
+    <mergeCell ref="F1948:G1948"/>
+    <mergeCell ref="F1949:G1949"/>
+    <mergeCell ref="F1950:G1950"/>
+    <mergeCell ref="F1951:G1951"/>
+    <mergeCell ref="F1952:G1952"/>
+    <mergeCell ref="F1953:G1953"/>
+    <mergeCell ref="F1954:G1954"/>
+    <mergeCell ref="F1955:G1955"/>
+    <mergeCell ref="F1956:G1956"/>
+    <mergeCell ref="F1939:G1939"/>
+    <mergeCell ref="F1940:G1940"/>
+    <mergeCell ref="F1941:G1941"/>
+    <mergeCell ref="F1942:G1942"/>
+    <mergeCell ref="F1943:G1943"/>
+    <mergeCell ref="F1944:G1944"/>
+    <mergeCell ref="F1945:G1945"/>
+    <mergeCell ref="F1946:G1946"/>
+    <mergeCell ref="F1947:G1947"/>
+    <mergeCell ref="F1930:G1930"/>
+    <mergeCell ref="F1931:G1931"/>
+    <mergeCell ref="F1932:G1932"/>
+    <mergeCell ref="F1933:G1933"/>
+    <mergeCell ref="F1934:G1934"/>
+    <mergeCell ref="F1935:G1935"/>
+    <mergeCell ref="F1936:G1936"/>
+    <mergeCell ref="F1937:G1937"/>
+    <mergeCell ref="F1938:G1938"/>
+    <mergeCell ref="F1921:G1921"/>
+    <mergeCell ref="F1922:G1922"/>
+    <mergeCell ref="F1923:G1923"/>
+    <mergeCell ref="F1924:G1924"/>
+    <mergeCell ref="F1925:G1925"/>
+    <mergeCell ref="F1926:G1926"/>
+    <mergeCell ref="F1927:G1927"/>
+    <mergeCell ref="F1928:G1928"/>
+    <mergeCell ref="F1929:G1929"/>
+    <mergeCell ref="F1912:G1912"/>
+    <mergeCell ref="F1913:G1913"/>
+    <mergeCell ref="F1914:G1914"/>
+    <mergeCell ref="F1915:G1915"/>
+    <mergeCell ref="F1916:G1916"/>
+    <mergeCell ref="F1917:G1917"/>
+    <mergeCell ref="F1918:G1918"/>
+    <mergeCell ref="F1919:G1919"/>
+    <mergeCell ref="F1920:G1920"/>
+    <mergeCell ref="F1903:G1903"/>
+    <mergeCell ref="F1904:G1904"/>
+    <mergeCell ref="F1905:G1905"/>
+    <mergeCell ref="F1906:G1906"/>
+    <mergeCell ref="F1907:G1907"/>
+    <mergeCell ref="F1908:G1908"/>
+    <mergeCell ref="F1909:G1909"/>
+    <mergeCell ref="F1910:G1910"/>
+    <mergeCell ref="F1911:G1911"/>
+    <mergeCell ref="F1894:G1894"/>
+    <mergeCell ref="F1895:G1895"/>
+    <mergeCell ref="F1896:G1896"/>
+    <mergeCell ref="F1897:G1897"/>
+    <mergeCell ref="F1898:G1898"/>
+    <mergeCell ref="F1899:G1899"/>
+    <mergeCell ref="F1900:G1900"/>
+    <mergeCell ref="F1901:G1901"/>
+    <mergeCell ref="F1902:G1902"/>
+    <mergeCell ref="F1885:G1885"/>
+    <mergeCell ref="F1886:G1886"/>
+    <mergeCell ref="F1887:G1887"/>
+    <mergeCell ref="F1888:G1888"/>
+    <mergeCell ref="F1889:G1889"/>
+    <mergeCell ref="F1890:G1890"/>
+    <mergeCell ref="F1891:G1891"/>
+    <mergeCell ref="F1892:G1892"/>
+    <mergeCell ref="F1893:G1893"/>
+    <mergeCell ref="F1876:G1876"/>
+    <mergeCell ref="F1877:G1877"/>
+    <mergeCell ref="F1878:G1878"/>
+    <mergeCell ref="F1879:G1879"/>
+    <mergeCell ref="F1880:G1880"/>
+    <mergeCell ref="F1881:G1881"/>
+    <mergeCell ref="F1882:G1882"/>
+    <mergeCell ref="F1883:G1883"/>
+    <mergeCell ref="F1884:G1884"/>
+    <mergeCell ref="F1867:G1867"/>
+    <mergeCell ref="F1868:G1868"/>
+    <mergeCell ref="F1869:G1869"/>
+    <mergeCell ref="F1870:G1870"/>
+    <mergeCell ref="F1871:G1871"/>
+    <mergeCell ref="F1872:G1872"/>
+    <mergeCell ref="F1873:G1873"/>
+    <mergeCell ref="F1874:G1874"/>
+    <mergeCell ref="F1875:G1875"/>
+    <mergeCell ref="F1858:G1858"/>
+    <mergeCell ref="F1859:G1859"/>
+    <mergeCell ref="F1860:G1860"/>
+    <mergeCell ref="F1861:G1861"/>
+    <mergeCell ref="F1862:G1862"/>
+    <mergeCell ref="F1863:G1863"/>
+    <mergeCell ref="F1864:G1864"/>
+    <mergeCell ref="F1865:G1865"/>
+    <mergeCell ref="F1866:G1866"/>
+    <mergeCell ref="F1849:G1849"/>
+    <mergeCell ref="F1850:G1850"/>
+    <mergeCell ref="F1851:G1851"/>
+    <mergeCell ref="F1852:G1852"/>
+    <mergeCell ref="F1853:G1853"/>
+    <mergeCell ref="F1854:G1854"/>
+    <mergeCell ref="F1855:G1855"/>
+    <mergeCell ref="F1856:G1856"/>
+    <mergeCell ref="F1857:G1857"/>
+    <mergeCell ref="F1840:G1840"/>
+    <mergeCell ref="F1841:G1841"/>
+    <mergeCell ref="F1842:G1842"/>
+    <mergeCell ref="F1843:G1843"/>
+    <mergeCell ref="F1844:G1844"/>
+    <mergeCell ref="F1845:G1845"/>
+    <mergeCell ref="F1846:G1846"/>
+    <mergeCell ref="F1847:G1847"/>
+    <mergeCell ref="F1848:G1848"/>
+    <mergeCell ref="F1831:G1831"/>
+    <mergeCell ref="F1832:G1832"/>
+    <mergeCell ref="F1833:G1833"/>
+    <mergeCell ref="F1834:G1834"/>
+    <mergeCell ref="F1835:G1835"/>
+    <mergeCell ref="F1836:G1836"/>
+    <mergeCell ref="F1837:G1837"/>
+    <mergeCell ref="F1838:G1838"/>
+    <mergeCell ref="F1839:G1839"/>
+    <mergeCell ref="F1822:G1822"/>
+    <mergeCell ref="F1823:G1823"/>
+    <mergeCell ref="F1824:G1824"/>
+    <mergeCell ref="F1825:G1825"/>
+    <mergeCell ref="F1826:G1826"/>
+    <mergeCell ref="F1827:G1827"/>
+    <mergeCell ref="F1828:G1828"/>
+    <mergeCell ref="F1829:G1829"/>
+    <mergeCell ref="F1830:G1830"/>
+    <mergeCell ref="F1813:G1813"/>
+    <mergeCell ref="F1814:G1814"/>
+    <mergeCell ref="F1815:G1815"/>
+    <mergeCell ref="F1816:G1816"/>
+    <mergeCell ref="F1817:G1817"/>
+    <mergeCell ref="F1818:G1818"/>
+    <mergeCell ref="F1819:G1819"/>
+    <mergeCell ref="F1820:G1820"/>
+    <mergeCell ref="F1821:G1821"/>
+    <mergeCell ref="F1804:G1804"/>
+    <mergeCell ref="F1805:G1805"/>
+    <mergeCell ref="F1806:G1806"/>
+    <mergeCell ref="F1807:G1807"/>
+    <mergeCell ref="F1808:G1808"/>
+    <mergeCell ref="F1809:G1809"/>
+    <mergeCell ref="F1810:G1810"/>
+    <mergeCell ref="F1811:G1811"/>
+    <mergeCell ref="F1812:G1812"/>
+    <mergeCell ref="F1795:G1795"/>
+    <mergeCell ref="F1796:G1796"/>
+    <mergeCell ref="F1797:G1797"/>
+    <mergeCell ref="F1798:G1798"/>
+    <mergeCell ref="F1799:G1799"/>
+    <mergeCell ref="F1800:G1800"/>
+    <mergeCell ref="F1801:G1801"/>
+    <mergeCell ref="F1802:G1802"/>
+    <mergeCell ref="F1803:G1803"/>
+    <mergeCell ref="F1786:G1786"/>
+    <mergeCell ref="F1787:G1787"/>
+    <mergeCell ref="F1788:G1788"/>
+    <mergeCell ref="F1789:G1789"/>
+    <mergeCell ref="F1790:G1790"/>
+    <mergeCell ref="F1791:G1791"/>
+    <mergeCell ref="F1792:G1792"/>
+    <mergeCell ref="F1793:G1793"/>
+    <mergeCell ref="F1794:G1794"/>
+    <mergeCell ref="F1777:G1777"/>
+    <mergeCell ref="F1778:G1778"/>
+    <mergeCell ref="F1779:G1779"/>
+    <mergeCell ref="F1780:G1780"/>
+    <mergeCell ref="F1781:G1781"/>
+    <mergeCell ref="F1782:G1782"/>
+    <mergeCell ref="F1783:G1783"/>
+    <mergeCell ref="F1784:G1784"/>
+    <mergeCell ref="F1785:G1785"/>
+    <mergeCell ref="F1768:G1768"/>
+    <mergeCell ref="F1769:G1769"/>
+    <mergeCell ref="F1770:G1770"/>
+    <mergeCell ref="F1771:G1771"/>
+    <mergeCell ref="F1772:G1772"/>
+    <mergeCell ref="F1773:G1773"/>
+    <mergeCell ref="F1774:G1774"/>
+    <mergeCell ref="F1775:G1775"/>
+    <mergeCell ref="F1776:G1776"/>
+    <mergeCell ref="F1759:G1759"/>
+    <mergeCell ref="F1760:G1760"/>
+    <mergeCell ref="F1761:G1761"/>
+    <mergeCell ref="F1762:G1762"/>
+    <mergeCell ref="F1763:G1763"/>
+    <mergeCell ref="F1764:G1764"/>
+    <mergeCell ref="F1765:G1765"/>
+    <mergeCell ref="F1766:G1766"/>
+    <mergeCell ref="F1767:G1767"/>
+    <mergeCell ref="F1750:G1750"/>
+    <mergeCell ref="F1751:G1751"/>
+    <mergeCell ref="F1752:G1752"/>
+    <mergeCell ref="F1753:G1753"/>
+    <mergeCell ref="F1754:G1754"/>
+    <mergeCell ref="F1755:G1755"/>
+    <mergeCell ref="F1756:G1756"/>
+    <mergeCell ref="F1757:G1757"/>
+    <mergeCell ref="F1758:G1758"/>
+    <mergeCell ref="F1741:G1741"/>
+    <mergeCell ref="F1742:G1742"/>
+    <mergeCell ref="F1743:G1743"/>
+    <mergeCell ref="F1744:G1744"/>
+    <mergeCell ref="F1745:G1745"/>
+    <mergeCell ref="F1746:G1746"/>
+    <mergeCell ref="F1747:G1747"/>
+    <mergeCell ref="F1748:G1748"/>
+    <mergeCell ref="F1749:G1749"/>
+    <mergeCell ref="F1732:G1732"/>
+    <mergeCell ref="F1733:G1733"/>
+    <mergeCell ref="F1734:G1734"/>
+    <mergeCell ref="F1735:G1735"/>
+    <mergeCell ref="F1736:G1736"/>
+    <mergeCell ref="F1737:G1737"/>
+    <mergeCell ref="F1738:G1738"/>
+    <mergeCell ref="F1739:G1739"/>
+    <mergeCell ref="F1740:G1740"/>
+    <mergeCell ref="F1723:G1723"/>
+    <mergeCell ref="F1724:G1724"/>
+    <mergeCell ref="F1725:G1725"/>
+    <mergeCell ref="F1726:G1726"/>
+    <mergeCell ref="F1727:G1727"/>
+    <mergeCell ref="F1728:G1728"/>
+    <mergeCell ref="F1729:G1729"/>
+    <mergeCell ref="F1730:G1730"/>
+    <mergeCell ref="F1731:G1731"/>
+    <mergeCell ref="F1714:G1714"/>
+    <mergeCell ref="F1715:G1715"/>
+    <mergeCell ref="F1716:G1716"/>
+    <mergeCell ref="F1717:G1717"/>
+    <mergeCell ref="F1718:G1718"/>
+    <mergeCell ref="F1719:G1719"/>
+    <mergeCell ref="F1720:G1720"/>
+    <mergeCell ref="F1721:G1721"/>
+    <mergeCell ref="F1722:G1722"/>
+    <mergeCell ref="F1705:G1705"/>
+    <mergeCell ref="F1706:G1706"/>
+    <mergeCell ref="F1707:G1707"/>
+    <mergeCell ref="F1708:G1708"/>
+    <mergeCell ref="F1709:G1709"/>
+    <mergeCell ref="F1710:G1710"/>
+    <mergeCell ref="F1711:G1711"/>
+    <mergeCell ref="F1712:G1712"/>
+    <mergeCell ref="F1713:G1713"/>
+    <mergeCell ref="F1696:G1696"/>
+    <mergeCell ref="F1697:G1697"/>
+    <mergeCell ref="F1698:G1698"/>
+    <mergeCell ref="F1699:G1699"/>
+    <mergeCell ref="F1700:G1700"/>
+    <mergeCell ref="F1701:G1701"/>
+    <mergeCell ref="F1702:G1702"/>
+    <mergeCell ref="F1703:G1703"/>
+    <mergeCell ref="F1704:G1704"/>
+    <mergeCell ref="F1687:G1687"/>
+    <mergeCell ref="F1688:G1688"/>
+    <mergeCell ref="F1689:G1689"/>
+    <mergeCell ref="F1690:G1690"/>
+    <mergeCell ref="F1691:G1691"/>
+    <mergeCell ref="F1692:G1692"/>
+    <mergeCell ref="F1693:G1693"/>
+    <mergeCell ref="F1694:G1694"/>
+    <mergeCell ref="F1695:G1695"/>
+    <mergeCell ref="F1678:G1678"/>
+    <mergeCell ref="F1679:G1679"/>
+    <mergeCell ref="F1680:G1680"/>
+    <mergeCell ref="F1681:G1681"/>
+    <mergeCell ref="F1682:G1682"/>
+    <mergeCell ref="F1683:G1683"/>
+    <mergeCell ref="F1684:G1684"/>
+    <mergeCell ref="F1685:G1685"/>
+    <mergeCell ref="F1686:G1686"/>
+    <mergeCell ref="F1669:G1669"/>
+    <mergeCell ref="F1670:G1670"/>
+    <mergeCell ref="F1671:G1671"/>
+    <mergeCell ref="F1672:G1672"/>
+    <mergeCell ref="F1673:G1673"/>
+    <mergeCell ref="F1674:G1674"/>
+    <mergeCell ref="F1675:G1675"/>
+    <mergeCell ref="F1676:G1676"/>
+    <mergeCell ref="F1677:G1677"/>
+    <mergeCell ref="F1660:G1660"/>
+    <mergeCell ref="F1661:G1661"/>
+    <mergeCell ref="F1662:G1662"/>
+    <mergeCell ref="F1663:G1663"/>
+    <mergeCell ref="F1664:G1664"/>
+    <mergeCell ref="F1665:G1665"/>
+    <mergeCell ref="F1666:G1666"/>
+    <mergeCell ref="F1667:G1667"/>
+    <mergeCell ref="F1668:G1668"/>
+    <mergeCell ref="F1651:G1651"/>
+    <mergeCell ref="F1652:G1652"/>
+    <mergeCell ref="F1653:G1653"/>
+    <mergeCell ref="F1654:G1654"/>
+    <mergeCell ref="F1655:G1655"/>
+    <mergeCell ref="F1656:G1656"/>
+    <mergeCell ref="F1657:G1657"/>
+    <mergeCell ref="F1658:G1658"/>
+    <mergeCell ref="F1659:G1659"/>
+    <mergeCell ref="F1642:G1642"/>
+    <mergeCell ref="F1643:G1643"/>
+    <mergeCell ref="F1644:G1644"/>
+    <mergeCell ref="F1645:G1645"/>
+    <mergeCell ref="F1646:G1646"/>
+    <mergeCell ref="F1647:G1647"/>
+    <mergeCell ref="F1648:G1648"/>
+    <mergeCell ref="F1649:G1649"/>
+    <mergeCell ref="F1650:G1650"/>
+    <mergeCell ref="F1633:G1633"/>
+    <mergeCell ref="F1634:G1634"/>
+    <mergeCell ref="F1635:G1635"/>
+    <mergeCell ref="F1636:G1636"/>
+    <mergeCell ref="F1637:G1637"/>
+    <mergeCell ref="F1638:G1638"/>
+    <mergeCell ref="F1639:G1639"/>
+    <mergeCell ref="F1640:G1640"/>
+    <mergeCell ref="F1641:G1641"/>
+    <mergeCell ref="F1624:G1624"/>
+    <mergeCell ref="F1625:G1625"/>
+    <mergeCell ref="F1626:G1626"/>
+    <mergeCell ref="F1627:G1627"/>
+    <mergeCell ref="F1628:G1628"/>
+    <mergeCell ref="F1629:G1629"/>
+    <mergeCell ref="F1630:G1630"/>
+    <mergeCell ref="F1631:G1631"/>
+    <mergeCell ref="F1632:G1632"/>
+    <mergeCell ref="F1615:G1615"/>
+    <mergeCell ref="F1616:G1616"/>
+    <mergeCell ref="F1617:G1617"/>
+    <mergeCell ref="F1618:G1618"/>
+    <mergeCell ref="F1619:G1619"/>
+    <mergeCell ref="F1620:G1620"/>
+    <mergeCell ref="F1621:G1621"/>
+    <mergeCell ref="F1622:G1622"/>
+    <mergeCell ref="F1623:G1623"/>
+    <mergeCell ref="F1606:G1606"/>
+    <mergeCell ref="F1607:G1607"/>
+    <mergeCell ref="F1608:G1608"/>
+    <mergeCell ref="F1609:G1609"/>
+    <mergeCell ref="F1610:G1610"/>
+    <mergeCell ref="F1611:G1611"/>
+    <mergeCell ref="F1612:G1612"/>
+    <mergeCell ref="F1613:G1613"/>
+    <mergeCell ref="F1614:G1614"/>
+    <mergeCell ref="F1597:G1597"/>
+    <mergeCell ref="F1598:G1598"/>
+    <mergeCell ref="F1599:G1599"/>
+    <mergeCell ref="F1600:G1600"/>
+    <mergeCell ref="F1601:G1601"/>
+    <mergeCell ref="F1602:G1602"/>
+    <mergeCell ref="F1603:G1603"/>
+    <mergeCell ref="F1604:G1604"/>
+    <mergeCell ref="F1605:G1605"/>
+    <mergeCell ref="F1588:G1588"/>
+    <mergeCell ref="F1589:G1589"/>
+    <mergeCell ref="F1590:G1590"/>
+    <mergeCell ref="F1591:G1591"/>
+    <mergeCell ref="F1592:G1592"/>
+    <mergeCell ref="F1593:G1593"/>
+    <mergeCell ref="F1594:G1594"/>
+    <mergeCell ref="F1595:G1595"/>
+    <mergeCell ref="F1596:G1596"/>
+    <mergeCell ref="F1579:G1579"/>
+    <mergeCell ref="F1580:G1580"/>
+    <mergeCell ref="F1581:G1581"/>
+    <mergeCell ref="F1582:G1582"/>
+    <mergeCell ref="F1583:G1583"/>
+    <mergeCell ref="F1584:G1584"/>
+    <mergeCell ref="F1585:G1585"/>
+    <mergeCell ref="F1586:G1586"/>
+    <mergeCell ref="F1587:G1587"/>
+    <mergeCell ref="F1570:G1570"/>
+    <mergeCell ref="F1571:G1571"/>
+    <mergeCell ref="F1572:G1572"/>
+    <mergeCell ref="F1573:G1573"/>
+    <mergeCell ref="F1574:G1574"/>
+    <mergeCell ref="F1575:G1575"/>
+    <mergeCell ref="F1576:G1576"/>
+    <mergeCell ref="F1577:G1577"/>
+    <mergeCell ref="F1578:G1578"/>
+    <mergeCell ref="F1561:G1561"/>
+    <mergeCell ref="F1562:G1562"/>
+    <mergeCell ref="F1563:G1563"/>
+    <mergeCell ref="F1564:G1564"/>
+    <mergeCell ref="F1565:G1565"/>
+    <mergeCell ref="F1566:G1566"/>
+    <mergeCell ref="F1567:G1567"/>
+    <mergeCell ref="F1568:G1568"/>
+    <mergeCell ref="F1569:G1569"/>
+    <mergeCell ref="F1552:G1552"/>
+    <mergeCell ref="F1553:G1553"/>
+    <mergeCell ref="F1554:G1554"/>
+    <mergeCell ref="F1555:G1555"/>
+    <mergeCell ref="F1556:G1556"/>
+    <mergeCell ref="F1557:G1557"/>
+    <mergeCell ref="F1558:G1558"/>
+    <mergeCell ref="F1559:G1559"/>
+    <mergeCell ref="F1560:G1560"/>
+    <mergeCell ref="F1543:G1543"/>
+    <mergeCell ref="F1544:G1544"/>
+    <mergeCell ref="F1545:G1545"/>
+    <mergeCell ref="F1546:G1546"/>
+    <mergeCell ref="F1547:G1547"/>
+    <mergeCell ref="F1548:G1548"/>
+    <mergeCell ref="F1549:G1549"/>
+    <mergeCell ref="F1550:G1550"/>
+    <mergeCell ref="F1551:G1551"/>
+    <mergeCell ref="F1534:G1534"/>
+    <mergeCell ref="F1535:G1535"/>
+    <mergeCell ref="F1536:G1536"/>
+    <mergeCell ref="F1537:G1537"/>
+    <mergeCell ref="F1538:G1538"/>
+    <mergeCell ref="F1539:G1539"/>
+    <mergeCell ref="F1540:G1540"/>
+    <mergeCell ref="F1541:G1541"/>
+    <mergeCell ref="F1542:G1542"/>
+    <mergeCell ref="F1525:G1525"/>
+    <mergeCell ref="F1526:G1526"/>
+    <mergeCell ref="F1527:G1527"/>
+    <mergeCell ref="F1528:G1528"/>
+    <mergeCell ref="F1529:G1529"/>
+    <mergeCell ref="F1530:G1530"/>
+    <mergeCell ref="F1531:G1531"/>
+    <mergeCell ref="F1532:G1532"/>
+    <mergeCell ref="F1533:G1533"/>
+    <mergeCell ref="F1516:G1516"/>
+    <mergeCell ref="F1517:G1517"/>
+    <mergeCell ref="F1518:G1518"/>
+    <mergeCell ref="F1519:G1519"/>
+    <mergeCell ref="F1520:G1520"/>
+    <mergeCell ref="F1521:G1521"/>
+    <mergeCell ref="F1522:G1522"/>
+    <mergeCell ref="F1523:G1523"/>
+    <mergeCell ref="F1524:G1524"/>
+    <mergeCell ref="F1507:G1507"/>
+    <mergeCell ref="F1508:G1508"/>
+    <mergeCell ref="F1509:G1509"/>
+    <mergeCell ref="F1510:G1510"/>
+    <mergeCell ref="F1511:G1511"/>
+    <mergeCell ref="F1512:G1512"/>
+    <mergeCell ref="F1513:G1513"/>
+    <mergeCell ref="F1514:G1514"/>
+    <mergeCell ref="F1515:G1515"/>
+    <mergeCell ref="F1498:G1498"/>
+    <mergeCell ref="F1499:G1499"/>
+    <mergeCell ref="F1500:G1500"/>
+    <mergeCell ref="F1501:G1501"/>
+    <mergeCell ref="F1502:G1502"/>
+    <mergeCell ref="F1503:G1503"/>
+    <mergeCell ref="F1504:G1504"/>
+    <mergeCell ref="F1505:G1505"/>
+    <mergeCell ref="F1506:G1506"/>
+    <mergeCell ref="F1489:G1489"/>
+    <mergeCell ref="F1490:G1490"/>
+    <mergeCell ref="F1491:G1491"/>
+    <mergeCell ref="F1492:G1492"/>
+    <mergeCell ref="F1493:G1493"/>
+    <mergeCell ref="F1494:G1494"/>
+    <mergeCell ref="F1495:G1495"/>
+    <mergeCell ref="F1496:G1496"/>
+    <mergeCell ref="F1497:G1497"/>
+    <mergeCell ref="F1480:G1480"/>
+    <mergeCell ref="F1481:G1481"/>
+    <mergeCell ref="F1482:G1482"/>
+    <mergeCell ref="F1483:G1483"/>
+    <mergeCell ref="F1484:G1484"/>
+    <mergeCell ref="F1485:G1485"/>
+    <mergeCell ref="F1486:G1486"/>
+    <mergeCell ref="F1487:G1487"/>
+    <mergeCell ref="F1488:G1488"/>
+    <mergeCell ref="F1471:G1471"/>
+    <mergeCell ref="F1472:G1472"/>
+    <mergeCell ref="F1473:G1473"/>
+    <mergeCell ref="F1474:G1474"/>
+    <mergeCell ref="F1475:G1475"/>
+    <mergeCell ref="F1476:G1476"/>
+    <mergeCell ref="F1477:G1477"/>
+    <mergeCell ref="F1478:G1478"/>
+    <mergeCell ref="F1479:G1479"/>
+    <mergeCell ref="F1462:G1462"/>
+    <mergeCell ref="F1463:G1463"/>
+    <mergeCell ref="F1464:G1464"/>
+    <mergeCell ref="F1465:G1465"/>
+    <mergeCell ref="F1466:G1466"/>
+    <mergeCell ref="F1467:G1467"/>
+    <mergeCell ref="F1468:G1468"/>
+    <mergeCell ref="F1469:G1469"/>
+    <mergeCell ref="F1470:G1470"/>
+    <mergeCell ref="F1453:G1453"/>
+    <mergeCell ref="F1454:G1454"/>
+    <mergeCell ref="F1455:G1455"/>
+    <mergeCell ref="F1456:G1456"/>
+    <mergeCell ref="F1457:G1457"/>
+    <mergeCell ref="F1458:G1458"/>
+    <mergeCell ref="F1459:G1459"/>
+    <mergeCell ref="F1460:G1460"/>
+    <mergeCell ref="F1461:G1461"/>
+    <mergeCell ref="F1444:G1444"/>
+    <mergeCell ref="F1445:G1445"/>
+    <mergeCell ref="F1446:G1446"/>
+    <mergeCell ref="F1447:G1447"/>
+    <mergeCell ref="F1448:G1448"/>
+    <mergeCell ref="F1449:G1449"/>
+    <mergeCell ref="F1450:G1450"/>
+    <mergeCell ref="F1451:G1451"/>
+    <mergeCell ref="F1452:G1452"/>
+    <mergeCell ref="F1435:G1435"/>
+    <mergeCell ref="F1436:G1436"/>
+    <mergeCell ref="F1437:G1437"/>
+    <mergeCell ref="F1438:G1438"/>
+    <mergeCell ref="F1439:G1439"/>
+    <mergeCell ref="F1440:G1440"/>
+    <mergeCell ref="F1441:G1441"/>
+    <mergeCell ref="F1442:G1442"/>
+    <mergeCell ref="F1443:G1443"/>
+    <mergeCell ref="F1426:G1426"/>
+    <mergeCell ref="F1427:G1427"/>
+    <mergeCell ref="F1428:G1428"/>
+    <mergeCell ref="F1429:G1429"/>
+    <mergeCell ref="F1430:G1430"/>
+    <mergeCell ref="F1431:G1431"/>
+    <mergeCell ref="F1432:G1432"/>
+    <mergeCell ref="F1433:G1433"/>
+    <mergeCell ref="F1434:G1434"/>
+    <mergeCell ref="F1417:G1417"/>
+    <mergeCell ref="F1418:G1418"/>
+    <mergeCell ref="F1419:G1419"/>
+    <mergeCell ref="F1420:G1420"/>
+    <mergeCell ref="F1421:G1421"/>
+    <mergeCell ref="F1422:G1422"/>
+    <mergeCell ref="F1423:G1423"/>
+    <mergeCell ref="F1424:G1424"/>
+    <mergeCell ref="F1425:G1425"/>
+    <mergeCell ref="F1408:G1408"/>
+    <mergeCell ref="F1409:G1409"/>
+    <mergeCell ref="F1410:G1410"/>
+    <mergeCell ref="F1411:G1411"/>
+    <mergeCell ref="F1412:G1412"/>
+    <mergeCell ref="F1413:G1413"/>
+    <mergeCell ref="F1414:G1414"/>
+    <mergeCell ref="F1415:G1415"/>
+    <mergeCell ref="F1416:G1416"/>
+    <mergeCell ref="F1399:G1399"/>
+    <mergeCell ref="F1400:G1400"/>
+    <mergeCell ref="F1401:G1401"/>
+    <mergeCell ref="F1402:G1402"/>
+    <mergeCell ref="F1403:G1403"/>
+    <mergeCell ref="F1404:G1404"/>
+    <mergeCell ref="F1405:G1405"/>
+    <mergeCell ref="F1406:G1406"/>
+    <mergeCell ref="F1407:G1407"/>
+    <mergeCell ref="F1390:G1390"/>
+    <mergeCell ref="F1391:G1391"/>
+    <mergeCell ref="F1392:G1392"/>
+    <mergeCell ref="F1393:G1393"/>
+    <mergeCell ref="F1394:G1394"/>
+    <mergeCell ref="F1395:G1395"/>
+    <mergeCell ref="F1396:G1396"/>
+    <mergeCell ref="F1397:G1397"/>
+    <mergeCell ref="F1398:G1398"/>
+    <mergeCell ref="F1381:G1381"/>
+    <mergeCell ref="F1382:G1382"/>
+    <mergeCell ref="F1383:G1383"/>
+    <mergeCell ref="F1384:G1384"/>
+    <mergeCell ref="F1385:G1385"/>
+    <mergeCell ref="F1386:G1386"/>
+    <mergeCell ref="F1387:G1387"/>
+    <mergeCell ref="F1388:G1388"/>
+    <mergeCell ref="F1389:G1389"/>
+    <mergeCell ref="F1372:G1372"/>
+    <mergeCell ref="F1373:G1373"/>
+    <mergeCell ref="F1374:G1374"/>
+    <mergeCell ref="F1375:G1375"/>
+    <mergeCell ref="F1376:G1376"/>
+    <mergeCell ref="F1377:G1377"/>
+    <mergeCell ref="F1378:G1378"/>
+    <mergeCell ref="F1379:G1379"/>
+    <mergeCell ref="F1380:G1380"/>
+    <mergeCell ref="F1363:G1363"/>
+    <mergeCell ref="F1364:G1364"/>
+    <mergeCell ref="F1365:G1365"/>
+    <mergeCell ref="F1366:G1366"/>
+    <mergeCell ref="F1367:G1367"/>
+    <mergeCell ref="F1368:G1368"/>
+    <mergeCell ref="F1369:G1369"/>
+    <mergeCell ref="F1370:G1370"/>
+    <mergeCell ref="F1371:G1371"/>
+    <mergeCell ref="F1354:G1354"/>
+    <mergeCell ref="F1355:G1355"/>
+    <mergeCell ref="F1356:G1356"/>
+    <mergeCell ref="F1357:G1357"/>
+    <mergeCell ref="F1358:G1358"/>
+    <mergeCell ref="F1359:G1359"/>
+    <mergeCell ref="F1360:G1360"/>
+    <mergeCell ref="F1361:G1361"/>
+    <mergeCell ref="F1362:G1362"/>
+    <mergeCell ref="F1345:G1345"/>
+    <mergeCell ref="F1346:G1346"/>
+    <mergeCell ref="F1347:G1347"/>
+    <mergeCell ref="F1348:G1348"/>
+    <mergeCell ref="F1349:G1349"/>
+    <mergeCell ref="F1350:G1350"/>
+    <mergeCell ref="F1351:G1351"/>
+    <mergeCell ref="F1352:G1352"/>
+    <mergeCell ref="F1353:G1353"/>
+    <mergeCell ref="F1336:G1336"/>
+    <mergeCell ref="F1337:G1337"/>
+    <mergeCell ref="F1338:G1338"/>
+    <mergeCell ref="F1339:G1339"/>
+    <mergeCell ref="F1340:G1340"/>
+    <mergeCell ref="F1341:G1341"/>
+    <mergeCell ref="F1342:G1342"/>
+    <mergeCell ref="F1343:G1343"/>
+    <mergeCell ref="F1344:G1344"/>
+    <mergeCell ref="F1327:G1327"/>
+    <mergeCell ref="F1328:G1328"/>
+    <mergeCell ref="F1329:G1329"/>
+    <mergeCell ref="F1330:G1330"/>
+    <mergeCell ref="F1331:G1331"/>
+    <mergeCell ref="F1332:G1332"/>
+    <mergeCell ref="F1333:G1333"/>
+    <mergeCell ref="F1334:G1334"/>
+    <mergeCell ref="F1335:G1335"/>
+    <mergeCell ref="F1318:G1318"/>
+    <mergeCell ref="F1319:G1319"/>
+    <mergeCell ref="F1320:G1320"/>
+    <mergeCell ref="F1321:G1321"/>
+    <mergeCell ref="F1322:G1322"/>
+    <mergeCell ref="F1323:G1323"/>
+    <mergeCell ref="F1324:G1324"/>
+    <mergeCell ref="F1325:G1325"/>
+    <mergeCell ref="F1326:G1326"/>
+    <mergeCell ref="F1309:G1309"/>
+    <mergeCell ref="F1310:G1310"/>
+    <mergeCell ref="F1311:G1311"/>
+    <mergeCell ref="F1312:G1312"/>
+    <mergeCell ref="F1313:G1313"/>
+    <mergeCell ref="F1314:G1314"/>
+    <mergeCell ref="F1315:G1315"/>
+    <mergeCell ref="F1316:G1316"/>
+    <mergeCell ref="F1317:G1317"/>
+    <mergeCell ref="F1300:G1300"/>
+    <mergeCell ref="F1301:G1301"/>
+    <mergeCell ref="F1302:G1302"/>
+    <mergeCell ref="F1303:G1303"/>
+    <mergeCell ref="F1304:G1304"/>
+    <mergeCell ref="F1305:G1305"/>
+    <mergeCell ref="F1306:G1306"/>
+    <mergeCell ref="F1307:G1307"/>
+    <mergeCell ref="F1308:G1308"/>
+    <mergeCell ref="F1291:G1291"/>
+    <mergeCell ref="F1292:G1292"/>
+    <mergeCell ref="F1293:G1293"/>
+    <mergeCell ref="F1294:G1294"/>
+    <mergeCell ref="F1295:G1295"/>
+    <mergeCell ref="F1296:G1296"/>
+    <mergeCell ref="F1297:G1297"/>
+    <mergeCell ref="F1298:G1298"/>
+    <mergeCell ref="F1299:G1299"/>
+    <mergeCell ref="F1282:G1282"/>
+    <mergeCell ref="F1283:G1283"/>
+    <mergeCell ref="F1284:G1284"/>
+    <mergeCell ref="F1285:G1285"/>
+    <mergeCell ref="F1286:G1286"/>
+    <mergeCell ref="F1287:G1287"/>
+    <mergeCell ref="F1288:G1288"/>
+    <mergeCell ref="F1289:G1289"/>
+    <mergeCell ref="F1290:G1290"/>
+    <mergeCell ref="F1273:G1273"/>
+    <mergeCell ref="F1274:G1274"/>
+    <mergeCell ref="F1275:G1275"/>
+    <mergeCell ref="F1276:G1276"/>
+    <mergeCell ref="F1277:G1277"/>
+    <mergeCell ref="F1278:G1278"/>
+    <mergeCell ref="F1279:G1279"/>
+    <mergeCell ref="F1280:G1280"/>
+    <mergeCell ref="F1281:G1281"/>
+    <mergeCell ref="F1264:G1264"/>
+    <mergeCell ref="F1265:G1265"/>
+    <mergeCell ref="F1266:G1266"/>
+    <mergeCell ref="F1267:G1267"/>
+    <mergeCell ref="F1268:G1268"/>
+    <mergeCell ref="F1269:G1269"/>
+    <mergeCell ref="F1270:G1270"/>
+    <mergeCell ref="F1271:G1271"/>
+    <mergeCell ref="F1272:G1272"/>
+    <mergeCell ref="F1255:G1255"/>
+    <mergeCell ref="F1256:G1256"/>
+    <mergeCell ref="F1257:G1257"/>
+    <mergeCell ref="F1258:G1258"/>
+    <mergeCell ref="F1259:G1259"/>
+    <mergeCell ref="F1260:G1260"/>
+    <mergeCell ref="F1261:G1261"/>
+    <mergeCell ref="F1262:G1262"/>
+    <mergeCell ref="F1263:G1263"/>
+    <mergeCell ref="F1246:G1246"/>
+    <mergeCell ref="F1247:G1247"/>
+    <mergeCell ref="F1248:G1248"/>
+    <mergeCell ref="F1249:G1249"/>
+    <mergeCell ref="F1250:G1250"/>
+    <mergeCell ref="F1251:G1251"/>
+    <mergeCell ref="F1252:G1252"/>
+    <mergeCell ref="F1253:G1253"/>
+    <mergeCell ref="F1254:G1254"/>
+    <mergeCell ref="F1237:G1237"/>
+    <mergeCell ref="F1238:G1238"/>
+    <mergeCell ref="F1239:G1239"/>
+    <mergeCell ref="F1240:G1240"/>
+    <mergeCell ref="F1241:G1241"/>
+    <mergeCell ref="F1242:G1242"/>
+    <mergeCell ref="F1243:G1243"/>
+    <mergeCell ref="F1244:G1244"/>
+    <mergeCell ref="F1245:G1245"/>
+    <mergeCell ref="F1228:G1228"/>
+    <mergeCell ref="F1229:G1229"/>
+    <mergeCell ref="F1230:G1230"/>
+    <mergeCell ref="F1231:G1231"/>
+    <mergeCell ref="F1232:G1232"/>
+    <mergeCell ref="F1233:G1233"/>
+    <mergeCell ref="F1234:G1234"/>
+    <mergeCell ref="F1235:G1235"/>
+    <mergeCell ref="F1236:G1236"/>
+    <mergeCell ref="F1219:G1219"/>
+    <mergeCell ref="F1220:G1220"/>
+    <mergeCell ref="F1221:G1221"/>
+    <mergeCell ref="F1222:G1222"/>
+    <mergeCell ref="F1223:G1223"/>
+    <mergeCell ref="F1224:G1224"/>
+    <mergeCell ref="F1225:G1225"/>
+    <mergeCell ref="F1226:G1226"/>
+    <mergeCell ref="F1227:G1227"/>
+    <mergeCell ref="F1210:G1210"/>
+    <mergeCell ref="F1211:G1211"/>
+    <mergeCell ref="F1212:G1212"/>
+    <mergeCell ref="F1213:G1213"/>
+    <mergeCell ref="F1214:G1214"/>
+    <mergeCell ref="F1215:G1215"/>
+    <mergeCell ref="F1216:G1216"/>
+    <mergeCell ref="F1217:G1217"/>
+    <mergeCell ref="F1218:G1218"/>
+    <mergeCell ref="F1201:G1201"/>
+    <mergeCell ref="F1202:G1202"/>
+    <mergeCell ref="F1203:G1203"/>
+    <mergeCell ref="F1204:G1204"/>
+    <mergeCell ref="F1205:G1205"/>
+    <mergeCell ref="F1206:G1206"/>
+    <mergeCell ref="F1207:G1207"/>
+    <mergeCell ref="F1208:G1208"/>
+    <mergeCell ref="F1209:G1209"/>
+    <mergeCell ref="F1192:G1192"/>
+    <mergeCell ref="F1193:G1193"/>
+    <mergeCell ref="F1194:G1194"/>
+    <mergeCell ref="F1195:G1195"/>
+    <mergeCell ref="F1196:G1196"/>
+    <mergeCell ref="F1197:G1197"/>
+    <mergeCell ref="F1198:G1198"/>
+    <mergeCell ref="F1199:G1199"/>
+    <mergeCell ref="F1200:G1200"/>
+    <mergeCell ref="F1183:G1183"/>
+    <mergeCell ref="F1184:G1184"/>
+    <mergeCell ref="F1185:G1185"/>
+    <mergeCell ref="F1186:G1186"/>
+    <mergeCell ref="F1187:G1187"/>
+    <mergeCell ref="F1188:G1188"/>
+    <mergeCell ref="F1189:G1189"/>
+    <mergeCell ref="F1190:G1190"/>
+    <mergeCell ref="F1191:G1191"/>
+    <mergeCell ref="F1174:G1174"/>
+    <mergeCell ref="F1175:G1175"/>
+    <mergeCell ref="F1176:G1176"/>
+    <mergeCell ref="F1177:G1177"/>
+    <mergeCell ref="F1178:G1178"/>
+    <mergeCell ref="F1179:G1179"/>
+    <mergeCell ref="F1180:G1180"/>
+    <mergeCell ref="F1181:G1181"/>
+    <mergeCell ref="F1182:G1182"/>
+    <mergeCell ref="F1165:G1165"/>
+    <mergeCell ref="F1166:G1166"/>
+    <mergeCell ref="F1167:G1167"/>
+    <mergeCell ref="F1168:G1168"/>
+    <mergeCell ref="F1169:G1169"/>
+    <mergeCell ref="F1170:G1170"/>
+    <mergeCell ref="F1171:G1171"/>
+    <mergeCell ref="F1172:G1172"/>
+    <mergeCell ref="F1173:G1173"/>
+    <mergeCell ref="F1156:G1156"/>
+    <mergeCell ref="F1157:G1157"/>
+    <mergeCell ref="F1158:G1158"/>
+    <mergeCell ref="F1159:G1159"/>
+    <mergeCell ref="F1160:G1160"/>
+    <mergeCell ref="F1161:G1161"/>
+    <mergeCell ref="F1162:G1162"/>
+    <mergeCell ref="F1163:G1163"/>
+    <mergeCell ref="F1164:G1164"/>
+    <mergeCell ref="F1147:G1147"/>
+    <mergeCell ref="F1148:G1148"/>
+    <mergeCell ref="F1149:G1149"/>
+    <mergeCell ref="F1150:G1150"/>
+    <mergeCell ref="F1151:G1151"/>
+    <mergeCell ref="F1152:G1152"/>
+    <mergeCell ref="F1153:G1153"/>
+    <mergeCell ref="F1154:G1154"/>
+    <mergeCell ref="F1155:G1155"/>
+    <mergeCell ref="F1138:G1138"/>
+    <mergeCell ref="F1139:G1139"/>
+    <mergeCell ref="F1140:G1140"/>
+    <mergeCell ref="F1141:G1141"/>
+    <mergeCell ref="F1142:G1142"/>
+    <mergeCell ref="F1143:G1143"/>
+    <mergeCell ref="F1144:G1144"/>
+    <mergeCell ref="F1145:G1145"/>
+    <mergeCell ref="F1146:G1146"/>
+    <mergeCell ref="F1129:G1129"/>
+    <mergeCell ref="F1130:G1130"/>
+    <mergeCell ref="F1131:G1131"/>
+    <mergeCell ref="F1132:G1132"/>
+    <mergeCell ref="F1133:G1133"/>
+    <mergeCell ref="F1134:G1134"/>
+    <mergeCell ref="F1135:G1135"/>
+    <mergeCell ref="F1136:G1136"/>
+    <mergeCell ref="F1137:G1137"/>
+    <mergeCell ref="F1120:G1120"/>
+    <mergeCell ref="F1121:G1121"/>
+    <mergeCell ref="F1122:G1122"/>
+    <mergeCell ref="F1123:G1123"/>
+    <mergeCell ref="F1124:G1124"/>
+    <mergeCell ref="F1125:G1125"/>
+    <mergeCell ref="F1126:G1126"/>
+    <mergeCell ref="F1127:G1127"/>
+    <mergeCell ref="F1128:G1128"/>
+    <mergeCell ref="F1111:G1111"/>
+    <mergeCell ref="F1112:G1112"/>
+    <mergeCell ref="F1113:G1113"/>
+    <mergeCell ref="F1114:G1114"/>
+    <mergeCell ref="F1115:G1115"/>
+    <mergeCell ref="F1116:G1116"/>
+    <mergeCell ref="F1117:G1117"/>
+    <mergeCell ref="F1118:G1118"/>
+    <mergeCell ref="F1119:G1119"/>
+    <mergeCell ref="F1102:G1102"/>
+    <mergeCell ref="F1103:G1103"/>
+    <mergeCell ref="F1104:G1104"/>
+    <mergeCell ref="F1105:G1105"/>
+    <mergeCell ref="F1106:G1106"/>
+    <mergeCell ref="F1107:G1107"/>
+    <mergeCell ref="F1108:G1108"/>
+    <mergeCell ref="F1109:G1109"/>
+    <mergeCell ref="F1110:G1110"/>
+    <mergeCell ref="F1093:G1093"/>
+    <mergeCell ref="F1094:G1094"/>
+    <mergeCell ref="F1095:G1095"/>
+    <mergeCell ref="F1096:G1096"/>
+    <mergeCell ref="F1097:G1097"/>
+    <mergeCell ref="F1098:G1098"/>
+    <mergeCell ref="F1099:G1099"/>
+    <mergeCell ref="F1100:G1100"/>
+    <mergeCell ref="F1101:G1101"/>
+    <mergeCell ref="F1084:G1084"/>
+    <mergeCell ref="F1085:G1085"/>
+    <mergeCell ref="F1086:G1086"/>
+    <mergeCell ref="F1087:G1087"/>
+    <mergeCell ref="F1088:G1088"/>
+    <mergeCell ref="F1089:G1089"/>
+    <mergeCell ref="F1090:G1090"/>
+    <mergeCell ref="F1091:G1091"/>
+    <mergeCell ref="F1092:G1092"/>
+    <mergeCell ref="F1075:G1075"/>
+    <mergeCell ref="F1076:G1076"/>
+    <mergeCell ref="F1077:G1077"/>
+    <mergeCell ref="F1078:G1078"/>
+    <mergeCell ref="F1079:G1079"/>
+    <mergeCell ref="F1080:G1080"/>
+    <mergeCell ref="F1081:G1081"/>
+    <mergeCell ref="F1082:G1082"/>
+    <mergeCell ref="F1083:G1083"/>
+    <mergeCell ref="F1066:G1066"/>
+    <mergeCell ref="F1067:G1067"/>
+    <mergeCell ref="F1068:G1068"/>
+    <mergeCell ref="F1069:G1069"/>
+    <mergeCell ref="F1070:G1070"/>
+    <mergeCell ref="F1071:G1071"/>
+    <mergeCell ref="F1072:G1072"/>
+    <mergeCell ref="F1073:G1073"/>
+    <mergeCell ref="F1074:G1074"/>
+    <mergeCell ref="F1057:G1057"/>
+    <mergeCell ref="F1058:G1058"/>
+    <mergeCell ref="F1059:G1059"/>
+    <mergeCell ref="F1060:G1060"/>
+    <mergeCell ref="F1061:G1061"/>
+    <mergeCell ref="F1062:G1062"/>
+    <mergeCell ref="F1063:G1063"/>
+    <mergeCell ref="F1064:G1064"/>
+    <mergeCell ref="F1065:G1065"/>
+    <mergeCell ref="F1048:G1048"/>
+    <mergeCell ref="F1049:G1049"/>
+    <mergeCell ref="F1050:G1050"/>
+    <mergeCell ref="F1051:G1051"/>
+    <mergeCell ref="F1052:G1052"/>
+    <mergeCell ref="F1053:G1053"/>
+    <mergeCell ref="F1054:G1054"/>
+    <mergeCell ref="F1055:G1055"/>
+    <mergeCell ref="F1056:G1056"/>
+    <mergeCell ref="F1039:G1039"/>
+    <mergeCell ref="F1040:G1040"/>
+    <mergeCell ref="F1041:G1041"/>
+    <mergeCell ref="F1042:G1042"/>
+    <mergeCell ref="F1043:G1043"/>
+    <mergeCell ref="F1044:G1044"/>
+    <mergeCell ref="F1045:G1045"/>
+    <mergeCell ref="F1046:G1046"/>
+    <mergeCell ref="F1047:G1047"/>
+    <mergeCell ref="F1030:G1030"/>
+    <mergeCell ref="F1031:G1031"/>
+    <mergeCell ref="F1032:G1032"/>
+    <mergeCell ref="F1033:G1033"/>
+    <mergeCell ref="F1034:G1034"/>
+    <mergeCell ref="F1035:G1035"/>
+    <mergeCell ref="F1036:G1036"/>
+    <mergeCell ref="F1037:G1037"/>
+    <mergeCell ref="F1038:G1038"/>
+    <mergeCell ref="F1021:G1021"/>
+    <mergeCell ref="F1022:G1022"/>
+    <mergeCell ref="F1023:G1023"/>
+    <mergeCell ref="F1024:G1024"/>
+    <mergeCell ref="F1025:G1025"/>
+    <mergeCell ref="F1026:G1026"/>
+    <mergeCell ref="F1027:G1027"/>
+    <mergeCell ref="F1028:G1028"/>
+    <mergeCell ref="F1029:G1029"/>
+    <mergeCell ref="F1012:G1012"/>
+    <mergeCell ref="F1013:G1013"/>
+    <mergeCell ref="F1014:G1014"/>
+    <mergeCell ref="F1015:G1015"/>
+    <mergeCell ref="F1016:G1016"/>
+    <mergeCell ref="F1017:G1017"/>
+    <mergeCell ref="F1018:G1018"/>
+    <mergeCell ref="F1019:G1019"/>
+    <mergeCell ref="F1020:G1020"/>
+    <mergeCell ref="F1003:G1003"/>
+    <mergeCell ref="F1004:G1004"/>
+    <mergeCell ref="F1005:G1005"/>
+    <mergeCell ref="F1006:G1006"/>
+    <mergeCell ref="F1007:G1007"/>
+    <mergeCell ref="F1008:G1008"/>
+    <mergeCell ref="F1009:G1009"/>
+    <mergeCell ref="F1010:G1010"/>
+    <mergeCell ref="F1011:G1011"/>
+    <mergeCell ref="F994:G994"/>
+    <mergeCell ref="F995:G995"/>
+    <mergeCell ref="F996:G996"/>
+    <mergeCell ref="F997:G997"/>
+    <mergeCell ref="F998:G998"/>
+    <mergeCell ref="F999:G999"/>
+    <mergeCell ref="F1000:G1000"/>
+    <mergeCell ref="F1001:G1001"/>
+    <mergeCell ref="F1002:G1002"/>
+    <mergeCell ref="F985:G985"/>
+    <mergeCell ref="F986:G986"/>
+    <mergeCell ref="F987:G987"/>
+    <mergeCell ref="F988:G988"/>
+    <mergeCell ref="F989:G989"/>
+    <mergeCell ref="F990:G990"/>
+    <mergeCell ref="F991:G991"/>
+    <mergeCell ref="F992:G992"/>
+    <mergeCell ref="F993:G993"/>
+    <mergeCell ref="F976:G976"/>
+    <mergeCell ref="F977:G977"/>
+    <mergeCell ref="F978:G978"/>
+    <mergeCell ref="F979:G979"/>
+    <mergeCell ref="F980:G980"/>
+    <mergeCell ref="F981:G981"/>
+    <mergeCell ref="F982:G982"/>
+    <mergeCell ref="F983:G983"/>
+    <mergeCell ref="F984:G984"/>
+    <mergeCell ref="F967:G967"/>
+    <mergeCell ref="F968:G968"/>
+    <mergeCell ref="F969:G969"/>
+    <mergeCell ref="F970:G970"/>
+    <mergeCell ref="F971:G971"/>
+    <mergeCell ref="F972:G972"/>
+    <mergeCell ref="F973:G973"/>
+    <mergeCell ref="F974:G974"/>
+    <mergeCell ref="F975:G975"/>
+    <mergeCell ref="F958:G958"/>
+    <mergeCell ref="F959:G959"/>
+    <mergeCell ref="F960:G960"/>
+    <mergeCell ref="F961:G961"/>
+    <mergeCell ref="F962:G962"/>
+    <mergeCell ref="F963:G963"/>
+    <mergeCell ref="F964:G964"/>
+    <mergeCell ref="F965:G965"/>
+    <mergeCell ref="F966:G966"/>
+    <mergeCell ref="F949:G949"/>
+    <mergeCell ref="F950:G950"/>
+    <mergeCell ref="F951:G951"/>
+    <mergeCell ref="F952:G952"/>
+    <mergeCell ref="F953:G953"/>
+    <mergeCell ref="F954:G954"/>
+    <mergeCell ref="F955:G955"/>
+    <mergeCell ref="F956:G956"/>
+    <mergeCell ref="F957:G957"/>
+    <mergeCell ref="F940:G940"/>
+    <mergeCell ref="F941:G941"/>
+    <mergeCell ref="F942:G942"/>
+    <mergeCell ref="F943:G943"/>
+    <mergeCell ref="F944:G944"/>
+    <mergeCell ref="F945:G945"/>
+    <mergeCell ref="F946:G946"/>
+    <mergeCell ref="F947:G947"/>
+    <mergeCell ref="F948:G948"/>
+    <mergeCell ref="F931:G931"/>
+    <mergeCell ref="F932:G932"/>
+    <mergeCell ref="F933:G933"/>
+    <mergeCell ref="F934:G934"/>
+    <mergeCell ref="F935:G935"/>
+    <mergeCell ref="F936:G936"/>
+    <mergeCell ref="F937:G937"/>
+    <mergeCell ref="F938:G938"/>
+    <mergeCell ref="F939:G939"/>
+    <mergeCell ref="F922:G922"/>
+    <mergeCell ref="F923:G923"/>
+    <mergeCell ref="F924:G924"/>
+    <mergeCell ref="F925:G925"/>
+    <mergeCell ref="F926:G926"/>
+    <mergeCell ref="F927:G927"/>
+    <mergeCell ref="F928:G928"/>
+    <mergeCell ref="F929:G929"/>
+    <mergeCell ref="F930:G930"/>
+    <mergeCell ref="F913:G913"/>
+    <mergeCell ref="F914:G914"/>
+    <mergeCell ref="F915:G915"/>
+    <mergeCell ref="F916:G916"/>
+    <mergeCell ref="F917:G917"/>
+    <mergeCell ref="F918:G918"/>
+    <mergeCell ref="F919:G919"/>
+    <mergeCell ref="F920:G920"/>
+    <mergeCell ref="F921:G921"/>
+    <mergeCell ref="F904:G904"/>
+    <mergeCell ref="F905:G905"/>
+    <mergeCell ref="F906:G906"/>
+    <mergeCell ref="F907:G907"/>
+    <mergeCell ref="F908:G908"/>
+    <mergeCell ref="F909:G909"/>
+    <mergeCell ref="F910:G910"/>
+    <mergeCell ref="F911:G911"/>
+    <mergeCell ref="F912:G912"/>
+    <mergeCell ref="F895:G895"/>
+    <mergeCell ref="F896:G896"/>
+    <mergeCell ref="F897:G897"/>
+    <mergeCell ref="F898:G898"/>
+    <mergeCell ref="F899:G899"/>
+    <mergeCell ref="F900:G900"/>
+    <mergeCell ref="F901:G901"/>
+    <mergeCell ref="F902:G902"/>
+    <mergeCell ref="F903:G903"/>
+    <mergeCell ref="F886:G886"/>
+    <mergeCell ref="F887:G887"/>
+    <mergeCell ref="F888:G888"/>
+    <mergeCell ref="F889:G889"/>
+    <mergeCell ref="F890:G890"/>
+    <mergeCell ref="F891:G891"/>
+    <mergeCell ref="F892:G892"/>
+    <mergeCell ref="F893:G893"/>
+    <mergeCell ref="F894:G894"/>
+    <mergeCell ref="F877:G877"/>
+    <mergeCell ref="F878:G878"/>
+    <mergeCell ref="F879:G879"/>
+    <mergeCell ref="F880:G880"/>
+    <mergeCell ref="F881:G881"/>
+    <mergeCell ref="F882:G882"/>
+    <mergeCell ref="F883:G883"/>
+    <mergeCell ref="F884:G884"/>
+    <mergeCell ref="F885:G885"/>
+    <mergeCell ref="F868:G868"/>
+    <mergeCell ref="F869:G869"/>
+    <mergeCell ref="F870:G870"/>
+    <mergeCell ref="F871:G871"/>
+    <mergeCell ref="F872:G872"/>
+    <mergeCell ref="F873:G873"/>
+    <mergeCell ref="F874:G874"/>
+    <mergeCell ref="F875:G875"/>
+    <mergeCell ref="F876:G876"/>
+    <mergeCell ref="F859:G859"/>
+    <mergeCell ref="F860:G860"/>
+    <mergeCell ref="F861:G861"/>
+    <mergeCell ref="F862:G862"/>
+    <mergeCell ref="F863:G863"/>
+    <mergeCell ref="F864:G864"/>
+    <mergeCell ref="F865:G865"/>
+    <mergeCell ref="F866:G866"/>
+    <mergeCell ref="F867:G867"/>
+    <mergeCell ref="F850:G850"/>
+    <mergeCell ref="F851:G851"/>
+    <mergeCell ref="F852:G852"/>
+    <mergeCell ref="F853:G853"/>
+    <mergeCell ref="F854:G854"/>
+    <mergeCell ref="F855:G855"/>
+    <mergeCell ref="F856:G856"/>
+    <mergeCell ref="F857:G857"/>
+    <mergeCell ref="F858:G858"/>
+    <mergeCell ref="F841:G841"/>
+    <mergeCell ref="F842:G842"/>
+    <mergeCell ref="F843:G843"/>
+    <mergeCell ref="F844:G844"/>
+    <mergeCell ref="F845:G845"/>
+    <mergeCell ref="F846:G846"/>
+    <mergeCell ref="F847:G847"/>
+    <mergeCell ref="F848:G848"/>
+    <mergeCell ref="F849:G849"/>
+    <mergeCell ref="F832:G832"/>
+    <mergeCell ref="F833:G833"/>
+    <mergeCell ref="F834:G834"/>
+    <mergeCell ref="F835:G835"/>
+    <mergeCell ref="F836:G836"/>
+    <mergeCell ref="F837:G837"/>
+    <mergeCell ref="F838:G838"/>
+    <mergeCell ref="F839:G839"/>
+    <mergeCell ref="F840:G840"/>
+    <mergeCell ref="F823:G823"/>
+    <mergeCell ref="F824:G824"/>
+    <mergeCell ref="F825:G825"/>
+    <mergeCell ref="F826:G826"/>
+    <mergeCell ref="F827:G827"/>
+    <mergeCell ref="F828:G828"/>
+    <mergeCell ref="F829:G829"/>
+    <mergeCell ref="F830:G830"/>
+    <mergeCell ref="F831:G831"/>
+    <mergeCell ref="F814:G814"/>
+    <mergeCell ref="F815:G815"/>
+    <mergeCell ref="F816:G816"/>
+    <mergeCell ref="F817:G817"/>
+    <mergeCell ref="F818:G818"/>
+    <mergeCell ref="F819:G819"/>
+    <mergeCell ref="F820:G820"/>
+    <mergeCell ref="F821:G821"/>
+    <mergeCell ref="F822:G822"/>
+    <mergeCell ref="F805:G805"/>
+    <mergeCell ref="F806:G806"/>
+    <mergeCell ref="F807:G807"/>
+    <mergeCell ref="F808:G808"/>
+    <mergeCell ref="F809:G809"/>
+    <mergeCell ref="F810:G810"/>
+    <mergeCell ref="F811:G811"/>
+    <mergeCell ref="F812:G812"/>
+    <mergeCell ref="F813:G813"/>
+    <mergeCell ref="F796:G796"/>
+    <mergeCell ref="F797:G797"/>
+    <mergeCell ref="F798:G798"/>
+    <mergeCell ref="F799:G799"/>
+    <mergeCell ref="F800:G800"/>
+    <mergeCell ref="F801:G801"/>
+    <mergeCell ref="F802:G802"/>
+    <mergeCell ref="F803:G803"/>
+    <mergeCell ref="F804:G804"/>
+    <mergeCell ref="F787:G787"/>
+    <mergeCell ref="F788:G788"/>
+    <mergeCell ref="F789:G789"/>
+    <mergeCell ref="F790:G790"/>
+    <mergeCell ref="F791:G791"/>
+    <mergeCell ref="F792:G792"/>
+    <mergeCell ref="F793:G793"/>
+    <mergeCell ref="F794:G794"/>
+    <mergeCell ref="F795:G795"/>
+    <mergeCell ref="F778:G778"/>
+    <mergeCell ref="F779:G779"/>
+    <mergeCell ref="F780:G780"/>
+    <mergeCell ref="F781:G781"/>
+    <mergeCell ref="F782:G782"/>
+    <mergeCell ref="F783:G783"/>
+    <mergeCell ref="F784:G784"/>
+    <mergeCell ref="F785:G785"/>
+    <mergeCell ref="F786:G786"/>
+    <mergeCell ref="F769:G769"/>
+    <mergeCell ref="F770:G770"/>
+    <mergeCell ref="F771:G771"/>
+    <mergeCell ref="F772:G772"/>
+    <mergeCell ref="F773:G773"/>
+    <mergeCell ref="F774:G774"/>
+    <mergeCell ref="F775:G775"/>
+    <mergeCell ref="F776:G776"/>
+    <mergeCell ref="F777:G777"/>
+    <mergeCell ref="F760:G760"/>
+    <mergeCell ref="F761:G761"/>
+    <mergeCell ref="F762:G762"/>
+    <mergeCell ref="F763:G763"/>
+    <mergeCell ref="F764:G764"/>
+    <mergeCell ref="F765:G765"/>
+    <mergeCell ref="F766:G766"/>
+    <mergeCell ref="F767:G767"/>
+    <mergeCell ref="F768:G768"/>
+    <mergeCell ref="F751:G751"/>
+    <mergeCell ref="F752:G752"/>
+    <mergeCell ref="F753:G753"/>
+    <mergeCell ref="F754:G754"/>
+    <mergeCell ref="F755:G755"/>
+    <mergeCell ref="F756:G756"/>
+    <mergeCell ref="F757:G757"/>
+    <mergeCell ref="F758:G758"/>
+    <mergeCell ref="F759:G759"/>
+    <mergeCell ref="F742:G742"/>
+    <mergeCell ref="F743:G743"/>
+    <mergeCell ref="F744:G744"/>
+    <mergeCell ref="F745:G745"/>
+    <mergeCell ref="F746:G746"/>
+    <mergeCell ref="F747:G747"/>
+    <mergeCell ref="F748:G748"/>
+    <mergeCell ref="F749:G749"/>
+    <mergeCell ref="F750:G750"/>
+    <mergeCell ref="F733:G733"/>
+    <mergeCell ref="F734:G734"/>
+    <mergeCell ref="F735:G735"/>
+    <mergeCell ref="F736:G736"/>
+    <mergeCell ref="F737:G737"/>
+    <mergeCell ref="F738:G738"/>
+    <mergeCell ref="F739:G739"/>
+    <mergeCell ref="F740:G740"/>
+    <mergeCell ref="F741:G741"/>
+    <mergeCell ref="F724:G724"/>
+    <mergeCell ref="F725:G725"/>
+    <mergeCell ref="F726:G726"/>
+    <mergeCell ref="F727:G727"/>
+    <mergeCell ref="F728:G728"/>
+    <mergeCell ref="F729:G729"/>
+    <mergeCell ref="F730:G730"/>
+    <mergeCell ref="F731:G731"/>
+    <mergeCell ref="F732:G732"/>
+    <mergeCell ref="F715:G715"/>
+    <mergeCell ref="F716:G716"/>
+    <mergeCell ref="F717:G717"/>
+    <mergeCell ref="F718:G718"/>
+    <mergeCell ref="F719:G719"/>
+    <mergeCell ref="F720:G720"/>
+    <mergeCell ref="F721:G721"/>
+    <mergeCell ref="F722:G722"/>
+    <mergeCell ref="F723:G723"/>
+    <mergeCell ref="F706:G706"/>
+    <mergeCell ref="F707:G707"/>
+    <mergeCell ref="F708:G708"/>
+    <mergeCell ref="F709:G709"/>
+    <mergeCell ref="F710:G710"/>
+    <mergeCell ref="F711:G711"/>
+    <mergeCell ref="F712:G712"/>
+    <mergeCell ref="F713:G713"/>
+    <mergeCell ref="F714:G714"/>
+    <mergeCell ref="F697:G697"/>
+    <mergeCell ref="F698:G698"/>
+    <mergeCell ref="F699:G699"/>
+    <mergeCell ref="F700:G700"/>
+    <mergeCell ref="F701:G701"/>
+    <mergeCell ref="F702:G702"/>
+    <mergeCell ref="F703:G703"/>
+    <mergeCell ref="F704:G704"/>
+    <mergeCell ref="F705:G705"/>
+    <mergeCell ref="F688:G688"/>
+    <mergeCell ref="F689:G689"/>
+    <mergeCell ref="F690:G690"/>
+    <mergeCell ref="F691:G691"/>
+    <mergeCell ref="F692:G692"/>
+    <mergeCell ref="F693:G693"/>
+    <mergeCell ref="F694:G694"/>
+    <mergeCell ref="F695:G695"/>
+    <mergeCell ref="F696:G696"/>
+    <mergeCell ref="F679:G679"/>
+    <mergeCell ref="F680:G680"/>
+    <mergeCell ref="F681:G681"/>
+    <mergeCell ref="F682:G682"/>
+    <mergeCell ref="F683:G683"/>
+    <mergeCell ref="F684:G684"/>
+    <mergeCell ref="F685:G685"/>
+    <mergeCell ref="F686:G686"/>
+    <mergeCell ref="F687:G687"/>
+    <mergeCell ref="F670:G670"/>
+    <mergeCell ref="F671:G671"/>
+    <mergeCell ref="F672:G672"/>
+    <mergeCell ref="F673:G673"/>
+    <mergeCell ref="F674:G674"/>
+    <mergeCell ref="F675:G675"/>
+    <mergeCell ref="F676:G676"/>
+    <mergeCell ref="F677:G677"/>
+    <mergeCell ref="F678:G678"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="F163:G163"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="F160:G160"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="F167:G167"/>
+    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="F169:G169"/>
+    <mergeCell ref="F170:G170"/>
+    <mergeCell ref="F171:G171"/>
+    <mergeCell ref="F172:G172"/>
+    <mergeCell ref="F173:G173"/>
+    <mergeCell ref="F174:G174"/>
+    <mergeCell ref="F175:G175"/>
+    <mergeCell ref="F176:G176"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="F129:G129"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="F134:G134"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="F126:G126"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C9:L10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F177:G177"/>
+    <mergeCell ref="F178:G178"/>
+    <mergeCell ref="F179:G179"/>
+    <mergeCell ref="F180:G180"/>
+    <mergeCell ref="F181:G181"/>
+    <mergeCell ref="F182:G182"/>
+    <mergeCell ref="F183:G183"/>
+    <mergeCell ref="F184:G184"/>
+    <mergeCell ref="F185:G185"/>
+    <mergeCell ref="F186:G186"/>
+    <mergeCell ref="F187:G187"/>
+    <mergeCell ref="F188:G188"/>
+    <mergeCell ref="F189:G189"/>
+    <mergeCell ref="F190:G190"/>
+    <mergeCell ref="F191:G191"/>
+    <mergeCell ref="F192:G192"/>
+    <mergeCell ref="F193:G193"/>
+    <mergeCell ref="F194:G194"/>
+    <mergeCell ref="F195:G195"/>
+    <mergeCell ref="F196:G196"/>
+    <mergeCell ref="F197:G197"/>
+    <mergeCell ref="F198:G198"/>
+    <mergeCell ref="F199:G199"/>
+    <mergeCell ref="F200:G200"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="F202:G202"/>
+    <mergeCell ref="F203:G203"/>
+    <mergeCell ref="F204:G204"/>
+    <mergeCell ref="F205:G205"/>
+    <mergeCell ref="F206:G206"/>
+    <mergeCell ref="F207:G207"/>
+    <mergeCell ref="F208:G208"/>
+    <mergeCell ref="F209:G209"/>
+    <mergeCell ref="F210:G210"/>
+    <mergeCell ref="F211:G211"/>
+    <mergeCell ref="F212:G212"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="F215:G215"/>
+    <mergeCell ref="F216:G216"/>
+    <mergeCell ref="F217:G217"/>
+    <mergeCell ref="F218:G218"/>
+    <mergeCell ref="F219:G219"/>
+    <mergeCell ref="F220:G220"/>
+    <mergeCell ref="F221:G221"/>
+    <mergeCell ref="F222:G222"/>
+    <mergeCell ref="F223:G223"/>
+    <mergeCell ref="F224:G224"/>
+    <mergeCell ref="F225:G225"/>
+    <mergeCell ref="F226:G226"/>
+    <mergeCell ref="F227:G227"/>
+    <mergeCell ref="F228:G228"/>
+    <mergeCell ref="F229:G229"/>
+    <mergeCell ref="F230:G230"/>
+    <mergeCell ref="F231:G231"/>
+    <mergeCell ref="F232:G232"/>
+    <mergeCell ref="F233:G233"/>
+    <mergeCell ref="F234:G234"/>
+    <mergeCell ref="F235:G235"/>
+    <mergeCell ref="F236:G236"/>
+    <mergeCell ref="F237:G237"/>
+    <mergeCell ref="F238:G238"/>
+    <mergeCell ref="F239:G239"/>
+    <mergeCell ref="F240:G240"/>
+    <mergeCell ref="F241:G241"/>
+    <mergeCell ref="F242:G242"/>
+    <mergeCell ref="F243:G243"/>
+    <mergeCell ref="F244:G244"/>
+    <mergeCell ref="F245:G245"/>
+    <mergeCell ref="F255:G255"/>
+    <mergeCell ref="F256:G256"/>
+    <mergeCell ref="F246:G246"/>
+    <mergeCell ref="F247:G247"/>
+    <mergeCell ref="F248:G248"/>
+    <mergeCell ref="F249:G249"/>
+    <mergeCell ref="F250:G250"/>
+    <mergeCell ref="F251:G251"/>
+    <mergeCell ref="F252:G252"/>
+    <mergeCell ref="F253:G253"/>
+    <mergeCell ref="F254:G254"/>
+    <mergeCell ref="F257:G257"/>
+    <mergeCell ref="F258:G258"/>
+    <mergeCell ref="F259:G259"/>
+    <mergeCell ref="F260:G260"/>
+    <mergeCell ref="F261:G261"/>
+    <mergeCell ref="F262:G262"/>
+    <mergeCell ref="F263:G263"/>
+    <mergeCell ref="F264:G264"/>
+    <mergeCell ref="F265:G265"/>
+    <mergeCell ref="F266:G266"/>
+    <mergeCell ref="F267:G267"/>
+    <mergeCell ref="F268:G268"/>
+    <mergeCell ref="F269:G269"/>
+    <mergeCell ref="F270:G270"/>
+    <mergeCell ref="F271:G271"/>
+    <mergeCell ref="F272:G272"/>
+    <mergeCell ref="F273:G273"/>
+    <mergeCell ref="F274:G274"/>
+    <mergeCell ref="F275:G275"/>
+    <mergeCell ref="F276:G276"/>
+    <mergeCell ref="F277:G277"/>
+    <mergeCell ref="F278:G278"/>
+    <mergeCell ref="F279:G279"/>
+    <mergeCell ref="F280:G280"/>
+    <mergeCell ref="F281:G281"/>
+    <mergeCell ref="F282:G282"/>
+    <mergeCell ref="F283:G283"/>
+    <mergeCell ref="F284:G284"/>
+    <mergeCell ref="F285:G285"/>
+    <mergeCell ref="F286:G286"/>
+    <mergeCell ref="F287:G287"/>
+    <mergeCell ref="F288:G288"/>
+    <mergeCell ref="F289:G289"/>
+    <mergeCell ref="F290:G290"/>
+    <mergeCell ref="F291:G291"/>
+    <mergeCell ref="F292:G292"/>
+    <mergeCell ref="F293:G293"/>
+    <mergeCell ref="F294:G294"/>
+    <mergeCell ref="F295:G295"/>
+    <mergeCell ref="F296:G296"/>
+    <mergeCell ref="F297:G297"/>
+    <mergeCell ref="F298:G298"/>
+    <mergeCell ref="F299:G299"/>
+    <mergeCell ref="F300:G300"/>
+    <mergeCell ref="F301:G301"/>
+    <mergeCell ref="F302:G302"/>
+    <mergeCell ref="F303:G303"/>
+    <mergeCell ref="F304:G304"/>
+    <mergeCell ref="F305:G305"/>
+    <mergeCell ref="F306:G306"/>
+    <mergeCell ref="F307:G307"/>
+    <mergeCell ref="F308:G308"/>
+    <mergeCell ref="F309:G309"/>
+    <mergeCell ref="F310:G310"/>
+    <mergeCell ref="F311:G311"/>
+    <mergeCell ref="F312:G312"/>
+    <mergeCell ref="F313:G313"/>
+    <mergeCell ref="F314:G314"/>
+    <mergeCell ref="F315:G315"/>
+    <mergeCell ref="F316:G316"/>
+    <mergeCell ref="F317:G317"/>
+    <mergeCell ref="F318:G318"/>
+    <mergeCell ref="F319:G319"/>
+    <mergeCell ref="F320:G320"/>
+    <mergeCell ref="F321:G321"/>
+    <mergeCell ref="F322:G322"/>
+    <mergeCell ref="F323:G323"/>
+    <mergeCell ref="F324:G324"/>
+    <mergeCell ref="F325:G325"/>
+    <mergeCell ref="F326:G326"/>
+    <mergeCell ref="F327:G327"/>
+    <mergeCell ref="F328:G328"/>
+    <mergeCell ref="F329:G329"/>
+    <mergeCell ref="F330:G330"/>
+    <mergeCell ref="F331:G331"/>
+    <mergeCell ref="F332:G332"/>
+    <mergeCell ref="F333:G333"/>
+    <mergeCell ref="F334:G334"/>
+    <mergeCell ref="F335:G335"/>
+    <mergeCell ref="F336:G336"/>
+    <mergeCell ref="F337:G337"/>
+    <mergeCell ref="F338:G338"/>
+    <mergeCell ref="F339:G339"/>
+    <mergeCell ref="F340:G340"/>
+    <mergeCell ref="F341:G341"/>
+    <mergeCell ref="F342:G342"/>
+    <mergeCell ref="F343:G343"/>
+    <mergeCell ref="F344:G344"/>
+    <mergeCell ref="F345:G345"/>
+    <mergeCell ref="F346:G346"/>
+    <mergeCell ref="F347:G347"/>
+    <mergeCell ref="F348:G348"/>
+    <mergeCell ref="F349:G349"/>
+    <mergeCell ref="F350:G350"/>
+    <mergeCell ref="F351:G351"/>
+    <mergeCell ref="F352:G352"/>
+    <mergeCell ref="F353:G353"/>
+    <mergeCell ref="F354:G354"/>
+    <mergeCell ref="F355:G355"/>
+    <mergeCell ref="F356:G356"/>
+    <mergeCell ref="F357:G357"/>
+    <mergeCell ref="F358:G358"/>
+    <mergeCell ref="F359:G359"/>
+    <mergeCell ref="F360:G360"/>
+    <mergeCell ref="F361:G361"/>
+    <mergeCell ref="F362:G362"/>
+    <mergeCell ref="F363:G363"/>
+    <mergeCell ref="F364:G364"/>
+    <mergeCell ref="F365:G365"/>
+    <mergeCell ref="F366:G366"/>
+    <mergeCell ref="F367:G367"/>
+    <mergeCell ref="F368:G368"/>
+    <mergeCell ref="F369:G369"/>
+    <mergeCell ref="F370:G370"/>
+    <mergeCell ref="F371:G371"/>
+    <mergeCell ref="F372:G372"/>
+    <mergeCell ref="F373:G373"/>
+    <mergeCell ref="F374:G374"/>
+    <mergeCell ref="F375:G375"/>
+    <mergeCell ref="F376:G376"/>
+    <mergeCell ref="F377:G377"/>
+    <mergeCell ref="F524:G524"/>
+    <mergeCell ref="F525:G525"/>
+    <mergeCell ref="F526:G526"/>
+    <mergeCell ref="F497:G497"/>
+    <mergeCell ref="F498:G498"/>
+    <mergeCell ref="F482:G482"/>
+    <mergeCell ref="F483:G483"/>
+    <mergeCell ref="F484:G484"/>
+    <mergeCell ref="F485:G485"/>
+    <mergeCell ref="F486:G486"/>
+    <mergeCell ref="F487:G487"/>
+    <mergeCell ref="F488:G488"/>
+    <mergeCell ref="F489:G489"/>
+    <mergeCell ref="F490:G490"/>
+    <mergeCell ref="F467:G467"/>
+    <mergeCell ref="F468:G468"/>
+    <mergeCell ref="F469:G469"/>
+    <mergeCell ref="F470:G470"/>
+    <mergeCell ref="F527:G527"/>
+    <mergeCell ref="F528:G528"/>
+    <mergeCell ref="F378:G378"/>
+    <mergeCell ref="F379:G379"/>
+    <mergeCell ref="F380:G380"/>
+    <mergeCell ref="F507:G507"/>
+    <mergeCell ref="F508:G508"/>
+    <mergeCell ref="F509:G509"/>
+    <mergeCell ref="F510:G510"/>
+    <mergeCell ref="F511:G511"/>
+    <mergeCell ref="F512:G512"/>
+    <mergeCell ref="F513:G513"/>
+    <mergeCell ref="F514:G514"/>
+    <mergeCell ref="F515:G515"/>
+    <mergeCell ref="F516:G516"/>
+    <mergeCell ref="F517:G517"/>
+    <mergeCell ref="F518:G518"/>
+    <mergeCell ref="F473:G473"/>
+    <mergeCell ref="F474:G474"/>
+    <mergeCell ref="F475:G475"/>
+    <mergeCell ref="F476:G476"/>
+    <mergeCell ref="F477:G477"/>
+    <mergeCell ref="F478:G478"/>
+    <mergeCell ref="F479:G479"/>
+    <mergeCell ref="F480:G480"/>
+    <mergeCell ref="F481:G481"/>
+    <mergeCell ref="F491:G491"/>
+    <mergeCell ref="F492:G492"/>
+    <mergeCell ref="F493:G493"/>
+    <mergeCell ref="F494:G494"/>
+    <mergeCell ref="F495:G495"/>
+    <mergeCell ref="F496:G496"/>
+    <mergeCell ref="F529:G529"/>
+    <mergeCell ref="F530:G530"/>
+    <mergeCell ref="F531:G531"/>
+    <mergeCell ref="F532:G532"/>
+    <mergeCell ref="F533:G533"/>
+    <mergeCell ref="F534:G534"/>
+    <mergeCell ref="F535:G535"/>
+    <mergeCell ref="F536:G536"/>
+    <mergeCell ref="F537:G537"/>
+    <mergeCell ref="F538:G538"/>
+    <mergeCell ref="F539:G539"/>
+    <mergeCell ref="F540:G540"/>
+    <mergeCell ref="F541:G541"/>
+    <mergeCell ref="F542:G542"/>
+    <mergeCell ref="F543:G543"/>
+    <mergeCell ref="F544:G544"/>
+    <mergeCell ref="F545:G545"/>
+    <mergeCell ref="F546:G546"/>
+    <mergeCell ref="F547:G547"/>
+    <mergeCell ref="F548:G548"/>
+    <mergeCell ref="F549:G549"/>
+    <mergeCell ref="F550:G550"/>
+    <mergeCell ref="F551:G551"/>
+    <mergeCell ref="F552:G552"/>
+    <mergeCell ref="F553:G553"/>
+    <mergeCell ref="F554:G554"/>
+    <mergeCell ref="F555:G555"/>
+    <mergeCell ref="F556:G556"/>
+    <mergeCell ref="F557:G557"/>
+    <mergeCell ref="F558:G558"/>
+    <mergeCell ref="F559:G559"/>
+    <mergeCell ref="F560:G560"/>
+    <mergeCell ref="F561:G561"/>
+    <mergeCell ref="F562:G562"/>
+    <mergeCell ref="F563:G563"/>
+    <mergeCell ref="F564:G564"/>
+    <mergeCell ref="F565:G565"/>
+    <mergeCell ref="F566:G566"/>
+    <mergeCell ref="F567:G567"/>
+    <mergeCell ref="F568:G568"/>
+    <mergeCell ref="F569:G569"/>
+    <mergeCell ref="F570:G570"/>
+    <mergeCell ref="F571:G571"/>
+    <mergeCell ref="F572:G572"/>
+    <mergeCell ref="F573:G573"/>
+    <mergeCell ref="F574:G574"/>
+    <mergeCell ref="F575:G575"/>
+    <mergeCell ref="F576:G576"/>
+    <mergeCell ref="F577:G577"/>
+    <mergeCell ref="F578:G578"/>
+    <mergeCell ref="F579:G579"/>
+    <mergeCell ref="F580:G580"/>
+    <mergeCell ref="F581:G581"/>
+    <mergeCell ref="F582:G582"/>
+    <mergeCell ref="F583:G583"/>
+    <mergeCell ref="F584:G584"/>
+    <mergeCell ref="F585:G585"/>
+    <mergeCell ref="F586:G586"/>
+    <mergeCell ref="F587:G587"/>
+    <mergeCell ref="F588:G588"/>
+    <mergeCell ref="F589:G589"/>
+    <mergeCell ref="F590:G590"/>
+    <mergeCell ref="F591:G591"/>
+    <mergeCell ref="F592:G592"/>
+    <mergeCell ref="F593:G593"/>
+    <mergeCell ref="F594:G594"/>
+    <mergeCell ref="F595:G595"/>
+    <mergeCell ref="F596:G596"/>
+    <mergeCell ref="F597:G597"/>
+    <mergeCell ref="F598:G598"/>
+    <mergeCell ref="F599:G599"/>
+    <mergeCell ref="F600:G600"/>
+    <mergeCell ref="F601:G601"/>
+    <mergeCell ref="F602:G602"/>
+    <mergeCell ref="F603:G603"/>
+    <mergeCell ref="F604:G604"/>
+    <mergeCell ref="F605:G605"/>
+    <mergeCell ref="F606:G606"/>
+    <mergeCell ref="F607:G607"/>
+    <mergeCell ref="F608:G608"/>
+    <mergeCell ref="F609:G609"/>
+    <mergeCell ref="F610:G610"/>
+    <mergeCell ref="F611:G611"/>
+    <mergeCell ref="F612:G612"/>
+    <mergeCell ref="F613:G613"/>
+    <mergeCell ref="F614:G614"/>
+    <mergeCell ref="F615:G615"/>
+    <mergeCell ref="F616:G616"/>
+    <mergeCell ref="F617:G617"/>
+    <mergeCell ref="F618:G618"/>
+    <mergeCell ref="F619:G619"/>
+    <mergeCell ref="F620:G620"/>
+    <mergeCell ref="F621:G621"/>
+    <mergeCell ref="F622:G622"/>
+    <mergeCell ref="F623:G623"/>
+    <mergeCell ref="F624:G624"/>
+    <mergeCell ref="F625:G625"/>
+    <mergeCell ref="F626:G626"/>
+    <mergeCell ref="F627:G627"/>
+    <mergeCell ref="F628:G628"/>
+    <mergeCell ref="F629:G629"/>
+    <mergeCell ref="F630:G630"/>
+    <mergeCell ref="F639:G639"/>
+    <mergeCell ref="F640:G640"/>
+    <mergeCell ref="F641:G641"/>
+    <mergeCell ref="F642:G642"/>
+    <mergeCell ref="F643:G643"/>
+    <mergeCell ref="F657:G657"/>
+    <mergeCell ref="F658:G658"/>
+    <mergeCell ref="F651:G651"/>
+    <mergeCell ref="F652:G652"/>
+    <mergeCell ref="F653:G653"/>
+    <mergeCell ref="F654:G654"/>
+    <mergeCell ref="F655:G655"/>
+    <mergeCell ref="F656:G656"/>
+    <mergeCell ref="F644:G644"/>
+    <mergeCell ref="F645:G645"/>
+    <mergeCell ref="F646:G646"/>
+    <mergeCell ref="F647:G647"/>
+    <mergeCell ref="F648:G648"/>
+    <mergeCell ref="F649:G649"/>
+    <mergeCell ref="F650:G650"/>
+    <mergeCell ref="F668:G668"/>
+    <mergeCell ref="F669:G669"/>
+    <mergeCell ref="F659:G659"/>
+    <mergeCell ref="F660:G660"/>
+    <mergeCell ref="F661:G661"/>
+    <mergeCell ref="F662:G662"/>
+    <mergeCell ref="F663:G663"/>
+    <mergeCell ref="F664:G664"/>
+    <mergeCell ref="F665:G665"/>
+    <mergeCell ref="F666:G666"/>
+    <mergeCell ref="F667:G667"/>
+    <mergeCell ref="F519:G519"/>
+    <mergeCell ref="F520:G520"/>
+    <mergeCell ref="F521:G521"/>
+    <mergeCell ref="F522:G522"/>
+    <mergeCell ref="F523:G523"/>
+    <mergeCell ref="F499:G499"/>
+    <mergeCell ref="F501:G501"/>
+    <mergeCell ref="F502:G502"/>
+    <mergeCell ref="F503:G503"/>
+    <mergeCell ref="F504:G504"/>
+    <mergeCell ref="F505:G505"/>
+    <mergeCell ref="F506:G506"/>
+    <mergeCell ref="F500:G500"/>
+    <mergeCell ref="F631:G631"/>
+    <mergeCell ref="F632:G632"/>
+    <mergeCell ref="F633:G633"/>
+    <mergeCell ref="F634:G634"/>
+    <mergeCell ref="F635:G635"/>
+    <mergeCell ref="F636:G636"/>
+    <mergeCell ref="F637:G637"/>
+    <mergeCell ref="F638:G638"/>
+    <mergeCell ref="F439:G439"/>
+    <mergeCell ref="F440:G440"/>
+    <mergeCell ref="F441:G441"/>
+    <mergeCell ref="F442:G442"/>
+    <mergeCell ref="F471:G471"/>
+    <mergeCell ref="F472:G472"/>
+    <mergeCell ref="F460:G460"/>
+    <mergeCell ref="F461:G461"/>
+    <mergeCell ref="F462:G462"/>
+    <mergeCell ref="F463:G463"/>
+    <mergeCell ref="F464:G464"/>
+    <mergeCell ref="F465:G465"/>
+    <mergeCell ref="F466:G466"/>
+    <mergeCell ref="F449:G449"/>
+    <mergeCell ref="F450:G450"/>
+    <mergeCell ref="F451:G451"/>
+    <mergeCell ref="F452:G452"/>
+    <mergeCell ref="F453:G453"/>
+    <mergeCell ref="F454:G454"/>
+    <mergeCell ref="F455:G455"/>
+    <mergeCell ref="F456:G456"/>
+    <mergeCell ref="F457:G457"/>
+    <mergeCell ref="F458:G458"/>
+    <mergeCell ref="F459:G459"/>
+    <mergeCell ref="F401:G401"/>
+    <mergeCell ref="F402:G402"/>
+    <mergeCell ref="F403:G403"/>
+    <mergeCell ref="F404:G404"/>
+    <mergeCell ref="F405:G405"/>
+    <mergeCell ref="F406:G406"/>
+    <mergeCell ref="F407:G407"/>
+    <mergeCell ref="F408:G408"/>
+    <mergeCell ref="F409:G409"/>
+    <mergeCell ref="F443:G443"/>
+    <mergeCell ref="F444:G444"/>
+    <mergeCell ref="F445:G445"/>
+    <mergeCell ref="F446:G446"/>
+    <mergeCell ref="F447:G447"/>
+    <mergeCell ref="F448:G448"/>
+    <mergeCell ref="F422:G422"/>
+    <mergeCell ref="F423:G423"/>
+    <mergeCell ref="F424:G424"/>
+    <mergeCell ref="F425:G425"/>
+    <mergeCell ref="F426:G426"/>
+    <mergeCell ref="F427:G427"/>
+    <mergeCell ref="F428:G428"/>
+    <mergeCell ref="F429:G429"/>
+    <mergeCell ref="F430:G430"/>
+    <mergeCell ref="F431:G431"/>
+    <mergeCell ref="F432:G432"/>
+    <mergeCell ref="F433:G433"/>
+    <mergeCell ref="F434:G434"/>
+    <mergeCell ref="F435:G435"/>
+    <mergeCell ref="F436:G436"/>
+    <mergeCell ref="F437:G437"/>
+    <mergeCell ref="F438:G438"/>
     <mergeCell ref="F410:G410"/>
     <mergeCell ref="F411:G411"/>
     <mergeCell ref="F421:G421"/>
@@ -41597,1976 +44110,6 @@
     <mergeCell ref="F398:G398"/>
     <mergeCell ref="F399:G399"/>
     <mergeCell ref="F400:G400"/>
-    <mergeCell ref="F401:G401"/>
-    <mergeCell ref="F402:G402"/>
-    <mergeCell ref="F403:G403"/>
-    <mergeCell ref="F404:G404"/>
-    <mergeCell ref="F405:G405"/>
-    <mergeCell ref="F406:G406"/>
-    <mergeCell ref="F407:G407"/>
-    <mergeCell ref="F408:G408"/>
-    <mergeCell ref="F409:G409"/>
-    <mergeCell ref="F443:G443"/>
-    <mergeCell ref="F444:G444"/>
-    <mergeCell ref="F445:G445"/>
-    <mergeCell ref="F446:G446"/>
-    <mergeCell ref="F447:G447"/>
-    <mergeCell ref="F448:G448"/>
-    <mergeCell ref="F422:G422"/>
-    <mergeCell ref="F423:G423"/>
-    <mergeCell ref="F424:G424"/>
-    <mergeCell ref="F425:G425"/>
-    <mergeCell ref="F426:G426"/>
-    <mergeCell ref="F427:G427"/>
-    <mergeCell ref="F428:G428"/>
-    <mergeCell ref="F429:G429"/>
-    <mergeCell ref="F430:G430"/>
-    <mergeCell ref="F431:G431"/>
-    <mergeCell ref="F432:G432"/>
-    <mergeCell ref="F433:G433"/>
-    <mergeCell ref="F434:G434"/>
-    <mergeCell ref="F435:G435"/>
-    <mergeCell ref="F436:G436"/>
-    <mergeCell ref="F437:G437"/>
-    <mergeCell ref="F438:G438"/>
-    <mergeCell ref="F439:G439"/>
-    <mergeCell ref="F440:G440"/>
-    <mergeCell ref="F441:G441"/>
-    <mergeCell ref="F442:G442"/>
-    <mergeCell ref="F471:G471"/>
-    <mergeCell ref="F472:G472"/>
-    <mergeCell ref="F460:G460"/>
-    <mergeCell ref="F461:G461"/>
-    <mergeCell ref="F462:G462"/>
-    <mergeCell ref="F463:G463"/>
-    <mergeCell ref="F464:G464"/>
-    <mergeCell ref="F465:G465"/>
-    <mergeCell ref="F466:G466"/>
-    <mergeCell ref="F449:G449"/>
-    <mergeCell ref="F450:G450"/>
-    <mergeCell ref="F451:G451"/>
-    <mergeCell ref="F452:G452"/>
-    <mergeCell ref="F453:G453"/>
-    <mergeCell ref="F454:G454"/>
-    <mergeCell ref="F455:G455"/>
-    <mergeCell ref="F456:G456"/>
-    <mergeCell ref="F457:G457"/>
-    <mergeCell ref="F458:G458"/>
-    <mergeCell ref="F459:G459"/>
-    <mergeCell ref="F668:G668"/>
-    <mergeCell ref="F669:G669"/>
-    <mergeCell ref="F659:G659"/>
-    <mergeCell ref="F660:G660"/>
-    <mergeCell ref="F661:G661"/>
-    <mergeCell ref="F662:G662"/>
-    <mergeCell ref="F663:G663"/>
-    <mergeCell ref="F664:G664"/>
-    <mergeCell ref="F665:G665"/>
-    <mergeCell ref="F666:G666"/>
-    <mergeCell ref="F667:G667"/>
-    <mergeCell ref="F519:G519"/>
-    <mergeCell ref="F520:G520"/>
-    <mergeCell ref="F521:G521"/>
-    <mergeCell ref="F522:G522"/>
-    <mergeCell ref="F523:G523"/>
-    <mergeCell ref="F499:G499"/>
-    <mergeCell ref="F501:G501"/>
-    <mergeCell ref="F502:G502"/>
-    <mergeCell ref="F503:G503"/>
-    <mergeCell ref="F504:G504"/>
-    <mergeCell ref="F505:G505"/>
-    <mergeCell ref="F506:G506"/>
-    <mergeCell ref="F500:G500"/>
-    <mergeCell ref="F631:G631"/>
-    <mergeCell ref="F632:G632"/>
-    <mergeCell ref="F633:G633"/>
-    <mergeCell ref="F634:G634"/>
-    <mergeCell ref="F635:G635"/>
-    <mergeCell ref="F636:G636"/>
-    <mergeCell ref="F637:G637"/>
-    <mergeCell ref="F638:G638"/>
-    <mergeCell ref="F639:G639"/>
-    <mergeCell ref="F640:G640"/>
-    <mergeCell ref="F641:G641"/>
-    <mergeCell ref="F642:G642"/>
-    <mergeCell ref="F643:G643"/>
-    <mergeCell ref="F657:G657"/>
-    <mergeCell ref="F658:G658"/>
-    <mergeCell ref="F651:G651"/>
-    <mergeCell ref="F652:G652"/>
-    <mergeCell ref="F653:G653"/>
-    <mergeCell ref="F654:G654"/>
-    <mergeCell ref="F655:G655"/>
-    <mergeCell ref="F656:G656"/>
-    <mergeCell ref="F644:G644"/>
-    <mergeCell ref="F645:G645"/>
-    <mergeCell ref="F646:G646"/>
-    <mergeCell ref="F647:G647"/>
-    <mergeCell ref="F648:G648"/>
-    <mergeCell ref="F649:G649"/>
-    <mergeCell ref="F650:G650"/>
-    <mergeCell ref="F614:G614"/>
-    <mergeCell ref="F615:G615"/>
-    <mergeCell ref="F616:G616"/>
-    <mergeCell ref="F617:G617"/>
-    <mergeCell ref="F618:G618"/>
-    <mergeCell ref="F619:G619"/>
-    <mergeCell ref="F620:G620"/>
-    <mergeCell ref="F621:G621"/>
-    <mergeCell ref="F622:G622"/>
-    <mergeCell ref="F623:G623"/>
-    <mergeCell ref="F624:G624"/>
-    <mergeCell ref="F625:G625"/>
-    <mergeCell ref="F626:G626"/>
-    <mergeCell ref="F627:G627"/>
-    <mergeCell ref="F628:G628"/>
-    <mergeCell ref="F629:G629"/>
-    <mergeCell ref="F630:G630"/>
-    <mergeCell ref="F597:G597"/>
-    <mergeCell ref="F598:G598"/>
-    <mergeCell ref="F599:G599"/>
-    <mergeCell ref="F600:G600"/>
-    <mergeCell ref="F601:G601"/>
-    <mergeCell ref="F602:G602"/>
-    <mergeCell ref="F603:G603"/>
-    <mergeCell ref="F604:G604"/>
-    <mergeCell ref="F605:G605"/>
-    <mergeCell ref="F606:G606"/>
-    <mergeCell ref="F607:G607"/>
-    <mergeCell ref="F608:G608"/>
-    <mergeCell ref="F609:G609"/>
-    <mergeCell ref="F610:G610"/>
-    <mergeCell ref="F611:G611"/>
-    <mergeCell ref="F612:G612"/>
-    <mergeCell ref="F613:G613"/>
-    <mergeCell ref="F580:G580"/>
-    <mergeCell ref="F581:G581"/>
-    <mergeCell ref="F582:G582"/>
-    <mergeCell ref="F583:G583"/>
-    <mergeCell ref="F584:G584"/>
-    <mergeCell ref="F585:G585"/>
-    <mergeCell ref="F586:G586"/>
-    <mergeCell ref="F587:G587"/>
-    <mergeCell ref="F588:G588"/>
-    <mergeCell ref="F589:G589"/>
-    <mergeCell ref="F590:G590"/>
-    <mergeCell ref="F591:G591"/>
-    <mergeCell ref="F592:G592"/>
-    <mergeCell ref="F593:G593"/>
-    <mergeCell ref="F594:G594"/>
-    <mergeCell ref="F595:G595"/>
-    <mergeCell ref="F596:G596"/>
-    <mergeCell ref="F563:G563"/>
-    <mergeCell ref="F564:G564"/>
-    <mergeCell ref="F565:G565"/>
-    <mergeCell ref="F566:G566"/>
-    <mergeCell ref="F567:G567"/>
-    <mergeCell ref="F568:G568"/>
-    <mergeCell ref="F569:G569"/>
-    <mergeCell ref="F570:G570"/>
-    <mergeCell ref="F571:G571"/>
-    <mergeCell ref="F572:G572"/>
-    <mergeCell ref="F573:G573"/>
-    <mergeCell ref="F574:G574"/>
-    <mergeCell ref="F575:G575"/>
-    <mergeCell ref="F576:G576"/>
-    <mergeCell ref="F577:G577"/>
-    <mergeCell ref="F578:G578"/>
-    <mergeCell ref="F579:G579"/>
-    <mergeCell ref="F546:G546"/>
-    <mergeCell ref="F547:G547"/>
-    <mergeCell ref="F548:G548"/>
-    <mergeCell ref="F549:G549"/>
-    <mergeCell ref="F550:G550"/>
-    <mergeCell ref="F551:G551"/>
-    <mergeCell ref="F552:G552"/>
-    <mergeCell ref="F553:G553"/>
-    <mergeCell ref="F554:G554"/>
-    <mergeCell ref="F555:G555"/>
-    <mergeCell ref="F556:G556"/>
-    <mergeCell ref="F557:G557"/>
-    <mergeCell ref="F558:G558"/>
-    <mergeCell ref="F559:G559"/>
-    <mergeCell ref="F560:G560"/>
-    <mergeCell ref="F561:G561"/>
-    <mergeCell ref="F562:G562"/>
-    <mergeCell ref="F529:G529"/>
-    <mergeCell ref="F530:G530"/>
-    <mergeCell ref="F531:G531"/>
-    <mergeCell ref="F532:G532"/>
-    <mergeCell ref="F533:G533"/>
-    <mergeCell ref="F534:G534"/>
-    <mergeCell ref="F535:G535"/>
-    <mergeCell ref="F536:G536"/>
-    <mergeCell ref="F537:G537"/>
-    <mergeCell ref="F538:G538"/>
-    <mergeCell ref="F539:G539"/>
-    <mergeCell ref="F540:G540"/>
-    <mergeCell ref="F541:G541"/>
-    <mergeCell ref="F542:G542"/>
-    <mergeCell ref="F543:G543"/>
-    <mergeCell ref="F544:G544"/>
-    <mergeCell ref="F545:G545"/>
-    <mergeCell ref="F527:G527"/>
-    <mergeCell ref="F528:G528"/>
-    <mergeCell ref="F378:G378"/>
-    <mergeCell ref="F379:G379"/>
-    <mergeCell ref="F380:G380"/>
-    <mergeCell ref="F507:G507"/>
-    <mergeCell ref="F508:G508"/>
-    <mergeCell ref="F509:G509"/>
-    <mergeCell ref="F510:G510"/>
-    <mergeCell ref="F511:G511"/>
-    <mergeCell ref="F512:G512"/>
-    <mergeCell ref="F513:G513"/>
-    <mergeCell ref="F514:G514"/>
-    <mergeCell ref="F515:G515"/>
-    <mergeCell ref="F516:G516"/>
-    <mergeCell ref="F517:G517"/>
-    <mergeCell ref="F518:G518"/>
-    <mergeCell ref="F473:G473"/>
-    <mergeCell ref="F474:G474"/>
-    <mergeCell ref="F475:G475"/>
-    <mergeCell ref="F476:G476"/>
-    <mergeCell ref="F477:G477"/>
-    <mergeCell ref="F478:G478"/>
-    <mergeCell ref="F479:G479"/>
-    <mergeCell ref="F480:G480"/>
-    <mergeCell ref="F481:G481"/>
-    <mergeCell ref="F491:G491"/>
-    <mergeCell ref="F492:G492"/>
-    <mergeCell ref="F493:G493"/>
-    <mergeCell ref="F494:G494"/>
-    <mergeCell ref="F495:G495"/>
-    <mergeCell ref="F496:G496"/>
-    <mergeCell ref="F364:G364"/>
-    <mergeCell ref="F365:G365"/>
-    <mergeCell ref="F366:G366"/>
-    <mergeCell ref="F367:G367"/>
-    <mergeCell ref="F368:G368"/>
-    <mergeCell ref="F369:G369"/>
-    <mergeCell ref="F370:G370"/>
-    <mergeCell ref="F371:G371"/>
-    <mergeCell ref="F372:G372"/>
-    <mergeCell ref="F373:G373"/>
-    <mergeCell ref="F374:G374"/>
-    <mergeCell ref="F375:G375"/>
-    <mergeCell ref="F376:G376"/>
-    <mergeCell ref="F377:G377"/>
-    <mergeCell ref="F524:G524"/>
-    <mergeCell ref="F525:G525"/>
-    <mergeCell ref="F526:G526"/>
-    <mergeCell ref="F497:G497"/>
-    <mergeCell ref="F498:G498"/>
-    <mergeCell ref="F482:G482"/>
-    <mergeCell ref="F483:G483"/>
-    <mergeCell ref="F484:G484"/>
-    <mergeCell ref="F485:G485"/>
-    <mergeCell ref="F486:G486"/>
-    <mergeCell ref="F487:G487"/>
-    <mergeCell ref="F488:G488"/>
-    <mergeCell ref="F489:G489"/>
-    <mergeCell ref="F490:G490"/>
-    <mergeCell ref="F467:G467"/>
-    <mergeCell ref="F468:G468"/>
-    <mergeCell ref="F469:G469"/>
-    <mergeCell ref="F470:G470"/>
-    <mergeCell ref="F347:G347"/>
-    <mergeCell ref="F348:G348"/>
-    <mergeCell ref="F349:G349"/>
-    <mergeCell ref="F350:G350"/>
-    <mergeCell ref="F351:G351"/>
-    <mergeCell ref="F352:G352"/>
-    <mergeCell ref="F353:G353"/>
-    <mergeCell ref="F354:G354"/>
-    <mergeCell ref="F355:G355"/>
-    <mergeCell ref="F356:G356"/>
-    <mergeCell ref="F357:G357"/>
-    <mergeCell ref="F358:G358"/>
-    <mergeCell ref="F359:G359"/>
-    <mergeCell ref="F360:G360"/>
-    <mergeCell ref="F361:G361"/>
-    <mergeCell ref="F362:G362"/>
-    <mergeCell ref="F363:G363"/>
-    <mergeCell ref="F330:G330"/>
-    <mergeCell ref="F331:G331"/>
-    <mergeCell ref="F332:G332"/>
-    <mergeCell ref="F333:G333"/>
-    <mergeCell ref="F334:G334"/>
-    <mergeCell ref="F335:G335"/>
-    <mergeCell ref="F336:G336"/>
-    <mergeCell ref="F337:G337"/>
-    <mergeCell ref="F338:G338"/>
-    <mergeCell ref="F339:G339"/>
-    <mergeCell ref="F340:G340"/>
-    <mergeCell ref="F341:G341"/>
-    <mergeCell ref="F342:G342"/>
-    <mergeCell ref="F343:G343"/>
-    <mergeCell ref="F344:G344"/>
-    <mergeCell ref="F345:G345"/>
-    <mergeCell ref="F346:G346"/>
-    <mergeCell ref="F313:G313"/>
-    <mergeCell ref="F314:G314"/>
-    <mergeCell ref="F315:G315"/>
-    <mergeCell ref="F316:G316"/>
-    <mergeCell ref="F317:G317"/>
-    <mergeCell ref="F318:G318"/>
-    <mergeCell ref="F319:G319"/>
-    <mergeCell ref="F320:G320"/>
-    <mergeCell ref="F321:G321"/>
-    <mergeCell ref="F322:G322"/>
-    <mergeCell ref="F323:G323"/>
-    <mergeCell ref="F324:G324"/>
-    <mergeCell ref="F325:G325"/>
-    <mergeCell ref="F326:G326"/>
-    <mergeCell ref="F327:G327"/>
-    <mergeCell ref="F328:G328"/>
-    <mergeCell ref="F329:G329"/>
-    <mergeCell ref="F296:G296"/>
-    <mergeCell ref="F297:G297"/>
-    <mergeCell ref="F298:G298"/>
-    <mergeCell ref="F299:G299"/>
-    <mergeCell ref="F300:G300"/>
-    <mergeCell ref="F301:G301"/>
-    <mergeCell ref="F302:G302"/>
-    <mergeCell ref="F303:G303"/>
-    <mergeCell ref="F304:G304"/>
-    <mergeCell ref="F305:G305"/>
-    <mergeCell ref="F306:G306"/>
-    <mergeCell ref="F307:G307"/>
-    <mergeCell ref="F308:G308"/>
-    <mergeCell ref="F309:G309"/>
-    <mergeCell ref="F310:G310"/>
-    <mergeCell ref="F311:G311"/>
-    <mergeCell ref="F312:G312"/>
-    <mergeCell ref="F279:G279"/>
-    <mergeCell ref="F280:G280"/>
-    <mergeCell ref="F281:G281"/>
-    <mergeCell ref="F282:G282"/>
-    <mergeCell ref="F283:G283"/>
-    <mergeCell ref="F284:G284"/>
-    <mergeCell ref="F285:G285"/>
-    <mergeCell ref="F286:G286"/>
-    <mergeCell ref="F287:G287"/>
-    <mergeCell ref="F288:G288"/>
-    <mergeCell ref="F289:G289"/>
-    <mergeCell ref="F290:G290"/>
-    <mergeCell ref="F291:G291"/>
-    <mergeCell ref="F292:G292"/>
-    <mergeCell ref="F293:G293"/>
-    <mergeCell ref="F294:G294"/>
-    <mergeCell ref="F295:G295"/>
-    <mergeCell ref="F262:G262"/>
-    <mergeCell ref="F263:G263"/>
-    <mergeCell ref="F264:G264"/>
-    <mergeCell ref="F265:G265"/>
-    <mergeCell ref="F266:G266"/>
-    <mergeCell ref="F267:G267"/>
-    <mergeCell ref="F268:G268"/>
-    <mergeCell ref="F269:G269"/>
-    <mergeCell ref="F270:G270"/>
-    <mergeCell ref="F271:G271"/>
-    <mergeCell ref="F272:G272"/>
-    <mergeCell ref="F273:G273"/>
-    <mergeCell ref="F274:G274"/>
-    <mergeCell ref="F275:G275"/>
-    <mergeCell ref="F276:G276"/>
-    <mergeCell ref="F277:G277"/>
-    <mergeCell ref="F278:G278"/>
-    <mergeCell ref="F245:G245"/>
-    <mergeCell ref="F255:G255"/>
-    <mergeCell ref="F256:G256"/>
-    <mergeCell ref="F246:G246"/>
-    <mergeCell ref="F247:G247"/>
-    <mergeCell ref="F248:G248"/>
-    <mergeCell ref="F249:G249"/>
-    <mergeCell ref="F250:G250"/>
-    <mergeCell ref="F251:G251"/>
-    <mergeCell ref="F252:G252"/>
-    <mergeCell ref="F253:G253"/>
-    <mergeCell ref="F254:G254"/>
-    <mergeCell ref="F257:G257"/>
-    <mergeCell ref="F258:G258"/>
-    <mergeCell ref="F259:G259"/>
-    <mergeCell ref="F260:G260"/>
-    <mergeCell ref="F261:G261"/>
-    <mergeCell ref="F228:G228"/>
-    <mergeCell ref="F229:G229"/>
-    <mergeCell ref="F230:G230"/>
-    <mergeCell ref="F231:G231"/>
-    <mergeCell ref="F232:G232"/>
-    <mergeCell ref="F233:G233"/>
-    <mergeCell ref="F234:G234"/>
-    <mergeCell ref="F235:G235"/>
-    <mergeCell ref="F236:G236"/>
-    <mergeCell ref="F237:G237"/>
-    <mergeCell ref="F238:G238"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="F240:G240"/>
-    <mergeCell ref="F241:G241"/>
-    <mergeCell ref="F242:G242"/>
-    <mergeCell ref="F243:G243"/>
-    <mergeCell ref="F244:G244"/>
-    <mergeCell ref="F211:G211"/>
-    <mergeCell ref="F212:G212"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="F215:G215"/>
-    <mergeCell ref="F216:G216"/>
-    <mergeCell ref="F217:G217"/>
-    <mergeCell ref="F218:G218"/>
-    <mergeCell ref="F219:G219"/>
-    <mergeCell ref="F220:G220"/>
-    <mergeCell ref="F221:G221"/>
-    <mergeCell ref="F222:G222"/>
-    <mergeCell ref="F223:G223"/>
-    <mergeCell ref="F224:G224"/>
-    <mergeCell ref="F225:G225"/>
-    <mergeCell ref="F226:G226"/>
-    <mergeCell ref="F227:G227"/>
-    <mergeCell ref="F194:G194"/>
-    <mergeCell ref="F195:G195"/>
-    <mergeCell ref="F196:G196"/>
-    <mergeCell ref="F197:G197"/>
-    <mergeCell ref="F198:G198"/>
-    <mergeCell ref="F199:G199"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="F202:G202"/>
-    <mergeCell ref="F203:G203"/>
-    <mergeCell ref="F204:G204"/>
-    <mergeCell ref="F205:G205"/>
-    <mergeCell ref="F206:G206"/>
-    <mergeCell ref="F207:G207"/>
-    <mergeCell ref="F208:G208"/>
-    <mergeCell ref="F209:G209"/>
-    <mergeCell ref="F210:G210"/>
-    <mergeCell ref="F177:G177"/>
-    <mergeCell ref="F178:G178"/>
-    <mergeCell ref="F179:G179"/>
-    <mergeCell ref="F180:G180"/>
-    <mergeCell ref="F181:G181"/>
-    <mergeCell ref="F182:G182"/>
-    <mergeCell ref="F183:G183"/>
-    <mergeCell ref="F184:G184"/>
-    <mergeCell ref="F185:G185"/>
-    <mergeCell ref="F186:G186"/>
-    <mergeCell ref="F187:G187"/>
-    <mergeCell ref="F188:G188"/>
-    <mergeCell ref="F189:G189"/>
-    <mergeCell ref="F190:G190"/>
-    <mergeCell ref="F191:G191"/>
-    <mergeCell ref="F192:G192"/>
-    <mergeCell ref="F193:G193"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C9:L10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="F127:G127"/>
-    <mergeCell ref="F128:G128"/>
-    <mergeCell ref="F129:G129"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="F134:G134"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="F125:G125"/>
-    <mergeCell ref="F126:G126"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="F137:G137"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="F670:G670"/>
-    <mergeCell ref="F671:G671"/>
-    <mergeCell ref="F672:G672"/>
-    <mergeCell ref="F673:G673"/>
-    <mergeCell ref="F674:G674"/>
-    <mergeCell ref="F675:G675"/>
-    <mergeCell ref="F676:G676"/>
-    <mergeCell ref="F677:G677"/>
-    <mergeCell ref="F678:G678"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="F157:G157"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="F159:G159"/>
-    <mergeCell ref="F163:G163"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="F160:G160"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="F167:G167"/>
-    <mergeCell ref="F168:G168"/>
-    <mergeCell ref="F169:G169"/>
-    <mergeCell ref="F170:G170"/>
-    <mergeCell ref="F171:G171"/>
-    <mergeCell ref="F172:G172"/>
-    <mergeCell ref="F173:G173"/>
-    <mergeCell ref="F174:G174"/>
-    <mergeCell ref="F175:G175"/>
-    <mergeCell ref="F176:G176"/>
-    <mergeCell ref="F688:G688"/>
-    <mergeCell ref="F689:G689"/>
-    <mergeCell ref="F690:G690"/>
-    <mergeCell ref="F691:G691"/>
-    <mergeCell ref="F692:G692"/>
-    <mergeCell ref="F693:G693"/>
-    <mergeCell ref="F694:G694"/>
-    <mergeCell ref="F695:G695"/>
-    <mergeCell ref="F696:G696"/>
-    <mergeCell ref="F679:G679"/>
-    <mergeCell ref="F680:G680"/>
-    <mergeCell ref="F681:G681"/>
-    <mergeCell ref="F682:G682"/>
-    <mergeCell ref="F683:G683"/>
-    <mergeCell ref="F684:G684"/>
-    <mergeCell ref="F685:G685"/>
-    <mergeCell ref="F686:G686"/>
-    <mergeCell ref="F687:G687"/>
-    <mergeCell ref="F706:G706"/>
-    <mergeCell ref="F707:G707"/>
-    <mergeCell ref="F708:G708"/>
-    <mergeCell ref="F709:G709"/>
-    <mergeCell ref="F710:G710"/>
-    <mergeCell ref="F711:G711"/>
-    <mergeCell ref="F712:G712"/>
-    <mergeCell ref="F713:G713"/>
-    <mergeCell ref="F714:G714"/>
-    <mergeCell ref="F697:G697"/>
-    <mergeCell ref="F698:G698"/>
-    <mergeCell ref="F699:G699"/>
-    <mergeCell ref="F700:G700"/>
-    <mergeCell ref="F701:G701"/>
-    <mergeCell ref="F702:G702"/>
-    <mergeCell ref="F703:G703"/>
-    <mergeCell ref="F704:G704"/>
-    <mergeCell ref="F705:G705"/>
-    <mergeCell ref="F724:G724"/>
-    <mergeCell ref="F725:G725"/>
-    <mergeCell ref="F726:G726"/>
-    <mergeCell ref="F727:G727"/>
-    <mergeCell ref="F728:G728"/>
-    <mergeCell ref="F729:G729"/>
-    <mergeCell ref="F730:G730"/>
-    <mergeCell ref="F731:G731"/>
-    <mergeCell ref="F732:G732"/>
-    <mergeCell ref="F715:G715"/>
-    <mergeCell ref="F716:G716"/>
-    <mergeCell ref="F717:G717"/>
-    <mergeCell ref="F718:G718"/>
-    <mergeCell ref="F719:G719"/>
-    <mergeCell ref="F720:G720"/>
-    <mergeCell ref="F721:G721"/>
-    <mergeCell ref="F722:G722"/>
-    <mergeCell ref="F723:G723"/>
-    <mergeCell ref="F742:G742"/>
-    <mergeCell ref="F743:G743"/>
-    <mergeCell ref="F744:G744"/>
-    <mergeCell ref="F745:G745"/>
-    <mergeCell ref="F746:G746"/>
-    <mergeCell ref="F747:G747"/>
-    <mergeCell ref="F748:G748"/>
-    <mergeCell ref="F749:G749"/>
-    <mergeCell ref="F750:G750"/>
-    <mergeCell ref="F733:G733"/>
-    <mergeCell ref="F734:G734"/>
-    <mergeCell ref="F735:G735"/>
-    <mergeCell ref="F736:G736"/>
-    <mergeCell ref="F737:G737"/>
-    <mergeCell ref="F738:G738"/>
-    <mergeCell ref="F739:G739"/>
-    <mergeCell ref="F740:G740"/>
-    <mergeCell ref="F741:G741"/>
-    <mergeCell ref="F760:G760"/>
-    <mergeCell ref="F761:G761"/>
-    <mergeCell ref="F762:G762"/>
-    <mergeCell ref="F763:G763"/>
-    <mergeCell ref="F764:G764"/>
-    <mergeCell ref="F765:G765"/>
-    <mergeCell ref="F766:G766"/>
-    <mergeCell ref="F767:G767"/>
-    <mergeCell ref="F768:G768"/>
-    <mergeCell ref="F751:G751"/>
-    <mergeCell ref="F752:G752"/>
-    <mergeCell ref="F753:G753"/>
-    <mergeCell ref="F754:G754"/>
-    <mergeCell ref="F755:G755"/>
-    <mergeCell ref="F756:G756"/>
-    <mergeCell ref="F757:G757"/>
-    <mergeCell ref="F758:G758"/>
-    <mergeCell ref="F759:G759"/>
-    <mergeCell ref="F778:G778"/>
-    <mergeCell ref="F779:G779"/>
-    <mergeCell ref="F780:G780"/>
-    <mergeCell ref="F781:G781"/>
-    <mergeCell ref="F782:G782"/>
-    <mergeCell ref="F783:G783"/>
-    <mergeCell ref="F784:G784"/>
-    <mergeCell ref="F785:G785"/>
-    <mergeCell ref="F786:G786"/>
-    <mergeCell ref="F769:G769"/>
-    <mergeCell ref="F770:G770"/>
-    <mergeCell ref="F771:G771"/>
-    <mergeCell ref="F772:G772"/>
-    <mergeCell ref="F773:G773"/>
-    <mergeCell ref="F774:G774"/>
-    <mergeCell ref="F775:G775"/>
-    <mergeCell ref="F776:G776"/>
-    <mergeCell ref="F777:G777"/>
-    <mergeCell ref="F796:G796"/>
-    <mergeCell ref="F797:G797"/>
-    <mergeCell ref="F798:G798"/>
-    <mergeCell ref="F799:G799"/>
-    <mergeCell ref="F800:G800"/>
-    <mergeCell ref="F801:G801"/>
-    <mergeCell ref="F802:G802"/>
-    <mergeCell ref="F803:G803"/>
-    <mergeCell ref="F804:G804"/>
-    <mergeCell ref="F787:G787"/>
-    <mergeCell ref="F788:G788"/>
-    <mergeCell ref="F789:G789"/>
-    <mergeCell ref="F790:G790"/>
-    <mergeCell ref="F791:G791"/>
-    <mergeCell ref="F792:G792"/>
-    <mergeCell ref="F793:G793"/>
-    <mergeCell ref="F794:G794"/>
-    <mergeCell ref="F795:G795"/>
-    <mergeCell ref="F814:G814"/>
-    <mergeCell ref="F815:G815"/>
-    <mergeCell ref="F816:G816"/>
-    <mergeCell ref="F817:G817"/>
-    <mergeCell ref="F818:G818"/>
-    <mergeCell ref="F819:G819"/>
-    <mergeCell ref="F820:G820"/>
-    <mergeCell ref="F821:G821"/>
-    <mergeCell ref="F822:G822"/>
-    <mergeCell ref="F805:G805"/>
-    <mergeCell ref="F806:G806"/>
-    <mergeCell ref="F807:G807"/>
-    <mergeCell ref="F808:G808"/>
-    <mergeCell ref="F809:G809"/>
-    <mergeCell ref="F810:G810"/>
-    <mergeCell ref="F811:G811"/>
-    <mergeCell ref="F812:G812"/>
-    <mergeCell ref="F813:G813"/>
-    <mergeCell ref="F832:G832"/>
-    <mergeCell ref="F833:G833"/>
-    <mergeCell ref="F834:G834"/>
-    <mergeCell ref="F835:G835"/>
-    <mergeCell ref="F836:G836"/>
-    <mergeCell ref="F837:G837"/>
-    <mergeCell ref="F838:G838"/>
-    <mergeCell ref="F839:G839"/>
-    <mergeCell ref="F840:G840"/>
-    <mergeCell ref="F823:G823"/>
-    <mergeCell ref="F824:G824"/>
-    <mergeCell ref="F825:G825"/>
-    <mergeCell ref="F826:G826"/>
-    <mergeCell ref="F827:G827"/>
-    <mergeCell ref="F828:G828"/>
-    <mergeCell ref="F829:G829"/>
-    <mergeCell ref="F830:G830"/>
-    <mergeCell ref="F831:G831"/>
-    <mergeCell ref="F850:G850"/>
-    <mergeCell ref="F851:G851"/>
-    <mergeCell ref="F852:G852"/>
-    <mergeCell ref="F853:G853"/>
-    <mergeCell ref="F854:G854"/>
-    <mergeCell ref="F855:G855"/>
-    <mergeCell ref="F856:G856"/>
-    <mergeCell ref="F857:G857"/>
-    <mergeCell ref="F858:G858"/>
-    <mergeCell ref="F841:G841"/>
-    <mergeCell ref="F842:G842"/>
-    <mergeCell ref="F843:G843"/>
-    <mergeCell ref="F844:G844"/>
-    <mergeCell ref="F845:G845"/>
-    <mergeCell ref="F846:G846"/>
-    <mergeCell ref="F847:G847"/>
-    <mergeCell ref="F848:G848"/>
-    <mergeCell ref="F849:G849"/>
-    <mergeCell ref="F868:G868"/>
-    <mergeCell ref="F869:G869"/>
-    <mergeCell ref="F870:G870"/>
-    <mergeCell ref="F871:G871"/>
-    <mergeCell ref="F872:G872"/>
-    <mergeCell ref="F873:G873"/>
-    <mergeCell ref="F874:G874"/>
-    <mergeCell ref="F875:G875"/>
-    <mergeCell ref="F876:G876"/>
-    <mergeCell ref="F859:G859"/>
-    <mergeCell ref="F860:G860"/>
-    <mergeCell ref="F861:G861"/>
-    <mergeCell ref="F862:G862"/>
-    <mergeCell ref="F863:G863"/>
-    <mergeCell ref="F864:G864"/>
-    <mergeCell ref="F865:G865"/>
-    <mergeCell ref="F866:G866"/>
-    <mergeCell ref="F867:G867"/>
-    <mergeCell ref="F886:G886"/>
-    <mergeCell ref="F887:G887"/>
-    <mergeCell ref="F888:G888"/>
-    <mergeCell ref="F889:G889"/>
-    <mergeCell ref="F890:G890"/>
-    <mergeCell ref="F891:G891"/>
-    <mergeCell ref="F892:G892"/>
-    <mergeCell ref="F893:G893"/>
-    <mergeCell ref="F894:G894"/>
-    <mergeCell ref="F877:G877"/>
-    <mergeCell ref="F878:G878"/>
-    <mergeCell ref="F879:G879"/>
-    <mergeCell ref="F880:G880"/>
-    <mergeCell ref="F881:G881"/>
-    <mergeCell ref="F882:G882"/>
-    <mergeCell ref="F883:G883"/>
-    <mergeCell ref="F884:G884"/>
-    <mergeCell ref="F885:G885"/>
-    <mergeCell ref="F904:G904"/>
-    <mergeCell ref="F905:G905"/>
-    <mergeCell ref="F906:G906"/>
-    <mergeCell ref="F907:G907"/>
-    <mergeCell ref="F908:G908"/>
-    <mergeCell ref="F909:G909"/>
-    <mergeCell ref="F910:G910"/>
-    <mergeCell ref="F911:G911"/>
-    <mergeCell ref="F912:G912"/>
-    <mergeCell ref="F895:G895"/>
-    <mergeCell ref="F896:G896"/>
-    <mergeCell ref="F897:G897"/>
-    <mergeCell ref="F898:G898"/>
-    <mergeCell ref="F899:G899"/>
-    <mergeCell ref="F900:G900"/>
-    <mergeCell ref="F901:G901"/>
-    <mergeCell ref="F902:G902"/>
-    <mergeCell ref="F903:G903"/>
-    <mergeCell ref="F922:G922"/>
-    <mergeCell ref="F923:G923"/>
-    <mergeCell ref="F924:G924"/>
-    <mergeCell ref="F925:G925"/>
-    <mergeCell ref="F926:G926"/>
-    <mergeCell ref="F927:G927"/>
-    <mergeCell ref="F928:G928"/>
-    <mergeCell ref="F929:G929"/>
-    <mergeCell ref="F930:G930"/>
-    <mergeCell ref="F913:G913"/>
-    <mergeCell ref="F914:G914"/>
-    <mergeCell ref="F915:G915"/>
-    <mergeCell ref="F916:G916"/>
-    <mergeCell ref="F917:G917"/>
-    <mergeCell ref="F918:G918"/>
-    <mergeCell ref="F919:G919"/>
-    <mergeCell ref="F920:G920"/>
-    <mergeCell ref="F921:G921"/>
-    <mergeCell ref="F940:G940"/>
-    <mergeCell ref="F941:G941"/>
-    <mergeCell ref="F942:G942"/>
-    <mergeCell ref="F943:G943"/>
-    <mergeCell ref="F944:G944"/>
-    <mergeCell ref="F945:G945"/>
-    <mergeCell ref="F946:G946"/>
-    <mergeCell ref="F947:G947"/>
-    <mergeCell ref="F948:G948"/>
-    <mergeCell ref="F931:G931"/>
-    <mergeCell ref="F932:G932"/>
-    <mergeCell ref="F933:G933"/>
-    <mergeCell ref="F934:G934"/>
-    <mergeCell ref="F935:G935"/>
-    <mergeCell ref="F936:G936"/>
-    <mergeCell ref="F937:G937"/>
-    <mergeCell ref="F938:G938"/>
-    <mergeCell ref="F939:G939"/>
-    <mergeCell ref="F958:G958"/>
-    <mergeCell ref="F959:G959"/>
-    <mergeCell ref="F960:G960"/>
-    <mergeCell ref="F961:G961"/>
-    <mergeCell ref="F962:G962"/>
-    <mergeCell ref="F963:G963"/>
-    <mergeCell ref="F964:G964"/>
-    <mergeCell ref="F965:G965"/>
-    <mergeCell ref="F966:G966"/>
-    <mergeCell ref="F949:G949"/>
-    <mergeCell ref="F950:G950"/>
-    <mergeCell ref="F951:G951"/>
-    <mergeCell ref="F952:G952"/>
-    <mergeCell ref="F953:G953"/>
-    <mergeCell ref="F954:G954"/>
-    <mergeCell ref="F955:G955"/>
-    <mergeCell ref="F956:G956"/>
-    <mergeCell ref="F957:G957"/>
-    <mergeCell ref="F976:G976"/>
-    <mergeCell ref="F977:G977"/>
-    <mergeCell ref="F978:G978"/>
-    <mergeCell ref="F979:G979"/>
-    <mergeCell ref="F980:G980"/>
-    <mergeCell ref="F981:G981"/>
-    <mergeCell ref="F982:G982"/>
-    <mergeCell ref="F983:G983"/>
-    <mergeCell ref="F984:G984"/>
-    <mergeCell ref="F967:G967"/>
-    <mergeCell ref="F968:G968"/>
-    <mergeCell ref="F969:G969"/>
-    <mergeCell ref="F970:G970"/>
-    <mergeCell ref="F971:G971"/>
-    <mergeCell ref="F972:G972"/>
-    <mergeCell ref="F973:G973"/>
-    <mergeCell ref="F974:G974"/>
-    <mergeCell ref="F975:G975"/>
-    <mergeCell ref="F994:G994"/>
-    <mergeCell ref="F995:G995"/>
-    <mergeCell ref="F996:G996"/>
-    <mergeCell ref="F997:G997"/>
-    <mergeCell ref="F998:G998"/>
-    <mergeCell ref="F999:G999"/>
-    <mergeCell ref="F1000:G1000"/>
-    <mergeCell ref="F1001:G1001"/>
-    <mergeCell ref="F1002:G1002"/>
-    <mergeCell ref="F985:G985"/>
-    <mergeCell ref="F986:G986"/>
-    <mergeCell ref="F987:G987"/>
-    <mergeCell ref="F988:G988"/>
-    <mergeCell ref="F989:G989"/>
-    <mergeCell ref="F990:G990"/>
-    <mergeCell ref="F991:G991"/>
-    <mergeCell ref="F992:G992"/>
-    <mergeCell ref="F993:G993"/>
-    <mergeCell ref="F1012:G1012"/>
-    <mergeCell ref="F1013:G1013"/>
-    <mergeCell ref="F1014:G1014"/>
-    <mergeCell ref="F1015:G1015"/>
-    <mergeCell ref="F1016:G1016"/>
-    <mergeCell ref="F1017:G1017"/>
-    <mergeCell ref="F1018:G1018"/>
-    <mergeCell ref="F1019:G1019"/>
-    <mergeCell ref="F1020:G1020"/>
-    <mergeCell ref="F1003:G1003"/>
-    <mergeCell ref="F1004:G1004"/>
-    <mergeCell ref="F1005:G1005"/>
-    <mergeCell ref="F1006:G1006"/>
-    <mergeCell ref="F1007:G1007"/>
-    <mergeCell ref="F1008:G1008"/>
-    <mergeCell ref="F1009:G1009"/>
-    <mergeCell ref="F1010:G1010"/>
-    <mergeCell ref="F1011:G1011"/>
-    <mergeCell ref="F1030:G1030"/>
-    <mergeCell ref="F1031:G1031"/>
-    <mergeCell ref="F1032:G1032"/>
-    <mergeCell ref="F1033:G1033"/>
-    <mergeCell ref="F1034:G1034"/>
-    <mergeCell ref="F1035:G1035"/>
-    <mergeCell ref="F1036:G1036"/>
-    <mergeCell ref="F1037:G1037"/>
-    <mergeCell ref="F1038:G1038"/>
-    <mergeCell ref="F1021:G1021"/>
-    <mergeCell ref="F1022:G1022"/>
-    <mergeCell ref="F1023:G1023"/>
-    <mergeCell ref="F1024:G1024"/>
-    <mergeCell ref="F1025:G1025"/>
-    <mergeCell ref="F1026:G1026"/>
-    <mergeCell ref="F1027:G1027"/>
-    <mergeCell ref="F1028:G1028"/>
-    <mergeCell ref="F1029:G1029"/>
-    <mergeCell ref="F1048:G1048"/>
-    <mergeCell ref="F1049:G1049"/>
-    <mergeCell ref="F1050:G1050"/>
-    <mergeCell ref="F1051:G1051"/>
-    <mergeCell ref="F1052:G1052"/>
-    <mergeCell ref="F1053:G1053"/>
-    <mergeCell ref="F1054:G1054"/>
-    <mergeCell ref="F1055:G1055"/>
-    <mergeCell ref="F1056:G1056"/>
-    <mergeCell ref="F1039:G1039"/>
-    <mergeCell ref="F1040:G1040"/>
-    <mergeCell ref="F1041:G1041"/>
-    <mergeCell ref="F1042:G1042"/>
-    <mergeCell ref="F1043:G1043"/>
-    <mergeCell ref="F1044:G1044"/>
-    <mergeCell ref="F1045:G1045"/>
-    <mergeCell ref="F1046:G1046"/>
-    <mergeCell ref="F1047:G1047"/>
-    <mergeCell ref="F1066:G1066"/>
-    <mergeCell ref="F1067:G1067"/>
-    <mergeCell ref="F1068:G1068"/>
-    <mergeCell ref="F1069:G1069"/>
-    <mergeCell ref="F1070:G1070"/>
-    <mergeCell ref="F1071:G1071"/>
-    <mergeCell ref="F1072:G1072"/>
-    <mergeCell ref="F1073:G1073"/>
-    <mergeCell ref="F1074:G1074"/>
-    <mergeCell ref="F1057:G1057"/>
-    <mergeCell ref="F1058:G1058"/>
-    <mergeCell ref="F1059:G1059"/>
-    <mergeCell ref="F1060:G1060"/>
-    <mergeCell ref="F1061:G1061"/>
-    <mergeCell ref="F1062:G1062"/>
-    <mergeCell ref="F1063:G1063"/>
-    <mergeCell ref="F1064:G1064"/>
-    <mergeCell ref="F1065:G1065"/>
-    <mergeCell ref="F1084:G1084"/>
-    <mergeCell ref="F1085:G1085"/>
-    <mergeCell ref="F1086:G1086"/>
-    <mergeCell ref="F1087:G1087"/>
-    <mergeCell ref="F1088:G1088"/>
-    <mergeCell ref="F1089:G1089"/>
-    <mergeCell ref="F1090:G1090"/>
-    <mergeCell ref="F1091:G1091"/>
-    <mergeCell ref="F1092:G1092"/>
-    <mergeCell ref="F1075:G1075"/>
-    <mergeCell ref="F1076:G1076"/>
-    <mergeCell ref="F1077:G1077"/>
-    <mergeCell ref="F1078:G1078"/>
-    <mergeCell ref="F1079:G1079"/>
-    <mergeCell ref="F1080:G1080"/>
-    <mergeCell ref="F1081:G1081"/>
-    <mergeCell ref="F1082:G1082"/>
-    <mergeCell ref="F1083:G1083"/>
-    <mergeCell ref="F1102:G1102"/>
-    <mergeCell ref="F1103:G1103"/>
-    <mergeCell ref="F1104:G1104"/>
-    <mergeCell ref="F1105:G1105"/>
-    <mergeCell ref="F1106:G1106"/>
-    <mergeCell ref="F1107:G1107"/>
-    <mergeCell ref="F1108:G1108"/>
-    <mergeCell ref="F1109:G1109"/>
-    <mergeCell ref="F1110:G1110"/>
-    <mergeCell ref="F1093:G1093"/>
-    <mergeCell ref="F1094:G1094"/>
-    <mergeCell ref="F1095:G1095"/>
-    <mergeCell ref="F1096:G1096"/>
-    <mergeCell ref="F1097:G1097"/>
-    <mergeCell ref="F1098:G1098"/>
-    <mergeCell ref="F1099:G1099"/>
-    <mergeCell ref="F1100:G1100"/>
-    <mergeCell ref="F1101:G1101"/>
-    <mergeCell ref="F1120:G1120"/>
-    <mergeCell ref="F1121:G1121"/>
-    <mergeCell ref="F1122:G1122"/>
-    <mergeCell ref="F1123:G1123"/>
-    <mergeCell ref="F1124:G1124"/>
-    <mergeCell ref="F1125:G1125"/>
-    <mergeCell ref="F1126:G1126"/>
-    <mergeCell ref="F1127:G1127"/>
-    <mergeCell ref="F1128:G1128"/>
-    <mergeCell ref="F1111:G1111"/>
-    <mergeCell ref="F1112:G1112"/>
-    <mergeCell ref="F1113:G1113"/>
-    <mergeCell ref="F1114:G1114"/>
-    <mergeCell ref="F1115:G1115"/>
-    <mergeCell ref="F1116:G1116"/>
-    <mergeCell ref="F1117:G1117"/>
-    <mergeCell ref="F1118:G1118"/>
-    <mergeCell ref="F1119:G1119"/>
-    <mergeCell ref="F1138:G1138"/>
-    <mergeCell ref="F1139:G1139"/>
-    <mergeCell ref="F1140:G1140"/>
-    <mergeCell ref="F1141:G1141"/>
-    <mergeCell ref="F1142:G1142"/>
-    <mergeCell ref="F1143:G1143"/>
-    <mergeCell ref="F1144:G1144"/>
-    <mergeCell ref="F1145:G1145"/>
-    <mergeCell ref="F1146:G1146"/>
-    <mergeCell ref="F1129:G1129"/>
-    <mergeCell ref="F1130:G1130"/>
-    <mergeCell ref="F1131:G1131"/>
-    <mergeCell ref="F1132:G1132"/>
-    <mergeCell ref="F1133:G1133"/>
-    <mergeCell ref="F1134:G1134"/>
-    <mergeCell ref="F1135:G1135"/>
-    <mergeCell ref="F1136:G1136"/>
-    <mergeCell ref="F1137:G1137"/>
-    <mergeCell ref="F1156:G1156"/>
-    <mergeCell ref="F1157:G1157"/>
-    <mergeCell ref="F1158:G1158"/>
-    <mergeCell ref="F1159:G1159"/>
-    <mergeCell ref="F1160:G1160"/>
-    <mergeCell ref="F1161:G1161"/>
-    <mergeCell ref="F1162:G1162"/>
-    <mergeCell ref="F1163:G1163"/>
-    <mergeCell ref="F1164:G1164"/>
-    <mergeCell ref="F1147:G1147"/>
-    <mergeCell ref="F1148:G1148"/>
-    <mergeCell ref="F1149:G1149"/>
-    <mergeCell ref="F1150:G1150"/>
-    <mergeCell ref="F1151:G1151"/>
-    <mergeCell ref="F1152:G1152"/>
-    <mergeCell ref="F1153:G1153"/>
-    <mergeCell ref="F1154:G1154"/>
-    <mergeCell ref="F1155:G1155"/>
-    <mergeCell ref="F1174:G1174"/>
-    <mergeCell ref="F1175:G1175"/>
-    <mergeCell ref="F1176:G1176"/>
-    <mergeCell ref="F1177:G1177"/>
-    <mergeCell ref="F1178:G1178"/>
-    <mergeCell ref="F1179:G1179"/>
-    <mergeCell ref="F1180:G1180"/>
-    <mergeCell ref="F1181:G1181"/>
-    <mergeCell ref="F1182:G1182"/>
-    <mergeCell ref="F1165:G1165"/>
-    <mergeCell ref="F1166:G1166"/>
-    <mergeCell ref="F1167:G1167"/>
-    <mergeCell ref="F1168:G1168"/>
-    <mergeCell ref="F1169:G1169"/>
-    <mergeCell ref="F1170:G1170"/>
-    <mergeCell ref="F1171:G1171"/>
-    <mergeCell ref="F1172:G1172"/>
-    <mergeCell ref="F1173:G1173"/>
-    <mergeCell ref="F1192:G1192"/>
-    <mergeCell ref="F1193:G1193"/>
-    <mergeCell ref="F1194:G1194"/>
-    <mergeCell ref="F1195:G1195"/>
-    <mergeCell ref="F1196:G1196"/>
-    <mergeCell ref="F1197:G1197"/>
-    <mergeCell ref="F1198:G1198"/>
-    <mergeCell ref="F1199:G1199"/>
-    <mergeCell ref="F1200:G1200"/>
-    <mergeCell ref="F1183:G1183"/>
-    <mergeCell ref="F1184:G1184"/>
-    <mergeCell ref="F1185:G1185"/>
-    <mergeCell ref="F1186:G1186"/>
-    <mergeCell ref="F1187:G1187"/>
-    <mergeCell ref="F1188:G1188"/>
-    <mergeCell ref="F1189:G1189"/>
-    <mergeCell ref="F1190:G1190"/>
-    <mergeCell ref="F1191:G1191"/>
-    <mergeCell ref="F1210:G1210"/>
-    <mergeCell ref="F1211:G1211"/>
-    <mergeCell ref="F1212:G1212"/>
-    <mergeCell ref="F1213:G1213"/>
-    <mergeCell ref="F1214:G1214"/>
-    <mergeCell ref="F1215:G1215"/>
-    <mergeCell ref="F1216:G1216"/>
-    <mergeCell ref="F1217:G1217"/>
-    <mergeCell ref="F1218:G1218"/>
-    <mergeCell ref="F1201:G1201"/>
-    <mergeCell ref="F1202:G1202"/>
-    <mergeCell ref="F1203:G1203"/>
-    <mergeCell ref="F1204:G1204"/>
-    <mergeCell ref="F1205:G1205"/>
-    <mergeCell ref="F1206:G1206"/>
-    <mergeCell ref="F1207:G1207"/>
-    <mergeCell ref="F1208:G1208"/>
-    <mergeCell ref="F1209:G1209"/>
-    <mergeCell ref="F1228:G1228"/>
-    <mergeCell ref="F1229:G1229"/>
-    <mergeCell ref="F1230:G1230"/>
-    <mergeCell ref="F1231:G1231"/>
-    <mergeCell ref="F1232:G1232"/>
-    <mergeCell ref="F1233:G1233"/>
-    <mergeCell ref="F1234:G1234"/>
-    <mergeCell ref="F1235:G1235"/>
-    <mergeCell ref="F1236:G1236"/>
-    <mergeCell ref="F1219:G1219"/>
-    <mergeCell ref="F1220:G1220"/>
-    <mergeCell ref="F1221:G1221"/>
-    <mergeCell ref="F1222:G1222"/>
-    <mergeCell ref="F1223:G1223"/>
-    <mergeCell ref="F1224:G1224"/>
-    <mergeCell ref="F1225:G1225"/>
-    <mergeCell ref="F1226:G1226"/>
-    <mergeCell ref="F1227:G1227"/>
-    <mergeCell ref="F1246:G1246"/>
-    <mergeCell ref="F1247:G1247"/>
-    <mergeCell ref="F1248:G1248"/>
-    <mergeCell ref="F1249:G1249"/>
-    <mergeCell ref="F1250:G1250"/>
-    <mergeCell ref="F1251:G1251"/>
-    <mergeCell ref="F1252:G1252"/>
-    <mergeCell ref="F1253:G1253"/>
-    <mergeCell ref="F1254:G1254"/>
-    <mergeCell ref="F1237:G1237"/>
-    <mergeCell ref="F1238:G1238"/>
-    <mergeCell ref="F1239:G1239"/>
-    <mergeCell ref="F1240:G1240"/>
-    <mergeCell ref="F1241:G1241"/>
-    <mergeCell ref="F1242:G1242"/>
-    <mergeCell ref="F1243:G1243"/>
-    <mergeCell ref="F1244:G1244"/>
-    <mergeCell ref="F1245:G1245"/>
-    <mergeCell ref="F1264:G1264"/>
-    <mergeCell ref="F1265:G1265"/>
-    <mergeCell ref="F1266:G1266"/>
-    <mergeCell ref="F1267:G1267"/>
-    <mergeCell ref="F1268:G1268"/>
-    <mergeCell ref="F1269:G1269"/>
-    <mergeCell ref="F1270:G1270"/>
-    <mergeCell ref="F1271:G1271"/>
-    <mergeCell ref="F1272:G1272"/>
-    <mergeCell ref="F1255:G1255"/>
-    <mergeCell ref="F1256:G1256"/>
-    <mergeCell ref="F1257:G1257"/>
-    <mergeCell ref="F1258:G1258"/>
-    <mergeCell ref="F1259:G1259"/>
-    <mergeCell ref="F1260:G1260"/>
-    <mergeCell ref="F1261:G1261"/>
-    <mergeCell ref="F1262:G1262"/>
-    <mergeCell ref="F1263:G1263"/>
-    <mergeCell ref="F1282:G1282"/>
-    <mergeCell ref="F1283:G1283"/>
-    <mergeCell ref="F1284:G1284"/>
-    <mergeCell ref="F1285:G1285"/>
-    <mergeCell ref="F1286:G1286"/>
-    <mergeCell ref="F1287:G1287"/>
-    <mergeCell ref="F1288:G1288"/>
-    <mergeCell ref="F1289:G1289"/>
-    <mergeCell ref="F1290:G1290"/>
-    <mergeCell ref="F1273:G1273"/>
-    <mergeCell ref="F1274:G1274"/>
-    <mergeCell ref="F1275:G1275"/>
-    <mergeCell ref="F1276:G1276"/>
-    <mergeCell ref="F1277:G1277"/>
-    <mergeCell ref="F1278:G1278"/>
-    <mergeCell ref="F1279:G1279"/>
-    <mergeCell ref="F1280:G1280"/>
-    <mergeCell ref="F1281:G1281"/>
-    <mergeCell ref="F1300:G1300"/>
-    <mergeCell ref="F1301:G1301"/>
-    <mergeCell ref="F1302:G1302"/>
-    <mergeCell ref="F1303:G1303"/>
-    <mergeCell ref="F1304:G1304"/>
-    <mergeCell ref="F1305:G1305"/>
-    <mergeCell ref="F1306:G1306"/>
-    <mergeCell ref="F1307:G1307"/>
-    <mergeCell ref="F1308:G1308"/>
-    <mergeCell ref="F1291:G1291"/>
-    <mergeCell ref="F1292:G1292"/>
-    <mergeCell ref="F1293:G1293"/>
-    <mergeCell ref="F1294:G1294"/>
-    <mergeCell ref="F1295:G1295"/>
-    <mergeCell ref="F1296:G1296"/>
-    <mergeCell ref="F1297:G1297"/>
-    <mergeCell ref="F1298:G1298"/>
-    <mergeCell ref="F1299:G1299"/>
-    <mergeCell ref="F1318:G1318"/>
-    <mergeCell ref="F1319:G1319"/>
-    <mergeCell ref="F1320:G1320"/>
-    <mergeCell ref="F1321:G1321"/>
-    <mergeCell ref="F1322:G1322"/>
-    <mergeCell ref="F1323:G1323"/>
-    <mergeCell ref="F1324:G1324"/>
-    <mergeCell ref="F1325:G1325"/>
-    <mergeCell ref="F1326:G1326"/>
-    <mergeCell ref="F1309:G1309"/>
-    <mergeCell ref="F1310:G1310"/>
-    <mergeCell ref="F1311:G1311"/>
-    <mergeCell ref="F1312:G1312"/>
-    <mergeCell ref="F1313:G1313"/>
-    <mergeCell ref="F1314:G1314"/>
-    <mergeCell ref="F1315:G1315"/>
-    <mergeCell ref="F1316:G1316"/>
-    <mergeCell ref="F1317:G1317"/>
-    <mergeCell ref="F1336:G1336"/>
-    <mergeCell ref="F1337:G1337"/>
-    <mergeCell ref="F1338:G1338"/>
-    <mergeCell ref="F1339:G1339"/>
-    <mergeCell ref="F1340:G1340"/>
-    <mergeCell ref="F1341:G1341"/>
-    <mergeCell ref="F1342:G1342"/>
-    <mergeCell ref="F1343:G1343"/>
-    <mergeCell ref="F1344:G1344"/>
-    <mergeCell ref="F1327:G1327"/>
-    <mergeCell ref="F1328:G1328"/>
-    <mergeCell ref="F1329:G1329"/>
-    <mergeCell ref="F1330:G1330"/>
-    <mergeCell ref="F1331:G1331"/>
-    <mergeCell ref="F1332:G1332"/>
-    <mergeCell ref="F1333:G1333"/>
-    <mergeCell ref="F1334:G1334"/>
-    <mergeCell ref="F1335:G1335"/>
-    <mergeCell ref="F1354:G1354"/>
-    <mergeCell ref="F1355:G1355"/>
-    <mergeCell ref="F1356:G1356"/>
-    <mergeCell ref="F1357:G1357"/>
-    <mergeCell ref="F1358:G1358"/>
-    <mergeCell ref="F1359:G1359"/>
-    <mergeCell ref="F1360:G1360"/>
-    <mergeCell ref="F1361:G1361"/>
-    <mergeCell ref="F1362:G1362"/>
-    <mergeCell ref="F1345:G1345"/>
-    <mergeCell ref="F1346:G1346"/>
-    <mergeCell ref="F1347:G1347"/>
-    <mergeCell ref="F1348:G1348"/>
-    <mergeCell ref="F1349:G1349"/>
-    <mergeCell ref="F1350:G1350"/>
-    <mergeCell ref="F1351:G1351"/>
-    <mergeCell ref="F1352:G1352"/>
-    <mergeCell ref="F1353:G1353"/>
-    <mergeCell ref="F1372:G1372"/>
-    <mergeCell ref="F1373:G1373"/>
-    <mergeCell ref="F1374:G1374"/>
-    <mergeCell ref="F1375:G1375"/>
-    <mergeCell ref="F1376:G1376"/>
-    <mergeCell ref="F1377:G1377"/>
-    <mergeCell ref="F1378:G1378"/>
-    <mergeCell ref="F1379:G1379"/>
-    <mergeCell ref="F1380:G1380"/>
-    <mergeCell ref="F1363:G1363"/>
-    <mergeCell ref="F1364:G1364"/>
-    <mergeCell ref="F1365:G1365"/>
-    <mergeCell ref="F1366:G1366"/>
-    <mergeCell ref="F1367:G1367"/>
-    <mergeCell ref="F1368:G1368"/>
-    <mergeCell ref="F1369:G1369"/>
-    <mergeCell ref="F1370:G1370"/>
-    <mergeCell ref="F1371:G1371"/>
-    <mergeCell ref="F1390:G1390"/>
-    <mergeCell ref="F1391:G1391"/>
-    <mergeCell ref="F1392:G1392"/>
-    <mergeCell ref="F1393:G1393"/>
-    <mergeCell ref="F1394:G1394"/>
-    <mergeCell ref="F1395:G1395"/>
-    <mergeCell ref="F1396:G1396"/>
-    <mergeCell ref="F1397:G1397"/>
-    <mergeCell ref="F1398:G1398"/>
-    <mergeCell ref="F1381:G1381"/>
-    <mergeCell ref="F1382:G1382"/>
-    <mergeCell ref="F1383:G1383"/>
-    <mergeCell ref="F1384:G1384"/>
-    <mergeCell ref="F1385:G1385"/>
-    <mergeCell ref="F1386:G1386"/>
-    <mergeCell ref="F1387:G1387"/>
-    <mergeCell ref="F1388:G1388"/>
-    <mergeCell ref="F1389:G1389"/>
-    <mergeCell ref="F1408:G1408"/>
-    <mergeCell ref="F1409:G1409"/>
-    <mergeCell ref="F1410:G1410"/>
-    <mergeCell ref="F1411:G1411"/>
-    <mergeCell ref="F1412:G1412"/>
-    <mergeCell ref="F1413:G1413"/>
-    <mergeCell ref="F1414:G1414"/>
-    <mergeCell ref="F1415:G1415"/>
-    <mergeCell ref="F1416:G1416"/>
-    <mergeCell ref="F1399:G1399"/>
-    <mergeCell ref="F1400:G1400"/>
-    <mergeCell ref="F1401:G1401"/>
-    <mergeCell ref="F1402:G1402"/>
-    <mergeCell ref="F1403:G1403"/>
-    <mergeCell ref="F1404:G1404"/>
-    <mergeCell ref="F1405:G1405"/>
-    <mergeCell ref="F1406:G1406"/>
-    <mergeCell ref="F1407:G1407"/>
-    <mergeCell ref="F1426:G1426"/>
-    <mergeCell ref="F1427:G1427"/>
-    <mergeCell ref="F1428:G1428"/>
-    <mergeCell ref="F1429:G1429"/>
-    <mergeCell ref="F1430:G1430"/>
-    <mergeCell ref="F1431:G1431"/>
-    <mergeCell ref="F1432:G1432"/>
-    <mergeCell ref="F1433:G1433"/>
-    <mergeCell ref="F1434:G1434"/>
-    <mergeCell ref="F1417:G1417"/>
-    <mergeCell ref="F1418:G1418"/>
-    <mergeCell ref="F1419:G1419"/>
-    <mergeCell ref="F1420:G1420"/>
-    <mergeCell ref="F1421:G1421"/>
-    <mergeCell ref="F1422:G1422"/>
-    <mergeCell ref="F1423:G1423"/>
-    <mergeCell ref="F1424:G1424"/>
-    <mergeCell ref="F1425:G1425"/>
-    <mergeCell ref="F1444:G1444"/>
-    <mergeCell ref="F1445:G1445"/>
-    <mergeCell ref="F1446:G1446"/>
-    <mergeCell ref="F1447:G1447"/>
-    <mergeCell ref="F1448:G1448"/>
-    <mergeCell ref="F1449:G1449"/>
-    <mergeCell ref="F1450:G1450"/>
-    <mergeCell ref="F1451:G1451"/>
-    <mergeCell ref="F1452:G1452"/>
-    <mergeCell ref="F1435:G1435"/>
-    <mergeCell ref="F1436:G1436"/>
-    <mergeCell ref="F1437:G1437"/>
-    <mergeCell ref="F1438:G1438"/>
-    <mergeCell ref="F1439:G1439"/>
-    <mergeCell ref="F1440:G1440"/>
-    <mergeCell ref="F1441:G1441"/>
-    <mergeCell ref="F1442:G1442"/>
-    <mergeCell ref="F1443:G1443"/>
-    <mergeCell ref="F1462:G1462"/>
-    <mergeCell ref="F1463:G1463"/>
-    <mergeCell ref="F1464:G1464"/>
-    <mergeCell ref="F1465:G1465"/>
-    <mergeCell ref="F1466:G1466"/>
-    <mergeCell ref="F1467:G1467"/>
-    <mergeCell ref="F1468:G1468"/>
-    <mergeCell ref="F1469:G1469"/>
-    <mergeCell ref="F1470:G1470"/>
-    <mergeCell ref="F1453:G1453"/>
-    <mergeCell ref="F1454:G1454"/>
-    <mergeCell ref="F1455:G1455"/>
-    <mergeCell ref="F1456:G1456"/>
-    <mergeCell ref="F1457:G1457"/>
-    <mergeCell ref="F1458:G1458"/>
-    <mergeCell ref="F1459:G1459"/>
-    <mergeCell ref="F1460:G1460"/>
-    <mergeCell ref="F1461:G1461"/>
-    <mergeCell ref="F1480:G1480"/>
-    <mergeCell ref="F1481:G1481"/>
-    <mergeCell ref="F1482:G1482"/>
-    <mergeCell ref="F1483:G1483"/>
-    <mergeCell ref="F1484:G1484"/>
-    <mergeCell ref="F1485:G1485"/>
-    <mergeCell ref="F1486:G1486"/>
-    <mergeCell ref="F1487:G1487"/>
-    <mergeCell ref="F1488:G1488"/>
-    <mergeCell ref="F1471:G1471"/>
-    <mergeCell ref="F1472:G1472"/>
-    <mergeCell ref="F1473:G1473"/>
-    <mergeCell ref="F1474:G1474"/>
-    <mergeCell ref="F1475:G1475"/>
-    <mergeCell ref="F1476:G1476"/>
-    <mergeCell ref="F1477:G1477"/>
-    <mergeCell ref="F1478:G1478"/>
-    <mergeCell ref="F1479:G1479"/>
-    <mergeCell ref="F1498:G1498"/>
-    <mergeCell ref="F1499:G1499"/>
-    <mergeCell ref="F1500:G1500"/>
-    <mergeCell ref="F1501:G1501"/>
-    <mergeCell ref="F1502:G1502"/>
-    <mergeCell ref="F1503:G1503"/>
-    <mergeCell ref="F1504:G1504"/>
-    <mergeCell ref="F1505:G1505"/>
-    <mergeCell ref="F1506:G1506"/>
-    <mergeCell ref="F1489:G1489"/>
-    <mergeCell ref="F1490:G1490"/>
-    <mergeCell ref="F1491:G1491"/>
-    <mergeCell ref="F1492:G1492"/>
-    <mergeCell ref="F1493:G1493"/>
-    <mergeCell ref="F1494:G1494"/>
-    <mergeCell ref="F1495:G1495"/>
-    <mergeCell ref="F1496:G1496"/>
-    <mergeCell ref="F1497:G1497"/>
-    <mergeCell ref="F1516:G1516"/>
-    <mergeCell ref="F1517:G1517"/>
-    <mergeCell ref="F1518:G1518"/>
-    <mergeCell ref="F1519:G1519"/>
-    <mergeCell ref="F1520:G1520"/>
-    <mergeCell ref="F1521:G1521"/>
-    <mergeCell ref="F1522:G1522"/>
-    <mergeCell ref="F1523:G1523"/>
-    <mergeCell ref="F1524:G1524"/>
-    <mergeCell ref="F1507:G1507"/>
-    <mergeCell ref="F1508:G1508"/>
-    <mergeCell ref="F1509:G1509"/>
-    <mergeCell ref="F1510:G1510"/>
-    <mergeCell ref="F1511:G1511"/>
-    <mergeCell ref="F1512:G1512"/>
-    <mergeCell ref="F1513:G1513"/>
-    <mergeCell ref="F1514:G1514"/>
-    <mergeCell ref="F1515:G1515"/>
-    <mergeCell ref="F1534:G1534"/>
-    <mergeCell ref="F1535:G1535"/>
-    <mergeCell ref="F1536:G1536"/>
-    <mergeCell ref="F1537:G1537"/>
-    <mergeCell ref="F1538:G1538"/>
-    <mergeCell ref="F1539:G1539"/>
-    <mergeCell ref="F1540:G1540"/>
-    <mergeCell ref="F1541:G1541"/>
-    <mergeCell ref="F1542:G1542"/>
-    <mergeCell ref="F1525:G1525"/>
-    <mergeCell ref="F1526:G1526"/>
-    <mergeCell ref="F1527:G1527"/>
-    <mergeCell ref="F1528:G1528"/>
-    <mergeCell ref="F1529:G1529"/>
-    <mergeCell ref="F1530:G1530"/>
-    <mergeCell ref="F1531:G1531"/>
-    <mergeCell ref="F1532:G1532"/>
-    <mergeCell ref="F1533:G1533"/>
-    <mergeCell ref="F1552:G1552"/>
-    <mergeCell ref="F1553:G1553"/>
-    <mergeCell ref="F1554:G1554"/>
-    <mergeCell ref="F1555:G1555"/>
-    <mergeCell ref="F1556:G1556"/>
-    <mergeCell ref="F1557:G1557"/>
-    <mergeCell ref="F1558:G1558"/>
-    <mergeCell ref="F1559:G1559"/>
-    <mergeCell ref="F1560:G1560"/>
-    <mergeCell ref="F1543:G1543"/>
-    <mergeCell ref="F1544:G1544"/>
-    <mergeCell ref="F1545:G1545"/>
-    <mergeCell ref="F1546:G1546"/>
-    <mergeCell ref="F1547:G1547"/>
-    <mergeCell ref="F1548:G1548"/>
-    <mergeCell ref="F1549:G1549"/>
-    <mergeCell ref="F1550:G1550"/>
-    <mergeCell ref="F1551:G1551"/>
-    <mergeCell ref="F1570:G1570"/>
-    <mergeCell ref="F1571:G1571"/>
-    <mergeCell ref="F1572:G1572"/>
-    <mergeCell ref="F1573:G1573"/>
-    <mergeCell ref="F1574:G1574"/>
-    <mergeCell ref="F1575:G1575"/>
-    <mergeCell ref="F1576:G1576"/>
-    <mergeCell ref="F1577:G1577"/>
-    <mergeCell ref="F1578:G1578"/>
-    <mergeCell ref="F1561:G1561"/>
-    <mergeCell ref="F1562:G1562"/>
-    <mergeCell ref="F1563:G1563"/>
-    <mergeCell ref="F1564:G1564"/>
-    <mergeCell ref="F1565:G1565"/>
-    <mergeCell ref="F1566:G1566"/>
-    <mergeCell ref="F1567:G1567"/>
-    <mergeCell ref="F1568:G1568"/>
-    <mergeCell ref="F1569:G1569"/>
-    <mergeCell ref="F1588:G1588"/>
-    <mergeCell ref="F1589:G1589"/>
-    <mergeCell ref="F1590:G1590"/>
-    <mergeCell ref="F1591:G1591"/>
-    <mergeCell ref="F1592:G1592"/>
-    <mergeCell ref="F1593:G1593"/>
-    <mergeCell ref="F1594:G1594"/>
-    <mergeCell ref="F1595:G1595"/>
-    <mergeCell ref="F1596:G1596"/>
-    <mergeCell ref="F1579:G1579"/>
-    <mergeCell ref="F1580:G1580"/>
-    <mergeCell ref="F1581:G1581"/>
-    <mergeCell ref="F1582:G1582"/>
-    <mergeCell ref="F1583:G1583"/>
-    <mergeCell ref="F1584:G1584"/>
-    <mergeCell ref="F1585:G1585"/>
-    <mergeCell ref="F1586:G1586"/>
-    <mergeCell ref="F1587:G1587"/>
-    <mergeCell ref="F1606:G1606"/>
-    <mergeCell ref="F1607:G1607"/>
-    <mergeCell ref="F1608:G1608"/>
-    <mergeCell ref="F1609:G1609"/>
-    <mergeCell ref="F1610:G1610"/>
-    <mergeCell ref="F1611:G1611"/>
-    <mergeCell ref="F1612:G1612"/>
-    <mergeCell ref="F1613:G1613"/>
-    <mergeCell ref="F1614:G1614"/>
-    <mergeCell ref="F1597:G1597"/>
-    <mergeCell ref="F1598:G1598"/>
-    <mergeCell ref="F1599:G1599"/>
-    <mergeCell ref="F1600:G1600"/>
-    <mergeCell ref="F1601:G1601"/>
-    <mergeCell ref="F1602:G1602"/>
-    <mergeCell ref="F1603:G1603"/>
-    <mergeCell ref="F1604:G1604"/>
-    <mergeCell ref="F1605:G1605"/>
-    <mergeCell ref="F1624:G1624"/>
-    <mergeCell ref="F1625:G1625"/>
-    <mergeCell ref="F1626:G1626"/>
-    <mergeCell ref="F1627:G1627"/>
-    <mergeCell ref="F1628:G1628"/>
-    <mergeCell ref="F1629:G1629"/>
-    <mergeCell ref="F1630:G1630"/>
-    <mergeCell ref="F1631:G1631"/>
-    <mergeCell ref="F1632:G1632"/>
-    <mergeCell ref="F1615:G1615"/>
-    <mergeCell ref="F1616:G1616"/>
-    <mergeCell ref="F1617:G1617"/>
-    <mergeCell ref="F1618:G1618"/>
-    <mergeCell ref="F1619:G1619"/>
-    <mergeCell ref="F1620:G1620"/>
-    <mergeCell ref="F1621:G1621"/>
-    <mergeCell ref="F1622:G1622"/>
-    <mergeCell ref="F1623:G1623"/>
-    <mergeCell ref="F1642:G1642"/>
-    <mergeCell ref="F1643:G1643"/>
-    <mergeCell ref="F1644:G1644"/>
-    <mergeCell ref="F1645:G1645"/>
-    <mergeCell ref="F1646:G1646"/>
-    <mergeCell ref="F1647:G1647"/>
-    <mergeCell ref="F1648:G1648"/>
-    <mergeCell ref="F1649:G1649"/>
-    <mergeCell ref="F1650:G1650"/>
-    <mergeCell ref="F1633:G1633"/>
-    <mergeCell ref="F1634:G1634"/>
-    <mergeCell ref="F1635:G1635"/>
-    <mergeCell ref="F1636:G1636"/>
-    <mergeCell ref="F1637:G1637"/>
-    <mergeCell ref="F1638:G1638"/>
-    <mergeCell ref="F1639:G1639"/>
-    <mergeCell ref="F1640:G1640"/>
-    <mergeCell ref="F1641:G1641"/>
-    <mergeCell ref="F1660:G1660"/>
-    <mergeCell ref="F1661:G1661"/>
-    <mergeCell ref="F1662:G1662"/>
-    <mergeCell ref="F1663:G1663"/>
-    <mergeCell ref="F1664:G1664"/>
-    <mergeCell ref="F1665:G1665"/>
-    <mergeCell ref="F1666:G1666"/>
-    <mergeCell ref="F1667:G1667"/>
-    <mergeCell ref="F1668:G1668"/>
-    <mergeCell ref="F1651:G1651"/>
-    <mergeCell ref="F1652:G1652"/>
-    <mergeCell ref="F1653:G1653"/>
-    <mergeCell ref="F1654:G1654"/>
-    <mergeCell ref="F1655:G1655"/>
-    <mergeCell ref="F1656:G1656"/>
-    <mergeCell ref="F1657:G1657"/>
-    <mergeCell ref="F1658:G1658"/>
-    <mergeCell ref="F1659:G1659"/>
-    <mergeCell ref="F1678:G1678"/>
-    <mergeCell ref="F1679:G1679"/>
-    <mergeCell ref="F1680:G1680"/>
-    <mergeCell ref="F1681:G1681"/>
-    <mergeCell ref="F1682:G1682"/>
-    <mergeCell ref="F1683:G1683"/>
-    <mergeCell ref="F1684:G1684"/>
-    <mergeCell ref="F1685:G1685"/>
-    <mergeCell ref="F1686:G1686"/>
-    <mergeCell ref="F1669:G1669"/>
-    <mergeCell ref="F1670:G1670"/>
-    <mergeCell ref="F1671:G1671"/>
-    <mergeCell ref="F1672:G1672"/>
-    <mergeCell ref="F1673:G1673"/>
-    <mergeCell ref="F1674:G1674"/>
-    <mergeCell ref="F1675:G1675"/>
-    <mergeCell ref="F1676:G1676"/>
-    <mergeCell ref="F1677:G1677"/>
-    <mergeCell ref="F1696:G1696"/>
-    <mergeCell ref="F1697:G1697"/>
-    <mergeCell ref="F1698:G1698"/>
-    <mergeCell ref="F1699:G1699"/>
-    <mergeCell ref="F1700:G1700"/>
-    <mergeCell ref="F1701:G1701"/>
-    <mergeCell ref="F1702:G1702"/>
-    <mergeCell ref="F1703:G1703"/>
-    <mergeCell ref="F1704:G1704"/>
-    <mergeCell ref="F1687:G1687"/>
-    <mergeCell ref="F1688:G1688"/>
-    <mergeCell ref="F1689:G1689"/>
-    <mergeCell ref="F1690:G1690"/>
-    <mergeCell ref="F1691:G1691"/>
-    <mergeCell ref="F1692:G1692"/>
-    <mergeCell ref="F1693:G1693"/>
-    <mergeCell ref="F1694:G1694"/>
-    <mergeCell ref="F1695:G1695"/>
-    <mergeCell ref="F1714:G1714"/>
-    <mergeCell ref="F1715:G1715"/>
-    <mergeCell ref="F1716:G1716"/>
-    <mergeCell ref="F1717:G1717"/>
-    <mergeCell ref="F1718:G1718"/>
-    <mergeCell ref="F1719:G1719"/>
-    <mergeCell ref="F1720:G1720"/>
-    <mergeCell ref="F1721:G1721"/>
-    <mergeCell ref="F1722:G1722"/>
-    <mergeCell ref="F1705:G1705"/>
-    <mergeCell ref="F1706:G1706"/>
-    <mergeCell ref="F1707:G1707"/>
-    <mergeCell ref="F1708:G1708"/>
-    <mergeCell ref="F1709:G1709"/>
-    <mergeCell ref="F1710:G1710"/>
-    <mergeCell ref="F1711:G1711"/>
-    <mergeCell ref="F1712:G1712"/>
-    <mergeCell ref="F1713:G1713"/>
-    <mergeCell ref="F1732:G1732"/>
-    <mergeCell ref="F1733:G1733"/>
-    <mergeCell ref="F1734:G1734"/>
-    <mergeCell ref="F1735:G1735"/>
-    <mergeCell ref="F1736:G1736"/>
-    <mergeCell ref="F1737:G1737"/>
-    <mergeCell ref="F1738:G1738"/>
-    <mergeCell ref="F1739:G1739"/>
-    <mergeCell ref="F1740:G1740"/>
-    <mergeCell ref="F1723:G1723"/>
-    <mergeCell ref="F1724:G1724"/>
-    <mergeCell ref="F1725:G1725"/>
-    <mergeCell ref="F1726:G1726"/>
-    <mergeCell ref="F1727:G1727"/>
-    <mergeCell ref="F1728:G1728"/>
-    <mergeCell ref="F1729:G1729"/>
-    <mergeCell ref="F1730:G1730"/>
-    <mergeCell ref="F1731:G1731"/>
-    <mergeCell ref="F1750:G1750"/>
-    <mergeCell ref="F1751:G1751"/>
-    <mergeCell ref="F1752:G1752"/>
-    <mergeCell ref="F1753:G1753"/>
-    <mergeCell ref="F1754:G1754"/>
-    <mergeCell ref="F1755:G1755"/>
-    <mergeCell ref="F1756:G1756"/>
-    <mergeCell ref="F1757:G1757"/>
-    <mergeCell ref="F1758:G1758"/>
-    <mergeCell ref="F1741:G1741"/>
-    <mergeCell ref="F1742:G1742"/>
-    <mergeCell ref="F1743:G1743"/>
-    <mergeCell ref="F1744:G1744"/>
-    <mergeCell ref="F1745:G1745"/>
-    <mergeCell ref="F1746:G1746"/>
-    <mergeCell ref="F1747:G1747"/>
-    <mergeCell ref="F1748:G1748"/>
-    <mergeCell ref="F1749:G1749"/>
-    <mergeCell ref="F1768:G1768"/>
-    <mergeCell ref="F1769:G1769"/>
-    <mergeCell ref="F1770:G1770"/>
-    <mergeCell ref="F1771:G1771"/>
-    <mergeCell ref="F1772:G1772"/>
-    <mergeCell ref="F1773:G1773"/>
-    <mergeCell ref="F1774:G1774"/>
-    <mergeCell ref="F1775:G1775"/>
-    <mergeCell ref="F1776:G1776"/>
-    <mergeCell ref="F1759:G1759"/>
-    <mergeCell ref="F1760:G1760"/>
-    <mergeCell ref="F1761:G1761"/>
-    <mergeCell ref="F1762:G1762"/>
-    <mergeCell ref="F1763:G1763"/>
-    <mergeCell ref="F1764:G1764"/>
-    <mergeCell ref="F1765:G1765"/>
-    <mergeCell ref="F1766:G1766"/>
-    <mergeCell ref="F1767:G1767"/>
-    <mergeCell ref="F1786:G1786"/>
-    <mergeCell ref="F1787:G1787"/>
-    <mergeCell ref="F1788:G1788"/>
-    <mergeCell ref="F1789:G1789"/>
-    <mergeCell ref="F1790:G1790"/>
-    <mergeCell ref="F1791:G1791"/>
-    <mergeCell ref="F1792:G1792"/>
-    <mergeCell ref="F1793:G1793"/>
-    <mergeCell ref="F1794:G1794"/>
-    <mergeCell ref="F1777:G1777"/>
-    <mergeCell ref="F1778:G1778"/>
-    <mergeCell ref="F1779:G1779"/>
-    <mergeCell ref="F1780:G1780"/>
-    <mergeCell ref="F1781:G1781"/>
-    <mergeCell ref="F1782:G1782"/>
-    <mergeCell ref="F1783:G1783"/>
-    <mergeCell ref="F1784:G1784"/>
-    <mergeCell ref="F1785:G1785"/>
-    <mergeCell ref="F1804:G1804"/>
-    <mergeCell ref="F1805:G1805"/>
-    <mergeCell ref="F1806:G1806"/>
-    <mergeCell ref="F1807:G1807"/>
-    <mergeCell ref="F1808:G1808"/>
-    <mergeCell ref="F1809:G1809"/>
-    <mergeCell ref="F1810:G1810"/>
-    <mergeCell ref="F1811:G1811"/>
-    <mergeCell ref="F1812:G1812"/>
-    <mergeCell ref="F1795:G1795"/>
-    <mergeCell ref="F1796:G1796"/>
-    <mergeCell ref="F1797:G1797"/>
-    <mergeCell ref="F1798:G1798"/>
-    <mergeCell ref="F1799:G1799"/>
-    <mergeCell ref="F1800:G1800"/>
-    <mergeCell ref="F1801:G1801"/>
-    <mergeCell ref="F1802:G1802"/>
-    <mergeCell ref="F1803:G1803"/>
-    <mergeCell ref="F1822:G1822"/>
-    <mergeCell ref="F1823:G1823"/>
-    <mergeCell ref="F1824:G1824"/>
-    <mergeCell ref="F1825:G1825"/>
-    <mergeCell ref="F1826:G1826"/>
-    <mergeCell ref="F1827:G1827"/>
-    <mergeCell ref="F1828:G1828"/>
-    <mergeCell ref="F1829:G1829"/>
-    <mergeCell ref="F1830:G1830"/>
-    <mergeCell ref="F1813:G1813"/>
-    <mergeCell ref="F1814:G1814"/>
-    <mergeCell ref="F1815:G1815"/>
-    <mergeCell ref="F1816:G1816"/>
-    <mergeCell ref="F1817:G1817"/>
-    <mergeCell ref="F1818:G1818"/>
-    <mergeCell ref="F1819:G1819"/>
-    <mergeCell ref="F1820:G1820"/>
-    <mergeCell ref="F1821:G1821"/>
-    <mergeCell ref="F1840:G1840"/>
-    <mergeCell ref="F1841:G1841"/>
-    <mergeCell ref="F1842:G1842"/>
-    <mergeCell ref="F1843:G1843"/>
-    <mergeCell ref="F1844:G1844"/>
-    <mergeCell ref="F1845:G1845"/>
-    <mergeCell ref="F1846:G1846"/>
-    <mergeCell ref="F1847:G1847"/>
-    <mergeCell ref="F1848:G1848"/>
-    <mergeCell ref="F1831:G1831"/>
-    <mergeCell ref="F1832:G1832"/>
-    <mergeCell ref="F1833:G1833"/>
-    <mergeCell ref="F1834:G1834"/>
-    <mergeCell ref="F1835:G1835"/>
-    <mergeCell ref="F1836:G1836"/>
-    <mergeCell ref="F1837:G1837"/>
-    <mergeCell ref="F1838:G1838"/>
-    <mergeCell ref="F1839:G1839"/>
-    <mergeCell ref="F1858:G1858"/>
-    <mergeCell ref="F1859:G1859"/>
-    <mergeCell ref="F1860:G1860"/>
-    <mergeCell ref="F1861:G1861"/>
-    <mergeCell ref="F1862:G1862"/>
-    <mergeCell ref="F1863:G1863"/>
-    <mergeCell ref="F1864:G1864"/>
-    <mergeCell ref="F1865:G1865"/>
-    <mergeCell ref="F1866:G1866"/>
-    <mergeCell ref="F1849:G1849"/>
-    <mergeCell ref="F1850:G1850"/>
-    <mergeCell ref="F1851:G1851"/>
-    <mergeCell ref="F1852:G1852"/>
-    <mergeCell ref="F1853:G1853"/>
-    <mergeCell ref="F1854:G1854"/>
-    <mergeCell ref="F1855:G1855"/>
-    <mergeCell ref="F1856:G1856"/>
-    <mergeCell ref="F1857:G1857"/>
-    <mergeCell ref="F1876:G1876"/>
-    <mergeCell ref="F1877:G1877"/>
-    <mergeCell ref="F1878:G1878"/>
-    <mergeCell ref="F1879:G1879"/>
-    <mergeCell ref="F1880:G1880"/>
-    <mergeCell ref="F1881:G1881"/>
-    <mergeCell ref="F1882:G1882"/>
-    <mergeCell ref="F1883:G1883"/>
-    <mergeCell ref="F1884:G1884"/>
-    <mergeCell ref="F1867:G1867"/>
-    <mergeCell ref="F1868:G1868"/>
-    <mergeCell ref="F1869:G1869"/>
-    <mergeCell ref="F1870:G1870"/>
-    <mergeCell ref="F1871:G1871"/>
-    <mergeCell ref="F1872:G1872"/>
-    <mergeCell ref="F1873:G1873"/>
-    <mergeCell ref="F1874:G1874"/>
-    <mergeCell ref="F1875:G1875"/>
-    <mergeCell ref="F1894:G1894"/>
-    <mergeCell ref="F1895:G1895"/>
-    <mergeCell ref="F1896:G1896"/>
-    <mergeCell ref="F1897:G1897"/>
-    <mergeCell ref="F1898:G1898"/>
-    <mergeCell ref="F1899:G1899"/>
-    <mergeCell ref="F1900:G1900"/>
-    <mergeCell ref="F1901:G1901"/>
-    <mergeCell ref="F1902:G1902"/>
-    <mergeCell ref="F1885:G1885"/>
-    <mergeCell ref="F1886:G1886"/>
-    <mergeCell ref="F1887:G1887"/>
-    <mergeCell ref="F1888:G1888"/>
-    <mergeCell ref="F1889:G1889"/>
-    <mergeCell ref="F1890:G1890"/>
-    <mergeCell ref="F1891:G1891"/>
-    <mergeCell ref="F1892:G1892"/>
-    <mergeCell ref="F1893:G1893"/>
-    <mergeCell ref="F1912:G1912"/>
-    <mergeCell ref="F1913:G1913"/>
-    <mergeCell ref="F1914:G1914"/>
-    <mergeCell ref="F1915:G1915"/>
-    <mergeCell ref="F1916:G1916"/>
-    <mergeCell ref="F1917:G1917"/>
-    <mergeCell ref="F1918:G1918"/>
-    <mergeCell ref="F1919:G1919"/>
-    <mergeCell ref="F1920:G1920"/>
-    <mergeCell ref="F1903:G1903"/>
-    <mergeCell ref="F1904:G1904"/>
-    <mergeCell ref="F1905:G1905"/>
-    <mergeCell ref="F1906:G1906"/>
-    <mergeCell ref="F1907:G1907"/>
-    <mergeCell ref="F1908:G1908"/>
-    <mergeCell ref="F1909:G1909"/>
-    <mergeCell ref="F1910:G1910"/>
-    <mergeCell ref="F1911:G1911"/>
-    <mergeCell ref="F1930:G1930"/>
-    <mergeCell ref="F1931:G1931"/>
-    <mergeCell ref="F1932:G1932"/>
-    <mergeCell ref="F1933:G1933"/>
-    <mergeCell ref="F1934:G1934"/>
-    <mergeCell ref="F1935:G1935"/>
-    <mergeCell ref="F1936:G1936"/>
-    <mergeCell ref="F1937:G1937"/>
-    <mergeCell ref="F1938:G1938"/>
-    <mergeCell ref="F1921:G1921"/>
-    <mergeCell ref="F1922:G1922"/>
-    <mergeCell ref="F1923:G1923"/>
-    <mergeCell ref="F1924:G1924"/>
-    <mergeCell ref="F1925:G1925"/>
-    <mergeCell ref="F1926:G1926"/>
-    <mergeCell ref="F1927:G1927"/>
-    <mergeCell ref="F1928:G1928"/>
-    <mergeCell ref="F1929:G1929"/>
-    <mergeCell ref="F1948:G1948"/>
-    <mergeCell ref="F1949:G1949"/>
-    <mergeCell ref="F1950:G1950"/>
-    <mergeCell ref="F1951:G1951"/>
-    <mergeCell ref="F1952:G1952"/>
-    <mergeCell ref="F1953:G1953"/>
-    <mergeCell ref="F1954:G1954"/>
-    <mergeCell ref="F1955:G1955"/>
-    <mergeCell ref="F1956:G1956"/>
-    <mergeCell ref="F1939:G1939"/>
-    <mergeCell ref="F1940:G1940"/>
-    <mergeCell ref="F1941:G1941"/>
-    <mergeCell ref="F1942:G1942"/>
-    <mergeCell ref="F1943:G1943"/>
-    <mergeCell ref="F1944:G1944"/>
-    <mergeCell ref="F1945:G1945"/>
-    <mergeCell ref="F1946:G1946"/>
-    <mergeCell ref="F1947:G1947"/>
-    <mergeCell ref="F1966:G1966"/>
-    <mergeCell ref="F1967:G1967"/>
-    <mergeCell ref="F1968:G1968"/>
-    <mergeCell ref="F1969:G1969"/>
-    <mergeCell ref="F1970:G1970"/>
-    <mergeCell ref="F1971:G1971"/>
-    <mergeCell ref="F1972:G1972"/>
-    <mergeCell ref="F1973:G1973"/>
-    <mergeCell ref="F1974:G1974"/>
-    <mergeCell ref="F1957:G1957"/>
-    <mergeCell ref="F1958:G1958"/>
-    <mergeCell ref="F1959:G1959"/>
-    <mergeCell ref="F1960:G1960"/>
-    <mergeCell ref="F1961:G1961"/>
-    <mergeCell ref="F1962:G1962"/>
-    <mergeCell ref="F1963:G1963"/>
-    <mergeCell ref="F1964:G1964"/>
-    <mergeCell ref="F1965:G1965"/>
-    <mergeCell ref="F1984:G1984"/>
-    <mergeCell ref="F1985:G1985"/>
-    <mergeCell ref="F1986:G1986"/>
-    <mergeCell ref="F1987:G1987"/>
-    <mergeCell ref="F1988:G1988"/>
-    <mergeCell ref="F1989:G1989"/>
-    <mergeCell ref="F1990:G1990"/>
-    <mergeCell ref="F1991:G1991"/>
-    <mergeCell ref="F1992:G1992"/>
-    <mergeCell ref="F1975:G1975"/>
-    <mergeCell ref="F1976:G1976"/>
-    <mergeCell ref="F1977:G1977"/>
-    <mergeCell ref="F1978:G1978"/>
-    <mergeCell ref="F1979:G1979"/>
-    <mergeCell ref="F1980:G1980"/>
-    <mergeCell ref="F1981:G1981"/>
-    <mergeCell ref="F1982:G1982"/>
-    <mergeCell ref="F1983:G1983"/>
-    <mergeCell ref="F2011:G2011"/>
-    <mergeCell ref="F2002:G2002"/>
-    <mergeCell ref="F2003:G2003"/>
-    <mergeCell ref="F2004:G2004"/>
-    <mergeCell ref="F2005:G2005"/>
-    <mergeCell ref="F2006:G2006"/>
-    <mergeCell ref="F2007:G2007"/>
-    <mergeCell ref="F2008:G2008"/>
-    <mergeCell ref="F2009:G2009"/>
-    <mergeCell ref="F2010:G2010"/>
-    <mergeCell ref="F1993:G1993"/>
-    <mergeCell ref="F1994:G1994"/>
-    <mergeCell ref="F1995:G1995"/>
-    <mergeCell ref="F1996:G1996"/>
-    <mergeCell ref="F1997:G1997"/>
-    <mergeCell ref="F1998:G1998"/>
-    <mergeCell ref="F1999:G1999"/>
-    <mergeCell ref="F2000:G2000"/>
-    <mergeCell ref="F2001:G2001"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
